--- a/assets/Check_report_template.xlsx
+++ b/assets/Check_report_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\DMS\Project ABC\02_DataFlow\Baseline\04_Output\02_Checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A44D5A15-305C-4FEC-8DB6-602D5EA0EDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA197D6-0E4E-46E5-8CC0-570DC32D299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16482" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16484" uniqueCount="56">
   <si>
     <t>Submission Date</t>
   </si>
@@ -242,18 +242,25 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>DK %</t>
+  </si>
+  <si>
+    <t>REF %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.00\%"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -386,6 +393,10 @@
       <sz val="16"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Aharoni"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -591,11 +602,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -785,10 +797,12 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -4820,10 +4834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572AD746-06BE-419C-B44E-12A2786B19C0}">
-  <dimension ref="L1:R2"/>
+  <dimension ref="L1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4834,9 +4848,10 @@
     <col min="16" max="16" width="11" style="59" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" style="59" customWidth="1"/>
     <col min="18" max="18" width="13.7109375" style="60" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:18" ht="54.75">
+    <row r="1" spans="12:20" ht="54.75">
       <c r="L1" s="63" t="s">
         <v>15</v>
       </c>
@@ -4858,8 +4873,14 @@
       <c r="R1" s="61" t="s">
         <v>52</v>
       </c>
+      <c r="S1" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="61" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="12:18">
+    <row r="2" spans="12:20">
       <c r="L2" s="62" t="str" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">EnumIDs</f>
         <v xml:space="preserve"> </v>
@@ -4891,7 +4912,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/assets/Check_report_template.xlsx
+++ b/assets/Check_report_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\DMS\Project ABC\02_DataFlow\Baseline\04_Output\02_Checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA197D6-0E4E-46E5-8CC0-570DC32D299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A35A75C-86FF-443B-B871-7B451E529FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="813" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16484" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16485" uniqueCount="57">
   <si>
     <t>Submission Date</t>
   </si>
@@ -248,6 +248,9 @@
   <si>
     <t>REF %</t>
   </si>
+  <si>
+    <t>Duration</t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +261,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.00\%"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -746,6 +749,7 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,7 +801,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4021,7 +4024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2F5AA9-C859-4468-85D0-CFE473B9414B}">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
@@ -4060,17 +4063,17 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="75" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
       <c r="M2" s="11"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
@@ -4090,13 +4093,13 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="64">
+      <c r="F3" s="65">
         <f>COUNT('C1. Progress'!A3:A1000)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="15" t="s">
         <v>10</v>
       </c>
@@ -4127,10 +4130,10 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="23">
         <v>1</v>
       </c>
@@ -4157,10 +4160,10 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="23">
         <v>2</v>
       </c>
@@ -4217,12 +4220,12 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="23">
         <v>4</v>
       </c>
@@ -4249,13 +4252,13 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="64">
+      <c r="F8" s="65">
         <f>SUM('C1. Progress'!B1:B998)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
       <c r="J8" s="25">
         <v>5</v>
       </c>
@@ -4282,15 +4285,15 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="79" t="s">
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="12"/>
@@ -4306,16 +4309,16 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="70" t="str" cm="1">
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="71" t="str" cm="1">
         <f t="array" ref="J10">IF(COUNT('C3. Duplicates'!A5:A1000)&gt;0,"Total "&amp;COUNT('C3. Duplicates'!A5:A1000)&amp;" issues with "&amp;SUM(IF('C3. Duplicates'!A5:'C3. Duplicates'!A1000&lt;&gt;"",1/COUNTIF('C3. Duplicates'!A5:'C3. Duplicates'!A1000,'C3. Duplicates'!A5:'C3. Duplicates'!A1000),0))&amp;" IDs", "No duplicates")</f>
         <v>No duplicates</v>
       </c>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="12"/>
@@ -4331,15 +4334,15 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -4355,13 +4358,13 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="64">
+      <c r="F12" s="65">
         <f>COUNTA('C2. Productivity'!A4:A1000)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
       <c r="L12" s="48"/>
@@ -4380,10 +4383,10 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="66"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
       <c r="L13" s="48"/>
@@ -4402,10 +4405,10 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="70"/>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
@@ -4834,10 +4837,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572AD746-06BE-419C-B44E-12A2786B19C0}">
-  <dimension ref="L1:T2"/>
+  <dimension ref="L1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4848,10 +4851,10 @@
     <col min="16" max="16" width="11" style="59" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" style="59" customWidth="1"/>
     <col min="18" max="18" width="13.7109375" style="60" customWidth="1"/>
-    <col min="19" max="20" width="9.140625" style="81"/>
+    <col min="19" max="20" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:20" ht="54.75">
+    <row r="1" spans="12:21" ht="54.75">
       <c r="L1" s="63" t="s">
         <v>15</v>
       </c>
@@ -4879,8 +4882,11 @@
       <c r="T1" s="61" t="s">
         <v>55</v>
       </c>
+      <c r="U1" s="61" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="12:20">
+    <row r="2" spans="12:21">
       <c r="L2" s="62" t="str" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">EnumIDs</f>
         <v xml:space="preserve"> </v>
@@ -4938,13 +4944,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="4"/>
@@ -5734,31 +5740,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
       <c r="X1" s="32"/>
       <c r="Y1" s="32"/>
     </row>
@@ -55264,13 +55270,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="19.5" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
@@ -55450,19 +55456,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="G1" s="80" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="G1" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
     </row>
     <row r="4" spans="1:10" s="53" customFormat="1">
       <c r="A4" s="51" t="s">
@@ -55549,14 +55555,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2"/>
@@ -55625,16 +55631,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2"/>
@@ -56752,18 +56758,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2"/>

--- a/assets/Check_report_template.xlsx
+++ b/assets/Check_report_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrab Ali\Documents\GitHub\arceddataflow\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D417627-FAF9-4B08-BDE5-F3EECC21D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67146EC-2215-4F65-ACCF-A989FB0D5D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16486" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16488" uniqueCount="60">
   <si>
     <t>Submission Date</t>
   </si>
@@ -254,17 +254,24 @@
   <si>
     <t>Average duration (min)</t>
   </si>
+  <si>
+    <t>Average productivity</t>
+  </si>
+  <si>
+    <t>KPI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.00\%"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -403,6 +410,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -619,7 +627,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -804,15 +812,19 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4036,13 +4048,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2F5AA9-C859-4468-85D0-CFE473B9414B}">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.7109375" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4085,9 +4101,11 @@
       <c r="K2" s="75"/>
       <c r="L2" s="75"/>
       <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="N2" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
@@ -4120,9 +4138,12 @@
         <v>12</v>
       </c>
       <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="N3" s="81" t="e">
+        <f>F8/F3/F12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
@@ -4156,9 +4177,9 @@
         <v>#NUM!</v>
       </c>
       <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
@@ -4399,9 +4420,9 @@
       <c r="G13" s="65"/>
       <c r="H13" s="65"/>
       <c r="I13" s="66"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -4421,9 +4442,9 @@
       <c r="G14" s="68"/>
       <c r="H14" s="68"/>
       <c r="I14" s="69"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -4830,7 +4851,9 @@
       <c r="T32" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P4"/>
     <mergeCell ref="F12:I14"/>
     <mergeCell ref="J10:L11"/>
     <mergeCell ref="F3:I5"/>
@@ -4851,10 +4874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572AD746-06BE-419C-B44E-12A2786B19C0}">
-  <dimension ref="L1:U2"/>
+  <dimension ref="L1:AA41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4866,9 +4889,10 @@
     <col min="17" max="17" width="11.85546875" style="58" customWidth="1"/>
     <col min="18" max="18" width="13.7109375" style="59" customWidth="1"/>
     <col min="19" max="20" width="9.140625" style="63"/>
+    <col min="22" max="26" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:21" ht="54.75">
+    <row r="1" spans="12:27" ht="54.75">
       <c r="L1" s="62" t="s">
         <v>15</v>
       </c>
@@ -4899,8 +4923,11 @@
       <c r="U1" s="60" t="s">
         <v>56</v>
       </c>
+      <c r="AA1" s="60" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="12:21">
+    <row r="2" spans="12:27">
       <c r="L2" s="61" t="str" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">EnumIDs</f>
         <v xml:space="preserve"> </v>
@@ -4928,6 +4955,1044 @@
       <c r="R2" s="59" t="e" cm="1">
         <f t="array" aca="1" ref="R2" ca="1">RefRate</f>
         <v>#REF!</v>
+      </c>
+      <c r="V2" s="83" t="e">
+        <f ca="1">((P2/N2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W2" t="e">
+        <f ca="1">N2/MAX(N:N)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X2" t="e">
+        <f>AVERAGE(U:U)/ABS(U2-AVERAGE(U:U))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y2" s="84" t="e">
+        <f ca="1">(R2+S2+T2)*0.3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z2" s="85" t="e">
+        <f ca="1">(V2*50)+(X2*0.5)-Y2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA2" s="86" t="e">
+        <f ca="1">Z2/MAX(Z:Z)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="12:27">
+      <c r="V3" s="83" t="e">
+        <f t="shared" ref="V3:V41" si="0">((P3/N3))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" t="e">
+        <f t="shared" ref="W3:W41" ca="1" si="1">N3/MAX(N:N)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X3" t="e">
+        <f t="shared" ref="X3:X41" si="2">AVERAGE(U:U)/ABS(U3-AVERAGE(U:U))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y3" s="84">
+        <f t="shared" ref="Y3:Y41" si="3">(R3+S3+T3)*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="85" t="e">
+        <f t="shared" ref="Z3:Z41" si="4">(V3*50)+(X3*0.5)-Y3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA3" s="86" t="e">
+        <f t="shared" ref="AA3:AA41" ca="1" si="5">Z3/MAX(Z:Z)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="12:27">
+      <c r="V4" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y4" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA4" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="12:27">
+      <c r="V5" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y5" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA5" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="12:27">
+      <c r="V6" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y6" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA6" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="12:27">
+      <c r="V7" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y7" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA7" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="12:27">
+      <c r="V8" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y8" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA8" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="12:27">
+      <c r="V9" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y9" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA9" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="12:27">
+      <c r="V10" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y10" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA10" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="12:27">
+      <c r="V11" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y11" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA11" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="12:27">
+      <c r="V12" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA12" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="12:27">
+      <c r="V13" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA13" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="12:27">
+      <c r="V14" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA14" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="12:27">
+      <c r="V15" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y15" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA15" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="12:27">
+      <c r="V16" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y16" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA16" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="22:27">
+      <c r="V17" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X17" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y17" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA17" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="22:27">
+      <c r="V18" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y18" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA18" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="22:27">
+      <c r="V19" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y19" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA19" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="22:27">
+      <c r="V20" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y20" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA20" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="22:27">
+      <c r="V21" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y21" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA21" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="22:27">
+      <c r="V22" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y22" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA22" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="22:27">
+      <c r="V23" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W23" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y23" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA23" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="22:27">
+      <c r="V24" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X24" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y24" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA24" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="22:27">
+      <c r="V25" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X25" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y25" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA25" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="22:27">
+      <c r="V26" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X26" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y26" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA26" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="22:27">
+      <c r="V27" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X27" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y27" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA27" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="22:27">
+      <c r="V28" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y28" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA28" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="22:27">
+      <c r="V29" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X29" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y29" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA29" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="22:27">
+      <c r="V30" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y30" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA30" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="22:27">
+      <c r="V31" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W31" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X31" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y31" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA31" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="22:27">
+      <c r="V32" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W32" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y32" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA32" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="22:27">
+      <c r="V33" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W33" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X33" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y33" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA33" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="22:27">
+      <c r="V34" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W34" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X34" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y34" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA34" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="22:27">
+      <c r="V35" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W35" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y35" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA35" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="22:27">
+      <c r="V36" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W36" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X36" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y36" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA36" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="22:27">
+      <c r="V37" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W37" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X37" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y37" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA37" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="22:27">
+      <c r="V38" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W38" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X38" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y38" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA38" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="22:27">
+      <c r="V39" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W39" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y39" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA39" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="22:27">
+      <c r="V40" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W40" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y40" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA40" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="22:27">
+      <c r="V41" s="83" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W41" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X41" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y41" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA41" s="86" t="e">
+        <f t="shared" ca="1" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -4958,13 +6023,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="4"/>
@@ -5754,31 +6819,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
       <c r="X1" s="32"/>
       <c r="Y1" s="32"/>
     </row>
@@ -55284,13 +56349,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="19.5" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
@@ -55470,19 +56535,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="G1" s="80" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="G1" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1">
       <c r="A4" s="50" t="s">
@@ -55569,14 +56634,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2"/>
@@ -55645,16 +56710,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2"/>
@@ -56772,18 +57837,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2"/>

--- a/assets/Check_report_template.xlsx
+++ b/assets/Check_report_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrab Ali\Documents\GitHub\arceddataflow\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939FE92A-ACAC-4446-946F-7F1C1217523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616D0745-38F6-4450-BAA9-22B955783D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16492" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16490" uniqueCount="63">
   <si>
     <t>Submission Date</t>
   </si>
@@ -255,12 +255,6 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Average duration (min)</t>
-  </si>
-  <si>
-    <t>Average productivity</t>
-  </si>
-  <si>
     <t>KPI</t>
   </si>
   <si>
@@ -275,6 +269,9 @@
   <si>
     <t>score</t>
   </si>
+  <si>
+    <t>AVERAGE PRODUCTIVITY</t>
+  </si>
 </sst>
 </file>
 
@@ -288,7 +285,7 @@
     <numFmt numFmtId="167" formatCode="0.000%"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -414,13 +411,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Aharoni"/>
     </font>
     <font>
       <sz val="11"/>
@@ -640,9 +630,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -777,10 +767,14 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,18 +822,11 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4836,7 +4823,7 @@
     <col min="11" max="11" width="27.7109375" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4867,23 +4854,23 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="79" t="s">
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
       <c r="M2" s="11"/>
-      <c r="N2" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
+      <c r="N2" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
@@ -4899,13 +4886,13 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="68">
+      <c r="F3" s="70">
         <f>COUNT('C1. Progress'!A3:A1000)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="15" t="s">
         <v>10</v>
       </c>
@@ -4916,12 +4903,12 @@
         <v>12</v>
       </c>
       <c r="M3" s="13"/>
-      <c r="N3" s="67" t="e">
+      <c r="N3" s="69" t="e">
         <f>F8/F3/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
@@ -4939,10 +4926,10 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="23">
         <v>1</v>
       </c>
@@ -4950,14 +4937,14 @@
         <f ca="1">INDEX(EnumPerformance!$M$2:$M$1000,MATCH(L4,EnumPerformance!$AD$2:$AD$1000,0))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L4" s="86" t="e">
+      <c r="L4" s="67" t="e">
         <f ca="1">LARGE(EnumPerformance!$AD$2:$AD$1000,J4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="M4" s="13"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
@@ -4969,10 +4956,10 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="23">
         <v>2</v>
       </c>
@@ -4980,7 +4967,7 @@
         <f ca="1">INDEX(EnumPerformance!$M$2:$M$1000,MATCH(L5,EnumPerformance!$AD$2:$AD$1000,0))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L5" s="86" t="e">
+      <c r="L5" s="67" t="e">
         <f ca="1">LARGE(EnumPerformance!$AD$2:$AD$1000,J5)</f>
         <v>#VALUE!</v>
       </c>
@@ -5010,7 +4997,7 @@
         <f ca="1">INDEX(EnumPerformance!$M$2:$M$1000,MATCH(L6,EnumPerformance!$AD$2:$AD$1000,0))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L6" s="86" t="e">
+      <c r="L6" s="67" t="e">
         <f ca="1">LARGE(EnumPerformance!$AD$2:$AD$1000,J6)</f>
         <v>#VALUE!</v>
       </c>
@@ -5029,12 +5016,12 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="23">
         <v>4</v>
       </c>
@@ -5042,7 +5029,7 @@
         <f ca="1">INDEX(EnumPerformance!$M$2:$M$1000,MATCH(L7,EnumPerformance!$AD$2:$AD$1000,0))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L7" s="86" t="e">
+      <c r="L7" s="67" t="e">
         <f ca="1">LARGE(EnumPerformance!$AD$2:$AD$1000,J7)</f>
         <v>#VALUE!</v>
       </c>
@@ -5061,13 +5048,13 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="68">
+      <c r="F8" s="70">
         <f>SUM('C1. Progress'!B1:B998)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="70"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="24">
         <v>5</v>
       </c>
@@ -5075,7 +5062,7 @@
         <f ca="1">INDEX(EnumPerformance!$M$2:$M$1000,MATCH(L8,EnumPerformance!$AD$2:$AD$1000,0))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L8" s="87" t="e">
+      <c r="L8" s="68" t="e">
         <f ca="1">LARGE(EnumPerformance!$AD$2:$AD$1000,J8)</f>
         <v>#VALUE!</v>
       </c>
@@ -5094,15 +5081,16 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="81" t="str">
+        <f>UPPER("Duplicate submissions")</f>
+        <v>DUPLICATE SUBMISSIONS</v>
+      </c>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="12"/>
@@ -5118,16 +5106,16 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="74" t="str" cm="1">
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="76" t="str" cm="1">
         <f t="array" ref="J10">IF(COUNT('C3. Duplicates'!A5:A1000)&gt;0,"Total "&amp;COUNT('C3. Duplicates'!A5:A1000)&amp;" issues with "&amp;SUM(IF('C3. Duplicates'!A5:'C3. Duplicates'!A1000&lt;&gt;"",1/COUNTIF('C3. Duplicates'!A5:'C3. Duplicates'!A1000,'C3. Duplicates'!A5:'C3. Duplicates'!A1000),0))&amp;" IDs", "No duplicates")</f>
         <v>No duplicates</v>
       </c>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="12"/>
@@ -5143,15 +5131,15 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -5167,18 +5155,19 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="68">
+      <c r="F12" s="70">
         <f>COUNTA('C2. Productivity'!A4:A1000)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="81" t="str">
+        <f>UPPER("Average duration (min)")</f>
+        <v>AVERAGE DURATION (MIN)</v>
+      </c>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -5194,13 +5183,13 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -5216,13 +5205,13 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -5701,20 +5690,20 @@
       <c r="U1" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="85" t="s">
+      <c r="Z1" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" s="85" t="s">
+      <c r="AC1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" s="85" t="s">
-        <v>63</v>
-      </c>
       <c r="AD1" s="58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="12:30">
@@ -25111,13 +25100,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="4"/>
@@ -25907,31 +25896,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
       <c r="X1" s="30"/>
       <c r="Y1" s="30"/>
     </row>
@@ -75437,13 +75426,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="19.5" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
@@ -75623,19 +75612,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="G1" s="84" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="G1" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
     </row>
     <row r="4" spans="1:10" s="50" customFormat="1">
       <c r="A4" s="48" t="s">
@@ -75722,14 +75711,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2"/>
@@ -75798,16 +75787,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2"/>
@@ -76925,18 +76914,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2"/>

--- a/assets/Check_report_template.xlsx
+++ b/assets/Check_report_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrab Ali\Documents\GitHub\arceddataflow\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E194B19-51C2-46AE-8FE8-1EF16773B3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD13F3C-68AD-44A2-8242-32B902A49343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="C5. Refusals" sheetId="9" r:id="rId7"/>
     <sheet name="C6. DateCheck" sheetId="10" r:id="rId8"/>
     <sheet name="C7. Outliers" sheetId="11" r:id="rId9"/>
+    <sheet name="C8. Comments" sheetId="12" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'C2. Productivity'!$A$3:$B$3</definedName>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16494" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16501" uniqueCount="70">
   <si>
     <t>Submission Date</t>
   </si>
@@ -283,6 +284,15 @@
   </si>
   <si>
     <t>C7: Outliers</t>
+  </si>
+  <si>
+    <t>C8: Field comments</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -659,7 +669,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -825,21 +835,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="20" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -873,6 +868,9 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,8 +883,29 @@
     <xf numFmtId="2" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3930,6 +3949,7 @@
       <sheetName val="C5. Refusals"/>
       <sheetName val="C6. DateCheck"/>
       <sheetName val="C7. Outliers"/>
+      <sheetName val="C8. Comments"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4140,7 +4160,7 @@
       <sheetData sheetId="4">
         <row r="1">
           <cell r="A1" t="str">
-            <v>Duplicate submissions</v>
+            <v>C3: Duplicate submissions</v>
           </cell>
         </row>
         <row r="4">
@@ -4671,6 +4691,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4976,7 +4997,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5019,23 +5040,23 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="82" t="s">
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
       <c r="M2" s="11"/>
-      <c r="N2" s="82" t="s">
+      <c r="N2" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
       <c r="Q2" s="70"/>
       <c r="R2" s="72"/>
       <c r="S2" s="12"/>
@@ -5052,13 +5073,13 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="86">
+      <c r="F3" s="81">
         <f>COUNT('C1. Progress'!A3:A1000)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="88"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
       <c r="J3" s="15" t="s">
         <v>9</v>
       </c>
@@ -5069,12 +5090,12 @@
         <v>11</v>
       </c>
       <c r="M3" s="13"/>
-      <c r="N3" s="85" t="e">
+      <c r="N3" s="97" t="e">
         <f>F8/F3/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="72"/>
       <c r="S3" s="12"/>
@@ -5093,10 +5114,10 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="23">
         <v>1</v>
       </c>
@@ -5109,9 +5130,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="M4" s="13"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
       <c r="Q4" s="69"/>
       <c r="R4" s="72"/>
       <c r="S4" s="12"/>
@@ -5124,10 +5145,10 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="23">
         <v>2</v>
       </c>
@@ -5171,18 +5192,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="M6" s="13"/>
-      <c r="N6" s="82" t="s">
+      <c r="N6" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
       <c r="Q6" s="77"/>
       <c r="R6" s="74"/>
-      <c r="S6" s="83" t="s">
+      <c r="S6" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="83"/>
-      <c r="U6" s="84"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="100"/>
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1">
       <c r="A7" s="12"/>
@@ -5190,12 +5211,12 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="96"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
       <c r="J7" s="23">
         <v>4</v>
       </c>
@@ -5208,12 +5229,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="M7" s="13"/>
-      <c r="N7" s="81">
+      <c r="N7" s="98">
         <f>COUNT('C4. FormVersion'!G5:G)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
       <c r="Q7" s="78"/>
       <c r="R7" s="74"/>
       <c r="S7" s="12"/>
@@ -5226,13 +5247,13 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="86">
+      <c r="F8" s="81">
         <f>SUM('C1. Progress'!B1:B998)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="24">
         <v>5</v>
       </c>
@@ -5245,9 +5266,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="M8" s="13"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
       <c r="Q8" s="78"/>
       <c r="R8" s="73"/>
       <c r="S8" s="73"/>
@@ -5260,22 +5281,22 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="82" t="str">
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="92" t="str">
         <f>UPPER("Duplicate submissions")</f>
         <v>DUPLICATE SUBMISSIONS</v>
       </c>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="82" t="s">
+      <c r="N9" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
       <c r="Q9" s="70"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
@@ -5288,23 +5309,23 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="92" t="str" cm="1">
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="87" t="str" cm="1">
         <f t="array" ref="J10">IF(COUNT('C3. Duplicates'!A5:A1000)&gt;0,"Total "&amp;COUNT('C3. Duplicates'!A5:A1000)&amp;" issues with "&amp;SUM(IF('C3. Duplicates'!A5:'C3. Duplicates'!A1000&lt;&gt;"",1/COUNTIF('C3. Duplicates'!A5:'C3. Duplicates'!A1000,'C3. Duplicates'!A5:'C3. Duplicates'!A1000),0))&amp;" IDs", "No duplicates")</f>
         <v>No duplicates</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="81">
+      <c r="N10" s="98">
         <f>COUNT('C6. DateCheck'!B5:B)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
       <c r="Q10" s="71"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
@@ -5317,19 +5338,19 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
       <c r="Q11" s="71"/>
       <c r="R11" s="79"/>
       <c r="S11" s="12"/>
@@ -5342,25 +5363,25 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="86">
+      <c r="F12" s="81">
         <f>COUNTA('C2. Productivity'!A4:A1000)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="82" t="str">
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="92" t="str">
         <f>UPPER("Average duration (min)")</f>
         <v>AVERAGE DURATION (MIN)</v>
       </c>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="82" t="s">
+      <c r="N12" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
       <c r="Q12" s="70"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
@@ -5373,20 +5394,20 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="81">
+      <c r="N13" s="98">
         <f>COUNT('C7. Outliers'!B5:B)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
       <c r="Q13" s="71"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
@@ -5399,17 +5420,17 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
       <c r="Q14" s="71"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
@@ -5832,6 +5853,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="N10:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P14"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P8"/>
+    <mergeCell ref="N9:P9"/>
     <mergeCell ref="F12:I14"/>
     <mergeCell ref="J10:L11"/>
     <mergeCell ref="F3:I5"/>
@@ -5843,19 +5873,5107 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L14"/>
-    <mergeCell ref="N10:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P14"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P8"/>
-    <mergeCell ref="N9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="42" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686E1E38-1F8F-40D7-9483-81FA40DC1982}">
+  <dimension ref="A1:F1684"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="99.28515625" style="104" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A1" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="5:5">
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="5:5">
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="5:5">
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="5:5">
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="5:5">
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="5:5">
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="5:5">
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="5:5">
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="5:5">
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="5:5">
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="5:5">
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="5:5">
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="5:5">
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="5:5">
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="5:5">
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="5:5">
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" spans="5:5">
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="5:5">
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="5:5">
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="5:5">
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="5:5">
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="5:5">
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="5:5">
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" spans="5:5">
+      <c r="E94" s="10"/>
+    </row>
+    <row r="95" spans="5:5">
+      <c r="E95" s="10"/>
+    </row>
+    <row r="96" spans="5:5">
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" s="10"/>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="5:5">
+      <c r="E100" s="10"/>
+    </row>
+    <row r="101" spans="5:5">
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="5:5">
+      <c r="E102" s="10"/>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="5:5">
+      <c r="E104" s="10"/>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" s="10"/>
+    </row>
+    <row r="106" spans="5:5">
+      <c r="E106" s="10"/>
+    </row>
+    <row r="107" spans="5:5">
+      <c r="E107" s="10"/>
+    </row>
+    <row r="108" spans="5:5">
+      <c r="E108" s="10"/>
+    </row>
+    <row r="109" spans="5:5">
+      <c r="E109" s="10"/>
+    </row>
+    <row r="110" spans="5:5">
+      <c r="E110" s="10"/>
+    </row>
+    <row r="111" spans="5:5">
+      <c r="E111" s="10"/>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112" s="10"/>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" s="10"/>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114" s="10"/>
+    </row>
+    <row r="115" spans="5:5">
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="5:5">
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="5:5">
+      <c r="E117" s="10"/>
+    </row>
+    <row r="118" spans="5:5">
+      <c r="E118" s="10"/>
+    </row>
+    <row r="119" spans="5:5">
+      <c r="E119" s="10"/>
+    </row>
+    <row r="120" spans="5:5">
+      <c r="E120" s="10"/>
+    </row>
+    <row r="121" spans="5:5">
+      <c r="E121" s="10"/>
+    </row>
+    <row r="122" spans="5:5">
+      <c r="E122" s="10"/>
+    </row>
+    <row r="123" spans="5:5">
+      <c r="E123" s="10"/>
+    </row>
+    <row r="124" spans="5:5">
+      <c r="E124" s="10"/>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" s="10"/>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" s="10"/>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" s="10"/>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" s="10"/>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129" s="10"/>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" s="10"/>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" s="10"/>
+    </row>
+    <row r="132" spans="5:5">
+      <c r="E132" s="10"/>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" s="10"/>
+    </row>
+    <row r="134" spans="5:5">
+      <c r="E134" s="10"/>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" s="10"/>
+    </row>
+    <row r="136" spans="5:5">
+      <c r="E136" s="10"/>
+    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" s="10"/>
+    </row>
+    <row r="138" spans="5:5">
+      <c r="E138" s="10"/>
+    </row>
+    <row r="139" spans="5:5">
+      <c r="E139" s="10"/>
+    </row>
+    <row r="140" spans="5:5">
+      <c r="E140" s="10"/>
+    </row>
+    <row r="141" spans="5:5">
+      <c r="E141" s="10"/>
+    </row>
+    <row r="142" spans="5:5">
+      <c r="E142" s="10"/>
+    </row>
+    <row r="143" spans="5:5">
+      <c r="E143" s="10"/>
+    </row>
+    <row r="144" spans="5:5">
+      <c r="E144" s="10"/>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="10"/>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" s="10"/>
+    </row>
+    <row r="147" spans="5:5">
+      <c r="E147" s="10"/>
+    </row>
+    <row r="148" spans="5:5">
+      <c r="E148" s="10"/>
+    </row>
+    <row r="149" spans="5:5">
+      <c r="E149" s="10"/>
+    </row>
+    <row r="150" spans="5:5">
+      <c r="E150" s="10"/>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" s="10"/>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" s="10"/>
+    </row>
+    <row r="153" spans="5:5">
+      <c r="E153" s="10"/>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" s="10"/>
+    </row>
+    <row r="155" spans="5:5">
+      <c r="E155" s="10"/>
+    </row>
+    <row r="156" spans="5:5">
+      <c r="E156" s="10"/>
+    </row>
+    <row r="157" spans="5:5">
+      <c r="E157" s="10"/>
+    </row>
+    <row r="158" spans="5:5">
+      <c r="E158" s="10"/>
+    </row>
+    <row r="159" spans="5:5">
+      <c r="E159" s="10"/>
+    </row>
+    <row r="160" spans="5:5">
+      <c r="E160" s="10"/>
+    </row>
+    <row r="161" spans="5:5">
+      <c r="E161" s="10"/>
+    </row>
+    <row r="162" spans="5:5">
+      <c r="E162" s="10"/>
+    </row>
+    <row r="163" spans="5:5">
+      <c r="E163" s="10"/>
+    </row>
+    <row r="164" spans="5:5">
+      <c r="E164" s="10"/>
+    </row>
+    <row r="165" spans="5:5">
+      <c r="E165" s="10"/>
+    </row>
+    <row r="166" spans="5:5">
+      <c r="E166" s="10"/>
+    </row>
+    <row r="167" spans="5:5">
+      <c r="E167" s="10"/>
+    </row>
+    <row r="168" spans="5:5">
+      <c r="E168" s="10"/>
+    </row>
+    <row r="169" spans="5:5">
+      <c r="E169" s="10"/>
+    </row>
+    <row r="170" spans="5:5">
+      <c r="E170" s="10"/>
+    </row>
+    <row r="171" spans="5:5">
+      <c r="E171" s="10"/>
+    </row>
+    <row r="172" spans="5:5">
+      <c r="E172" s="10"/>
+    </row>
+    <row r="173" spans="5:5">
+      <c r="E173" s="10"/>
+    </row>
+    <row r="174" spans="5:5">
+      <c r="E174" s="10"/>
+    </row>
+    <row r="175" spans="5:5">
+      <c r="E175" s="10"/>
+    </row>
+    <row r="176" spans="5:5">
+      <c r="E176" s="10"/>
+    </row>
+    <row r="177" spans="5:5">
+      <c r="E177" s="10"/>
+    </row>
+    <row r="178" spans="5:5">
+      <c r="E178" s="10"/>
+    </row>
+    <row r="179" spans="5:5">
+      <c r="E179" s="10"/>
+    </row>
+    <row r="180" spans="5:5">
+      <c r="E180" s="10"/>
+    </row>
+    <row r="181" spans="5:5">
+      <c r="E181" s="10"/>
+    </row>
+    <row r="182" spans="5:5">
+      <c r="E182" s="10"/>
+    </row>
+    <row r="183" spans="5:5">
+      <c r="E183" s="10"/>
+    </row>
+    <row r="184" spans="5:5">
+      <c r="E184" s="10"/>
+    </row>
+    <row r="185" spans="5:5">
+      <c r="E185" s="10"/>
+    </row>
+    <row r="186" spans="5:5">
+      <c r="E186" s="10"/>
+    </row>
+    <row r="187" spans="5:5">
+      <c r="E187" s="10"/>
+    </row>
+    <row r="188" spans="5:5">
+      <c r="E188" s="10"/>
+    </row>
+    <row r="189" spans="5:5">
+      <c r="E189" s="10"/>
+    </row>
+    <row r="190" spans="5:5">
+      <c r="E190" s="10"/>
+    </row>
+    <row r="191" spans="5:5">
+      <c r="E191" s="10"/>
+    </row>
+    <row r="192" spans="5:5">
+      <c r="E192" s="10"/>
+    </row>
+    <row r="193" spans="5:5">
+      <c r="E193" s="10"/>
+    </row>
+    <row r="194" spans="5:5">
+      <c r="E194" s="10"/>
+    </row>
+    <row r="195" spans="5:5">
+      <c r="E195" s="10"/>
+    </row>
+    <row r="196" spans="5:5">
+      <c r="E196" s="10"/>
+    </row>
+    <row r="197" spans="5:5">
+      <c r="E197" s="10"/>
+    </row>
+    <row r="198" spans="5:5">
+      <c r="E198" s="10"/>
+    </row>
+    <row r="199" spans="5:5">
+      <c r="E199" s="10"/>
+    </row>
+    <row r="200" spans="5:5">
+      <c r="E200" s="10"/>
+    </row>
+    <row r="201" spans="5:5">
+      <c r="E201" s="10"/>
+    </row>
+    <row r="202" spans="5:5">
+      <c r="E202" s="10"/>
+    </row>
+    <row r="203" spans="5:5">
+      <c r="E203" s="10"/>
+    </row>
+    <row r="204" spans="5:5">
+      <c r="E204" s="10"/>
+    </row>
+    <row r="205" spans="5:5">
+      <c r="E205" s="10"/>
+    </row>
+    <row r="206" spans="5:5">
+      <c r="E206" s="10"/>
+    </row>
+    <row r="207" spans="5:5">
+      <c r="E207" s="10"/>
+    </row>
+    <row r="208" spans="5:5">
+      <c r="E208" s="10"/>
+    </row>
+    <row r="209" spans="5:5">
+      <c r="E209" s="10"/>
+    </row>
+    <row r="210" spans="5:5">
+      <c r="E210" s="10"/>
+    </row>
+    <row r="211" spans="5:5">
+      <c r="E211" s="10"/>
+    </row>
+    <row r="212" spans="5:5">
+      <c r="E212" s="10"/>
+    </row>
+    <row r="213" spans="5:5">
+      <c r="E213" s="10"/>
+    </row>
+    <row r="214" spans="5:5">
+      <c r="E214" s="10"/>
+    </row>
+    <row r="215" spans="5:5">
+      <c r="E215" s="10"/>
+    </row>
+    <row r="216" spans="5:5">
+      <c r="E216" s="10"/>
+    </row>
+    <row r="217" spans="5:5">
+      <c r="E217" s="10"/>
+    </row>
+    <row r="218" spans="5:5">
+      <c r="E218" s="10"/>
+    </row>
+    <row r="219" spans="5:5">
+      <c r="E219" s="10"/>
+    </row>
+    <row r="220" spans="5:5">
+      <c r="E220" s="10"/>
+    </row>
+    <row r="221" spans="5:5">
+      <c r="E221" s="10"/>
+    </row>
+    <row r="222" spans="5:5">
+      <c r="E222" s="10"/>
+    </row>
+    <row r="223" spans="5:5">
+      <c r="E223" s="10"/>
+    </row>
+    <row r="224" spans="5:5">
+      <c r="E224" s="10"/>
+    </row>
+    <row r="225" spans="5:5">
+      <c r="E225" s="10"/>
+    </row>
+    <row r="226" spans="5:5">
+      <c r="E226" s="10"/>
+    </row>
+    <row r="227" spans="5:5">
+      <c r="E227" s="10"/>
+    </row>
+    <row r="228" spans="5:5">
+      <c r="E228" s="10"/>
+    </row>
+    <row r="229" spans="5:5">
+      <c r="E229" s="10"/>
+    </row>
+    <row r="230" spans="5:5">
+      <c r="E230" s="10"/>
+    </row>
+    <row r="231" spans="5:5">
+      <c r="E231" s="10"/>
+    </row>
+    <row r="232" spans="5:5">
+      <c r="E232" s="10"/>
+    </row>
+    <row r="233" spans="5:5">
+      <c r="E233" s="10"/>
+    </row>
+    <row r="234" spans="5:5">
+      <c r="E234" s="10"/>
+    </row>
+    <row r="235" spans="5:5">
+      <c r="E235" s="10"/>
+    </row>
+    <row r="236" spans="5:5">
+      <c r="E236" s="10"/>
+    </row>
+    <row r="237" spans="5:5">
+      <c r="E237" s="10"/>
+    </row>
+    <row r="238" spans="5:5">
+      <c r="E238" s="10"/>
+    </row>
+    <row r="239" spans="5:5">
+      <c r="E239" s="10"/>
+    </row>
+    <row r="240" spans="5:5">
+      <c r="E240" s="10"/>
+    </row>
+    <row r="241" spans="5:5">
+      <c r="E241" s="10"/>
+    </row>
+    <row r="242" spans="5:5">
+      <c r="E242" s="10"/>
+    </row>
+    <row r="243" spans="5:5">
+      <c r="E243" s="10"/>
+    </row>
+    <row r="244" spans="5:5">
+      <c r="E244" s="10"/>
+    </row>
+    <row r="245" spans="5:5">
+      <c r="E245" s="10"/>
+    </row>
+    <row r="246" spans="5:5">
+      <c r="E246" s="10"/>
+    </row>
+    <row r="247" spans="5:5">
+      <c r="E247" s="10"/>
+    </row>
+    <row r="248" spans="5:5">
+      <c r="E248" s="10"/>
+    </row>
+    <row r="249" spans="5:5">
+      <c r="E249" s="10"/>
+    </row>
+    <row r="250" spans="5:5">
+      <c r="E250" s="10"/>
+    </row>
+    <row r="251" spans="5:5">
+      <c r="E251" s="10"/>
+    </row>
+    <row r="252" spans="5:5">
+      <c r="E252" s="10"/>
+    </row>
+    <row r="253" spans="5:5">
+      <c r="E253" s="10"/>
+    </row>
+    <row r="254" spans="5:5">
+      <c r="E254" s="10"/>
+    </row>
+    <row r="255" spans="5:5">
+      <c r="E255" s="10"/>
+    </row>
+    <row r="256" spans="5:5">
+      <c r="E256" s="10"/>
+    </row>
+    <row r="257" spans="5:5">
+      <c r="E257" s="10"/>
+    </row>
+    <row r="258" spans="5:5">
+      <c r="E258" s="10"/>
+    </row>
+    <row r="259" spans="5:5">
+      <c r="E259" s="10"/>
+    </row>
+    <row r="260" spans="5:5">
+      <c r="E260" s="10"/>
+    </row>
+    <row r="261" spans="5:5">
+      <c r="E261" s="10"/>
+    </row>
+    <row r="262" spans="5:5">
+      <c r="E262" s="10"/>
+    </row>
+    <row r="263" spans="5:5">
+      <c r="E263" s="10"/>
+    </row>
+    <row r="264" spans="5:5">
+      <c r="E264" s="10"/>
+    </row>
+    <row r="265" spans="5:5">
+      <c r="E265" s="10"/>
+    </row>
+    <row r="266" spans="5:5">
+      <c r="E266" s="10"/>
+    </row>
+    <row r="267" spans="5:5">
+      <c r="E267" s="10"/>
+    </row>
+    <row r="268" spans="5:5">
+      <c r="E268" s="10"/>
+    </row>
+    <row r="269" spans="5:5">
+      <c r="E269" s="10"/>
+    </row>
+    <row r="270" spans="5:5">
+      <c r="E270" s="10"/>
+    </row>
+    <row r="271" spans="5:5">
+      <c r="E271" s="10"/>
+    </row>
+    <row r="272" spans="5:5">
+      <c r="E272" s="10"/>
+    </row>
+    <row r="273" spans="5:5">
+      <c r="E273" s="10"/>
+    </row>
+    <row r="274" spans="5:5">
+      <c r="E274" s="10"/>
+    </row>
+    <row r="275" spans="5:5">
+      <c r="E275" s="10"/>
+    </row>
+    <row r="276" spans="5:5">
+      <c r="E276" s="10"/>
+    </row>
+    <row r="277" spans="5:5">
+      <c r="E277" s="10"/>
+    </row>
+    <row r="278" spans="5:5">
+      <c r="E278" s="10"/>
+    </row>
+    <row r="279" spans="5:5">
+      <c r="E279" s="10"/>
+    </row>
+    <row r="280" spans="5:5">
+      <c r="E280" s="10"/>
+    </row>
+    <row r="281" spans="5:5">
+      <c r="E281" s="10"/>
+    </row>
+    <row r="282" spans="5:5">
+      <c r="E282" s="10"/>
+    </row>
+    <row r="283" spans="5:5">
+      <c r="E283" s="10"/>
+    </row>
+    <row r="284" spans="5:5">
+      <c r="E284" s="10"/>
+    </row>
+    <row r="285" spans="5:5">
+      <c r="E285" s="10"/>
+    </row>
+    <row r="286" spans="5:5">
+      <c r="E286" s="10"/>
+    </row>
+    <row r="287" spans="5:5">
+      <c r="E287" s="10"/>
+    </row>
+    <row r="288" spans="5:5">
+      <c r="E288" s="10"/>
+    </row>
+    <row r="289" spans="5:5">
+      <c r="E289" s="10"/>
+    </row>
+    <row r="290" spans="5:5">
+      <c r="E290" s="10"/>
+    </row>
+    <row r="291" spans="5:5">
+      <c r="E291" s="10"/>
+    </row>
+    <row r="292" spans="5:5">
+      <c r="E292" s="10"/>
+    </row>
+    <row r="293" spans="5:5">
+      <c r="E293" s="10"/>
+    </row>
+    <row r="294" spans="5:5">
+      <c r="E294" s="10"/>
+    </row>
+    <row r="295" spans="5:5">
+      <c r="E295" s="10"/>
+    </row>
+    <row r="296" spans="5:5">
+      <c r="E296" s="10"/>
+    </row>
+    <row r="297" spans="5:5">
+      <c r="E297" s="10"/>
+    </row>
+    <row r="298" spans="5:5">
+      <c r="E298" s="10"/>
+    </row>
+    <row r="299" spans="5:5">
+      <c r="E299" s="10"/>
+    </row>
+    <row r="300" spans="5:5">
+      <c r="E300" s="10"/>
+    </row>
+    <row r="301" spans="5:5">
+      <c r="E301" s="10"/>
+    </row>
+    <row r="302" spans="5:5">
+      <c r="E302" s="10"/>
+    </row>
+    <row r="303" spans="5:5">
+      <c r="E303" s="10"/>
+    </row>
+    <row r="304" spans="5:5">
+      <c r="E304" s="10"/>
+    </row>
+    <row r="305" spans="5:5">
+      <c r="E305" s="10"/>
+    </row>
+    <row r="306" spans="5:5">
+      <c r="E306" s="10"/>
+    </row>
+    <row r="307" spans="5:5">
+      <c r="E307" s="10"/>
+    </row>
+    <row r="308" spans="5:5">
+      <c r="E308" s="10"/>
+    </row>
+    <row r="309" spans="5:5">
+      <c r="E309" s="10"/>
+    </row>
+    <row r="310" spans="5:5">
+      <c r="E310" s="10"/>
+    </row>
+    <row r="311" spans="5:5">
+      <c r="E311" s="10"/>
+    </row>
+    <row r="312" spans="5:5">
+      <c r="E312" s="10"/>
+    </row>
+    <row r="313" spans="5:5">
+      <c r="E313" s="10"/>
+    </row>
+    <row r="314" spans="5:5">
+      <c r="E314" s="10"/>
+    </row>
+    <row r="315" spans="5:5">
+      <c r="E315" s="10"/>
+    </row>
+    <row r="316" spans="5:5">
+      <c r="E316" s="10"/>
+    </row>
+    <row r="317" spans="5:5">
+      <c r="E317" s="10"/>
+    </row>
+    <row r="318" spans="5:5">
+      <c r="E318" s="10"/>
+    </row>
+    <row r="319" spans="5:5">
+      <c r="E319" s="10"/>
+    </row>
+    <row r="320" spans="5:5">
+      <c r="E320" s="10"/>
+    </row>
+    <row r="321" spans="5:5">
+      <c r="E321" s="10"/>
+    </row>
+    <row r="322" spans="5:5">
+      <c r="E322" s="10"/>
+    </row>
+    <row r="323" spans="5:5">
+      <c r="E323" s="10"/>
+    </row>
+    <row r="324" spans="5:5">
+      <c r="E324" s="10"/>
+    </row>
+    <row r="325" spans="5:5">
+      <c r="E325" s="10"/>
+    </row>
+    <row r="326" spans="5:5">
+      <c r="E326" s="10"/>
+    </row>
+    <row r="327" spans="5:5">
+      <c r="E327" s="10"/>
+    </row>
+    <row r="328" spans="5:5">
+      <c r="E328" s="10"/>
+    </row>
+    <row r="329" spans="5:5">
+      <c r="E329" s="10"/>
+    </row>
+    <row r="330" spans="5:5">
+      <c r="E330" s="10"/>
+    </row>
+    <row r="331" spans="5:5">
+      <c r="E331" s="10"/>
+    </row>
+    <row r="332" spans="5:5">
+      <c r="E332" s="10"/>
+    </row>
+    <row r="333" spans="5:5">
+      <c r="E333" s="10"/>
+    </row>
+    <row r="334" spans="5:5">
+      <c r="E334" s="10"/>
+    </row>
+    <row r="335" spans="5:5">
+      <c r="E335" s="10"/>
+    </row>
+    <row r="336" spans="5:5">
+      <c r="E336" s="10"/>
+    </row>
+    <row r="337" spans="5:5">
+      <c r="E337" s="10"/>
+    </row>
+    <row r="338" spans="5:5">
+      <c r="E338" s="10"/>
+    </row>
+    <row r="339" spans="5:5">
+      <c r="E339" s="10"/>
+    </row>
+    <row r="340" spans="5:5">
+      <c r="E340" s="10"/>
+    </row>
+    <row r="341" spans="5:5">
+      <c r="E341" s="10"/>
+    </row>
+    <row r="342" spans="5:5">
+      <c r="E342" s="10"/>
+    </row>
+    <row r="343" spans="5:5">
+      <c r="E343" s="10"/>
+    </row>
+    <row r="344" spans="5:5">
+      <c r="E344" s="10"/>
+    </row>
+    <row r="345" spans="5:5">
+      <c r="E345" s="10"/>
+    </row>
+    <row r="346" spans="5:5">
+      <c r="E346" s="10"/>
+    </row>
+    <row r="347" spans="5:5">
+      <c r="E347" s="10"/>
+    </row>
+    <row r="348" spans="5:5">
+      <c r="E348" s="10"/>
+    </row>
+    <row r="349" spans="5:5">
+      <c r="E349" s="10"/>
+    </row>
+    <row r="350" spans="5:5">
+      <c r="E350" s="10"/>
+    </row>
+    <row r="351" spans="5:5">
+      <c r="E351" s="10"/>
+    </row>
+    <row r="352" spans="5:5">
+      <c r="E352" s="10"/>
+    </row>
+    <row r="353" spans="5:5">
+      <c r="E353" s="10"/>
+    </row>
+    <row r="354" spans="5:5">
+      <c r="E354" s="10"/>
+    </row>
+    <row r="355" spans="5:5">
+      <c r="E355" s="10"/>
+    </row>
+    <row r="356" spans="5:5">
+      <c r="E356" s="10"/>
+    </row>
+    <row r="357" spans="5:5">
+      <c r="E357" s="10"/>
+    </row>
+    <row r="358" spans="5:5">
+      <c r="E358" s="10"/>
+    </row>
+    <row r="359" spans="5:5">
+      <c r="E359" s="10"/>
+    </row>
+    <row r="360" spans="5:5">
+      <c r="E360" s="10"/>
+    </row>
+    <row r="361" spans="5:5">
+      <c r="E361" s="10"/>
+    </row>
+    <row r="362" spans="5:5">
+      <c r="E362" s="10"/>
+    </row>
+    <row r="363" spans="5:5">
+      <c r="E363" s="10"/>
+    </row>
+    <row r="364" spans="5:5">
+      <c r="E364" s="10"/>
+    </row>
+    <row r="365" spans="5:5">
+      <c r="E365" s="10"/>
+    </row>
+    <row r="366" spans="5:5">
+      <c r="E366" s="10"/>
+    </row>
+    <row r="367" spans="5:5">
+      <c r="E367" s="10"/>
+    </row>
+    <row r="368" spans="5:5">
+      <c r="E368" s="10"/>
+    </row>
+    <row r="369" spans="5:5">
+      <c r="E369" s="10"/>
+    </row>
+    <row r="370" spans="5:5">
+      <c r="E370" s="10"/>
+    </row>
+    <row r="371" spans="5:5">
+      <c r="E371" s="10"/>
+    </row>
+    <row r="372" spans="5:5">
+      <c r="E372" s="10"/>
+    </row>
+    <row r="373" spans="5:5">
+      <c r="E373" s="10"/>
+    </row>
+    <row r="374" spans="5:5">
+      <c r="E374" s="10"/>
+    </row>
+    <row r="375" spans="5:5">
+      <c r="E375" s="10"/>
+    </row>
+    <row r="376" spans="5:5">
+      <c r="E376" s="10"/>
+    </row>
+    <row r="377" spans="5:5">
+      <c r="E377" s="10"/>
+    </row>
+    <row r="378" spans="5:5">
+      <c r="E378" s="10"/>
+    </row>
+    <row r="379" spans="5:5">
+      <c r="E379" s="10"/>
+    </row>
+    <row r="380" spans="5:5">
+      <c r="E380" s="10"/>
+    </row>
+    <row r="381" spans="5:5">
+      <c r="E381" s="10"/>
+    </row>
+    <row r="382" spans="5:5">
+      <c r="E382" s="10"/>
+    </row>
+    <row r="383" spans="5:5">
+      <c r="E383" s="10"/>
+    </row>
+    <row r="384" spans="5:5">
+      <c r="E384" s="10"/>
+    </row>
+    <row r="385" spans="5:5">
+      <c r="E385" s="10"/>
+    </row>
+    <row r="386" spans="5:5">
+      <c r="E386" s="10"/>
+    </row>
+    <row r="387" spans="5:5">
+      <c r="E387" s="10"/>
+    </row>
+    <row r="388" spans="5:5">
+      <c r="E388" s="10"/>
+    </row>
+    <row r="389" spans="5:5">
+      <c r="E389" s="10"/>
+    </row>
+    <row r="390" spans="5:5">
+      <c r="E390" s="10"/>
+    </row>
+    <row r="391" spans="5:5">
+      <c r="E391" s="10"/>
+    </row>
+    <row r="392" spans="5:5">
+      <c r="E392" s="10"/>
+    </row>
+    <row r="393" spans="5:5">
+      <c r="E393" s="10"/>
+    </row>
+    <row r="394" spans="5:5">
+      <c r="E394" s="10"/>
+    </row>
+    <row r="395" spans="5:5">
+      <c r="E395" s="10"/>
+    </row>
+    <row r="396" spans="5:5">
+      <c r="E396" s="10"/>
+    </row>
+    <row r="397" spans="5:5">
+      <c r="E397" s="10"/>
+    </row>
+    <row r="398" spans="5:5">
+      <c r="E398" s="10"/>
+    </row>
+    <row r="399" spans="5:5">
+      <c r="E399" s="10"/>
+    </row>
+    <row r="400" spans="5:5">
+      <c r="E400" s="10"/>
+    </row>
+    <row r="401" spans="5:5">
+      <c r="E401" s="10"/>
+    </row>
+    <row r="402" spans="5:5">
+      <c r="E402" s="10"/>
+    </row>
+    <row r="403" spans="5:5">
+      <c r="E403" s="10"/>
+    </row>
+    <row r="404" spans="5:5">
+      <c r="E404" s="10"/>
+    </row>
+    <row r="405" spans="5:5">
+      <c r="E405" s="10"/>
+    </row>
+    <row r="406" spans="5:5">
+      <c r="E406" s="10"/>
+    </row>
+    <row r="407" spans="5:5">
+      <c r="E407" s="10"/>
+    </row>
+    <row r="408" spans="5:5">
+      <c r="E408" s="10"/>
+    </row>
+    <row r="409" spans="5:5">
+      <c r="E409" s="10"/>
+    </row>
+    <row r="410" spans="5:5">
+      <c r="E410" s="10"/>
+    </row>
+    <row r="411" spans="5:5">
+      <c r="E411" s="10"/>
+    </row>
+    <row r="412" spans="5:5">
+      <c r="E412" s="10"/>
+    </row>
+    <row r="413" spans="5:5">
+      <c r="E413" s="10"/>
+    </row>
+    <row r="414" spans="5:5">
+      <c r="E414" s="10"/>
+    </row>
+    <row r="415" spans="5:5">
+      <c r="E415" s="10"/>
+    </row>
+    <row r="416" spans="5:5">
+      <c r="E416" s="10"/>
+    </row>
+    <row r="417" spans="5:5">
+      <c r="E417" s="10"/>
+    </row>
+    <row r="418" spans="5:5">
+      <c r="E418" s="10"/>
+    </row>
+    <row r="419" spans="5:5">
+      <c r="E419" s="10"/>
+    </row>
+    <row r="420" spans="5:5">
+      <c r="E420" s="10"/>
+    </row>
+    <row r="421" spans="5:5">
+      <c r="E421" s="10"/>
+    </row>
+    <row r="422" spans="5:5">
+      <c r="E422" s="10"/>
+    </row>
+    <row r="423" spans="5:5">
+      <c r="E423" s="10"/>
+    </row>
+    <row r="424" spans="5:5">
+      <c r="E424" s="10"/>
+    </row>
+    <row r="425" spans="5:5">
+      <c r="E425" s="10"/>
+    </row>
+    <row r="426" spans="5:5">
+      <c r="E426" s="10"/>
+    </row>
+    <row r="427" spans="5:5">
+      <c r="E427" s="10"/>
+    </row>
+    <row r="428" spans="5:5">
+      <c r="E428" s="10"/>
+    </row>
+    <row r="429" spans="5:5">
+      <c r="E429" s="10"/>
+    </row>
+    <row r="430" spans="5:5">
+      <c r="E430" s="10"/>
+    </row>
+    <row r="431" spans="5:5">
+      <c r="E431" s="10"/>
+    </row>
+    <row r="432" spans="5:5">
+      <c r="E432" s="10"/>
+    </row>
+    <row r="433" spans="5:5">
+      <c r="E433" s="10"/>
+    </row>
+    <row r="434" spans="5:5">
+      <c r="E434" s="10"/>
+    </row>
+    <row r="435" spans="5:5">
+      <c r="E435" s="10"/>
+    </row>
+    <row r="436" spans="5:5">
+      <c r="E436" s="10"/>
+    </row>
+    <row r="437" spans="5:5">
+      <c r="E437" s="10"/>
+    </row>
+    <row r="438" spans="5:5">
+      <c r="E438" s="10"/>
+    </row>
+    <row r="439" spans="5:5">
+      <c r="E439" s="10"/>
+    </row>
+    <row r="440" spans="5:5">
+      <c r="E440" s="10"/>
+    </row>
+    <row r="441" spans="5:5">
+      <c r="E441" s="10"/>
+    </row>
+    <row r="442" spans="5:5">
+      <c r="E442" s="10"/>
+    </row>
+    <row r="443" spans="5:5">
+      <c r="E443" s="10"/>
+    </row>
+    <row r="444" spans="5:5">
+      <c r="E444" s="10"/>
+    </row>
+    <row r="445" spans="5:5">
+      <c r="E445" s="10"/>
+    </row>
+    <row r="446" spans="5:5">
+      <c r="E446" s="10"/>
+    </row>
+    <row r="447" spans="5:5">
+      <c r="E447" s="10"/>
+    </row>
+    <row r="448" spans="5:5">
+      <c r="E448" s="10"/>
+    </row>
+    <row r="449" spans="5:5">
+      <c r="E449" s="10"/>
+    </row>
+    <row r="450" spans="5:5">
+      <c r="E450" s="10"/>
+    </row>
+    <row r="451" spans="5:5">
+      <c r="E451" s="10"/>
+    </row>
+    <row r="452" spans="5:5">
+      <c r="E452" s="10"/>
+    </row>
+    <row r="453" spans="5:5">
+      <c r="E453" s="10"/>
+    </row>
+    <row r="454" spans="5:5">
+      <c r="E454" s="10"/>
+    </row>
+    <row r="455" spans="5:5">
+      <c r="E455" s="10"/>
+    </row>
+    <row r="456" spans="5:5">
+      <c r="E456" s="10"/>
+    </row>
+    <row r="457" spans="5:5">
+      <c r="E457" s="10"/>
+    </row>
+    <row r="458" spans="5:5">
+      <c r="E458" s="10"/>
+    </row>
+    <row r="459" spans="5:5">
+      <c r="E459" s="10"/>
+    </row>
+    <row r="460" spans="5:5">
+      <c r="E460" s="10"/>
+    </row>
+    <row r="461" spans="5:5">
+      <c r="E461" s="10"/>
+    </row>
+    <row r="462" spans="5:5">
+      <c r="E462" s="10"/>
+    </row>
+    <row r="463" spans="5:5">
+      <c r="E463" s="10"/>
+    </row>
+    <row r="464" spans="5:5">
+      <c r="E464" s="10"/>
+    </row>
+    <row r="465" spans="5:5">
+      <c r="E465" s="10"/>
+    </row>
+    <row r="466" spans="5:5">
+      <c r="E466" s="10"/>
+    </row>
+    <row r="467" spans="5:5">
+      <c r="E467" s="10"/>
+    </row>
+    <row r="468" spans="5:5">
+      <c r="E468" s="10"/>
+    </row>
+    <row r="469" spans="5:5">
+      <c r="E469" s="10"/>
+    </row>
+    <row r="470" spans="5:5">
+      <c r="E470" s="10"/>
+    </row>
+    <row r="471" spans="5:5">
+      <c r="E471" s="10"/>
+    </row>
+    <row r="472" spans="5:5">
+      <c r="E472" s="10"/>
+    </row>
+    <row r="473" spans="5:5">
+      <c r="E473" s="10"/>
+    </row>
+    <row r="474" spans="5:5">
+      <c r="E474" s="10"/>
+    </row>
+    <row r="475" spans="5:5">
+      <c r="E475" s="10"/>
+    </row>
+    <row r="476" spans="5:5">
+      <c r="E476" s="10"/>
+    </row>
+    <row r="477" spans="5:5">
+      <c r="E477" s="10"/>
+    </row>
+    <row r="478" spans="5:5">
+      <c r="E478" s="10"/>
+    </row>
+    <row r="479" spans="5:5">
+      <c r="E479" s="10"/>
+    </row>
+    <row r="480" spans="5:5">
+      <c r="E480" s="10"/>
+    </row>
+    <row r="481" spans="5:5">
+      <c r="E481" s="10"/>
+    </row>
+    <row r="482" spans="5:5">
+      <c r="E482" s="10"/>
+    </row>
+    <row r="483" spans="5:5">
+      <c r="E483" s="10"/>
+    </row>
+    <row r="484" spans="5:5">
+      <c r="E484" s="10"/>
+    </row>
+    <row r="485" spans="5:5">
+      <c r="E485" s="10"/>
+    </row>
+    <row r="486" spans="5:5">
+      <c r="E486" s="10"/>
+    </row>
+    <row r="487" spans="5:5">
+      <c r="E487" s="10"/>
+    </row>
+    <row r="488" spans="5:5">
+      <c r="E488" s="10"/>
+    </row>
+    <row r="489" spans="5:5">
+      <c r="E489" s="10"/>
+    </row>
+    <row r="490" spans="5:5">
+      <c r="E490" s="10"/>
+    </row>
+    <row r="491" spans="5:5">
+      <c r="E491" s="10"/>
+    </row>
+    <row r="492" spans="5:5">
+      <c r="E492" s="10"/>
+    </row>
+    <row r="493" spans="5:5">
+      <c r="E493" s="10"/>
+    </row>
+    <row r="494" spans="5:5">
+      <c r="E494" s="10"/>
+    </row>
+    <row r="495" spans="5:5">
+      <c r="E495" s="10"/>
+    </row>
+    <row r="496" spans="5:5">
+      <c r="E496" s="10"/>
+    </row>
+    <row r="497" spans="5:5">
+      <c r="E497" s="10"/>
+    </row>
+    <row r="498" spans="5:5">
+      <c r="E498" s="10"/>
+    </row>
+    <row r="499" spans="5:5">
+      <c r="E499" s="10"/>
+    </row>
+    <row r="500" spans="5:5">
+      <c r="E500" s="10"/>
+    </row>
+    <row r="501" spans="5:5">
+      <c r="E501" s="10"/>
+    </row>
+    <row r="502" spans="5:5">
+      <c r="E502" s="10"/>
+    </row>
+    <row r="503" spans="5:5">
+      <c r="E503" s="10"/>
+    </row>
+    <row r="504" spans="5:5">
+      <c r="E504" s="10"/>
+    </row>
+    <row r="505" spans="5:5">
+      <c r="E505" s="10"/>
+    </row>
+    <row r="506" spans="5:5">
+      <c r="E506" s="10"/>
+    </row>
+    <row r="507" spans="5:5">
+      <c r="E507" s="10"/>
+    </row>
+    <row r="508" spans="5:5">
+      <c r="E508" s="10"/>
+    </row>
+    <row r="509" spans="5:5">
+      <c r="E509" s="10"/>
+    </row>
+    <row r="510" spans="5:5">
+      <c r="E510" s="10"/>
+    </row>
+    <row r="511" spans="5:5">
+      <c r="E511" s="10"/>
+    </row>
+    <row r="512" spans="5:5">
+      <c r="E512" s="10"/>
+    </row>
+    <row r="513" spans="5:5">
+      <c r="E513" s="10"/>
+    </row>
+    <row r="514" spans="5:5">
+      <c r="E514" s="10"/>
+    </row>
+    <row r="515" spans="5:5">
+      <c r="E515" s="10"/>
+    </row>
+    <row r="516" spans="5:5">
+      <c r="E516" s="10"/>
+    </row>
+    <row r="517" spans="5:5">
+      <c r="E517" s="10"/>
+    </row>
+    <row r="518" spans="5:5">
+      <c r="E518" s="10"/>
+    </row>
+    <row r="519" spans="5:5">
+      <c r="E519" s="10"/>
+    </row>
+    <row r="520" spans="5:5">
+      <c r="E520" s="10"/>
+    </row>
+    <row r="521" spans="5:5">
+      <c r="E521" s="10"/>
+    </row>
+    <row r="522" spans="5:5">
+      <c r="E522" s="10"/>
+    </row>
+    <row r="523" spans="5:5">
+      <c r="E523" s="10"/>
+    </row>
+    <row r="524" spans="5:5">
+      <c r="E524" s="10"/>
+    </row>
+    <row r="525" spans="5:5">
+      <c r="E525" s="10"/>
+    </row>
+    <row r="526" spans="5:5">
+      <c r="E526" s="10"/>
+    </row>
+    <row r="527" spans="5:5">
+      <c r="E527" s="10"/>
+    </row>
+    <row r="528" spans="5:5">
+      <c r="E528" s="10"/>
+    </row>
+    <row r="529" spans="5:5">
+      <c r="E529" s="10"/>
+    </row>
+    <row r="530" spans="5:5">
+      <c r="E530" s="10"/>
+    </row>
+    <row r="531" spans="5:5">
+      <c r="E531" s="10"/>
+    </row>
+    <row r="532" spans="5:5">
+      <c r="E532" s="10"/>
+    </row>
+    <row r="533" spans="5:5">
+      <c r="E533" s="10"/>
+    </row>
+    <row r="534" spans="5:5">
+      <c r="E534" s="10"/>
+    </row>
+    <row r="535" spans="5:5">
+      <c r="E535" s="10"/>
+    </row>
+    <row r="536" spans="5:5">
+      <c r="E536" s="10"/>
+    </row>
+    <row r="537" spans="5:5">
+      <c r="E537" s="10"/>
+    </row>
+    <row r="538" spans="5:5">
+      <c r="E538" s="10"/>
+    </row>
+    <row r="539" spans="5:5">
+      <c r="E539" s="10"/>
+    </row>
+    <row r="540" spans="5:5">
+      <c r="E540" s="10"/>
+    </row>
+    <row r="541" spans="5:5">
+      <c r="E541" s="10"/>
+    </row>
+    <row r="542" spans="5:5">
+      <c r="E542" s="10"/>
+    </row>
+    <row r="543" spans="5:5">
+      <c r="E543" s="10"/>
+    </row>
+    <row r="544" spans="5:5">
+      <c r="E544" s="10"/>
+    </row>
+    <row r="545" spans="5:5">
+      <c r="E545" s="10"/>
+    </row>
+    <row r="546" spans="5:5">
+      <c r="E546" s="10"/>
+    </row>
+    <row r="547" spans="5:5">
+      <c r="E547" s="10"/>
+    </row>
+    <row r="548" spans="5:5">
+      <c r="E548" s="10"/>
+    </row>
+    <row r="549" spans="5:5">
+      <c r="E549" s="10"/>
+    </row>
+    <row r="550" spans="5:5">
+      <c r="E550" s="10"/>
+    </row>
+    <row r="551" spans="5:5">
+      <c r="E551" s="10"/>
+    </row>
+    <row r="552" spans="5:5">
+      <c r="E552" s="10"/>
+    </row>
+    <row r="553" spans="5:5">
+      <c r="E553" s="10"/>
+    </row>
+    <row r="554" spans="5:5">
+      <c r="E554" s="10"/>
+    </row>
+    <row r="555" spans="5:5">
+      <c r="E555" s="10"/>
+    </row>
+    <row r="556" spans="5:5">
+      <c r="E556" s="10"/>
+    </row>
+    <row r="557" spans="5:5">
+      <c r="E557" s="10"/>
+    </row>
+    <row r="558" spans="5:5">
+      <c r="E558" s="10"/>
+    </row>
+    <row r="559" spans="5:5">
+      <c r="E559" s="10"/>
+    </row>
+    <row r="560" spans="5:5">
+      <c r="E560" s="10"/>
+    </row>
+    <row r="561" spans="5:5">
+      <c r="E561" s="10"/>
+    </row>
+    <row r="562" spans="5:5">
+      <c r="E562" s="10"/>
+    </row>
+    <row r="563" spans="5:5">
+      <c r="E563" s="10"/>
+    </row>
+    <row r="564" spans="5:5">
+      <c r="E564" s="10"/>
+    </row>
+    <row r="565" spans="5:5">
+      <c r="E565" s="10"/>
+    </row>
+    <row r="566" spans="5:5">
+      <c r="E566" s="10"/>
+    </row>
+    <row r="567" spans="5:5">
+      <c r="E567" s="10"/>
+    </row>
+    <row r="568" spans="5:5">
+      <c r="E568" s="10"/>
+    </row>
+    <row r="569" spans="5:5">
+      <c r="E569" s="10"/>
+    </row>
+    <row r="570" spans="5:5">
+      <c r="E570" s="10"/>
+    </row>
+    <row r="571" spans="5:5">
+      <c r="E571" s="10"/>
+    </row>
+    <row r="572" spans="5:5">
+      <c r="E572" s="10"/>
+    </row>
+    <row r="573" spans="5:5">
+      <c r="E573" s="10"/>
+    </row>
+    <row r="574" spans="5:5">
+      <c r="E574" s="10"/>
+    </row>
+    <row r="575" spans="5:5">
+      <c r="E575" s="10"/>
+    </row>
+    <row r="576" spans="5:5">
+      <c r="E576" s="10"/>
+    </row>
+    <row r="577" spans="5:5">
+      <c r="E577" s="10"/>
+    </row>
+    <row r="578" spans="5:5">
+      <c r="E578" s="10"/>
+    </row>
+    <row r="579" spans="5:5">
+      <c r="E579" s="10"/>
+    </row>
+    <row r="580" spans="5:5">
+      <c r="E580" s="10"/>
+    </row>
+    <row r="581" spans="5:5">
+      <c r="E581" s="10"/>
+    </row>
+    <row r="582" spans="5:5">
+      <c r="E582" s="10"/>
+    </row>
+    <row r="583" spans="5:5">
+      <c r="E583" s="10"/>
+    </row>
+    <row r="584" spans="5:5">
+      <c r="E584" s="10"/>
+    </row>
+    <row r="585" spans="5:5">
+      <c r="E585" s="10"/>
+    </row>
+    <row r="586" spans="5:5">
+      <c r="E586" s="10"/>
+    </row>
+    <row r="587" spans="5:5">
+      <c r="E587" s="10"/>
+    </row>
+    <row r="588" spans="5:5">
+      <c r="E588" s="10"/>
+    </row>
+    <row r="589" spans="5:5">
+      <c r="E589" s="10"/>
+    </row>
+    <row r="590" spans="5:5">
+      <c r="E590" s="10"/>
+    </row>
+    <row r="591" spans="5:5">
+      <c r="E591" s="10"/>
+    </row>
+    <row r="592" spans="5:5">
+      <c r="E592" s="10"/>
+    </row>
+    <row r="593" spans="5:5">
+      <c r="E593" s="10"/>
+    </row>
+    <row r="594" spans="5:5">
+      <c r="E594" s="10"/>
+    </row>
+    <row r="595" spans="5:5">
+      <c r="E595" s="10"/>
+    </row>
+    <row r="596" spans="5:5">
+      <c r="E596" s="10"/>
+    </row>
+    <row r="597" spans="5:5">
+      <c r="E597" s="10"/>
+    </row>
+    <row r="598" spans="5:5">
+      <c r="E598" s="10"/>
+    </row>
+    <row r="599" spans="5:5">
+      <c r="E599" s="10"/>
+    </row>
+    <row r="600" spans="5:5">
+      <c r="E600" s="10"/>
+    </row>
+    <row r="601" spans="5:5">
+      <c r="E601" s="10"/>
+    </row>
+    <row r="602" spans="5:5">
+      <c r="E602" s="10"/>
+    </row>
+    <row r="603" spans="5:5">
+      <c r="E603" s="10"/>
+    </row>
+    <row r="604" spans="5:5">
+      <c r="E604" s="10"/>
+    </row>
+    <row r="605" spans="5:5">
+      <c r="E605" s="10"/>
+    </row>
+    <row r="606" spans="5:5">
+      <c r="E606" s="10"/>
+    </row>
+    <row r="607" spans="5:5">
+      <c r="E607" s="10"/>
+    </row>
+    <row r="608" spans="5:5">
+      <c r="E608" s="10"/>
+    </row>
+    <row r="609" spans="5:5">
+      <c r="E609" s="10"/>
+    </row>
+    <row r="610" spans="5:5">
+      <c r="E610" s="10"/>
+    </row>
+    <row r="611" spans="5:5">
+      <c r="E611" s="10"/>
+    </row>
+    <row r="612" spans="5:5">
+      <c r="E612" s="10"/>
+    </row>
+    <row r="613" spans="5:5">
+      <c r="E613" s="10"/>
+    </row>
+    <row r="614" spans="5:5">
+      <c r="E614" s="10"/>
+    </row>
+    <row r="615" spans="5:5">
+      <c r="E615" s="10"/>
+    </row>
+    <row r="616" spans="5:5">
+      <c r="E616" s="10"/>
+    </row>
+    <row r="617" spans="5:5">
+      <c r="E617" s="10"/>
+    </row>
+    <row r="618" spans="5:5">
+      <c r="E618" s="10"/>
+    </row>
+    <row r="619" spans="5:5">
+      <c r="E619" s="10"/>
+    </row>
+    <row r="620" spans="5:5">
+      <c r="E620" s="10"/>
+    </row>
+    <row r="621" spans="5:5">
+      <c r="E621" s="10"/>
+    </row>
+    <row r="622" spans="5:5">
+      <c r="E622" s="10"/>
+    </row>
+    <row r="623" spans="5:5">
+      <c r="E623" s="10"/>
+    </row>
+    <row r="624" spans="5:5">
+      <c r="E624" s="10"/>
+    </row>
+    <row r="625" spans="5:5">
+      <c r="E625" s="10"/>
+    </row>
+    <row r="626" spans="5:5">
+      <c r="E626" s="10"/>
+    </row>
+    <row r="627" spans="5:5">
+      <c r="E627" s="10"/>
+    </row>
+    <row r="628" spans="5:5">
+      <c r="E628" s="10"/>
+    </row>
+    <row r="629" spans="5:5">
+      <c r="E629" s="10"/>
+    </row>
+    <row r="630" spans="5:5">
+      <c r="E630" s="10"/>
+    </row>
+    <row r="631" spans="5:5">
+      <c r="E631" s="10"/>
+    </row>
+    <row r="632" spans="5:5">
+      <c r="E632" s="10"/>
+    </row>
+    <row r="633" spans="5:5">
+      <c r="E633" s="10"/>
+    </row>
+    <row r="634" spans="5:5">
+      <c r="E634" s="10"/>
+    </row>
+    <row r="635" spans="5:5">
+      <c r="E635" s="10"/>
+    </row>
+    <row r="636" spans="5:5">
+      <c r="E636" s="10"/>
+    </row>
+    <row r="637" spans="5:5">
+      <c r="E637" s="10"/>
+    </row>
+    <row r="638" spans="5:5">
+      <c r="E638" s="10"/>
+    </row>
+    <row r="639" spans="5:5">
+      <c r="E639" s="10"/>
+    </row>
+    <row r="640" spans="5:5">
+      <c r="E640" s="10"/>
+    </row>
+    <row r="641" spans="5:5">
+      <c r="E641" s="10"/>
+    </row>
+    <row r="642" spans="5:5">
+      <c r="E642" s="10"/>
+    </row>
+    <row r="643" spans="5:5">
+      <c r="E643" s="10"/>
+    </row>
+    <row r="644" spans="5:5">
+      <c r="E644" s="10"/>
+    </row>
+    <row r="645" spans="5:5">
+      <c r="E645" s="10"/>
+    </row>
+    <row r="646" spans="5:5">
+      <c r="E646" s="10"/>
+    </row>
+    <row r="647" spans="5:5">
+      <c r="E647" s="10"/>
+    </row>
+    <row r="648" spans="5:5">
+      <c r="E648" s="10"/>
+    </row>
+    <row r="649" spans="5:5">
+      <c r="E649" s="10"/>
+    </row>
+    <row r="650" spans="5:5">
+      <c r="E650" s="10"/>
+    </row>
+    <row r="651" spans="5:5">
+      <c r="E651" s="10"/>
+    </row>
+    <row r="652" spans="5:5">
+      <c r="E652" s="10"/>
+    </row>
+    <row r="653" spans="5:5">
+      <c r="E653" s="10"/>
+    </row>
+    <row r="654" spans="5:5">
+      <c r="E654" s="10"/>
+    </row>
+    <row r="655" spans="5:5">
+      <c r="E655" s="10"/>
+    </row>
+    <row r="656" spans="5:5">
+      <c r="E656" s="10"/>
+    </row>
+    <row r="657" spans="5:5">
+      <c r="E657" s="10"/>
+    </row>
+    <row r="658" spans="5:5">
+      <c r="E658" s="10"/>
+    </row>
+    <row r="659" spans="5:5">
+      <c r="E659" s="10"/>
+    </row>
+    <row r="660" spans="5:5">
+      <c r="E660" s="10"/>
+    </row>
+    <row r="661" spans="5:5">
+      <c r="E661" s="10"/>
+    </row>
+    <row r="662" spans="5:5">
+      <c r="E662" s="10"/>
+    </row>
+    <row r="663" spans="5:5">
+      <c r="E663" s="10"/>
+    </row>
+    <row r="664" spans="5:5">
+      <c r="E664" s="10"/>
+    </row>
+    <row r="665" spans="5:5">
+      <c r="E665" s="10"/>
+    </row>
+    <row r="666" spans="5:5">
+      <c r="E666" s="10"/>
+    </row>
+    <row r="667" spans="5:5">
+      <c r="E667" s="10"/>
+    </row>
+    <row r="668" spans="5:5">
+      <c r="E668" s="10"/>
+    </row>
+    <row r="669" spans="5:5">
+      <c r="E669" s="10"/>
+    </row>
+    <row r="670" spans="5:5">
+      <c r="E670" s="10"/>
+    </row>
+    <row r="671" spans="5:5">
+      <c r="E671" s="10"/>
+    </row>
+    <row r="672" spans="5:5">
+      <c r="E672" s="10"/>
+    </row>
+    <row r="673" spans="5:5">
+      <c r="E673" s="10"/>
+    </row>
+    <row r="674" spans="5:5">
+      <c r="E674" s="10"/>
+    </row>
+    <row r="675" spans="5:5">
+      <c r="E675" s="10"/>
+    </row>
+    <row r="676" spans="5:5">
+      <c r="E676" s="10"/>
+    </row>
+    <row r="677" spans="5:5">
+      <c r="E677" s="10"/>
+    </row>
+    <row r="678" spans="5:5">
+      <c r="E678" s="10"/>
+    </row>
+    <row r="679" spans="5:5">
+      <c r="E679" s="10"/>
+    </row>
+    <row r="680" spans="5:5">
+      <c r="E680" s="10"/>
+    </row>
+    <row r="681" spans="5:5">
+      <c r="E681" s="10"/>
+    </row>
+    <row r="682" spans="5:5">
+      <c r="E682" s="10"/>
+    </row>
+    <row r="683" spans="5:5">
+      <c r="E683" s="10"/>
+    </row>
+    <row r="684" spans="5:5">
+      <c r="E684" s="10"/>
+    </row>
+    <row r="685" spans="5:5">
+      <c r="E685" s="10"/>
+    </row>
+    <row r="686" spans="5:5">
+      <c r="E686" s="10"/>
+    </row>
+    <row r="687" spans="5:5">
+      <c r="E687" s="10"/>
+    </row>
+    <row r="688" spans="5:5">
+      <c r="E688" s="10"/>
+    </row>
+    <row r="689" spans="5:5">
+      <c r="E689" s="10"/>
+    </row>
+    <row r="690" spans="5:5">
+      <c r="E690" s="10"/>
+    </row>
+    <row r="691" spans="5:5">
+      <c r="E691" s="10"/>
+    </row>
+    <row r="692" spans="5:5">
+      <c r="E692" s="10"/>
+    </row>
+    <row r="693" spans="5:5">
+      <c r="E693" s="10"/>
+    </row>
+    <row r="694" spans="5:5">
+      <c r="E694" s="10"/>
+    </row>
+    <row r="695" spans="5:5">
+      <c r="E695" s="10"/>
+    </row>
+    <row r="696" spans="5:5">
+      <c r="E696" s="10"/>
+    </row>
+    <row r="697" spans="5:5">
+      <c r="E697" s="10"/>
+    </row>
+    <row r="698" spans="5:5">
+      <c r="E698" s="10"/>
+    </row>
+    <row r="699" spans="5:5">
+      <c r="E699" s="10"/>
+    </row>
+    <row r="700" spans="5:5">
+      <c r="E700" s="10"/>
+    </row>
+    <row r="701" spans="5:5">
+      <c r="E701" s="10"/>
+    </row>
+    <row r="702" spans="5:5">
+      <c r="E702" s="10"/>
+    </row>
+    <row r="703" spans="5:5">
+      <c r="E703" s="10"/>
+    </row>
+    <row r="704" spans="5:5">
+      <c r="E704" s="10"/>
+    </row>
+    <row r="705" spans="5:5">
+      <c r="E705" s="10"/>
+    </row>
+    <row r="706" spans="5:5">
+      <c r="E706" s="10"/>
+    </row>
+    <row r="707" spans="5:5">
+      <c r="E707" s="10"/>
+    </row>
+    <row r="708" spans="5:5">
+      <c r="E708" s="10"/>
+    </row>
+    <row r="709" spans="5:5">
+      <c r="E709" s="10"/>
+    </row>
+    <row r="710" spans="5:5">
+      <c r="E710" s="10"/>
+    </row>
+    <row r="711" spans="5:5">
+      <c r="E711" s="10"/>
+    </row>
+    <row r="712" spans="5:5">
+      <c r="E712" s="10"/>
+    </row>
+    <row r="713" spans="5:5">
+      <c r="E713" s="10"/>
+    </row>
+    <row r="714" spans="5:5">
+      <c r="E714" s="10"/>
+    </row>
+    <row r="715" spans="5:5">
+      <c r="E715" s="10"/>
+    </row>
+    <row r="716" spans="5:5">
+      <c r="E716" s="10"/>
+    </row>
+    <row r="717" spans="5:5">
+      <c r="E717" s="10"/>
+    </row>
+    <row r="718" spans="5:5">
+      <c r="E718" s="10"/>
+    </row>
+    <row r="719" spans="5:5">
+      <c r="E719" s="10"/>
+    </row>
+    <row r="720" spans="5:5">
+      <c r="E720" s="10"/>
+    </row>
+    <row r="721" spans="5:5">
+      <c r="E721" s="10"/>
+    </row>
+    <row r="722" spans="5:5">
+      <c r="E722" s="10"/>
+    </row>
+    <row r="723" spans="5:5">
+      <c r="E723" s="10"/>
+    </row>
+    <row r="724" spans="5:5">
+      <c r="E724" s="10"/>
+    </row>
+    <row r="725" spans="5:5">
+      <c r="E725" s="10"/>
+    </row>
+    <row r="726" spans="5:5">
+      <c r="E726" s="10"/>
+    </row>
+    <row r="727" spans="5:5">
+      <c r="E727" s="10"/>
+    </row>
+    <row r="728" spans="5:5">
+      <c r="E728" s="10"/>
+    </row>
+    <row r="729" spans="5:5">
+      <c r="E729" s="10"/>
+    </row>
+    <row r="730" spans="5:5">
+      <c r="E730" s="10"/>
+    </row>
+    <row r="731" spans="5:5">
+      <c r="E731" s="10"/>
+    </row>
+    <row r="732" spans="5:5">
+      <c r="E732" s="10"/>
+    </row>
+    <row r="733" spans="5:5">
+      <c r="E733" s="10"/>
+    </row>
+    <row r="734" spans="5:5">
+      <c r="E734" s="10"/>
+    </row>
+    <row r="735" spans="5:5">
+      <c r="E735" s="10"/>
+    </row>
+    <row r="736" spans="5:5">
+      <c r="E736" s="10"/>
+    </row>
+    <row r="737" spans="5:5">
+      <c r="E737" s="10"/>
+    </row>
+    <row r="738" spans="5:5">
+      <c r="E738" s="10"/>
+    </row>
+    <row r="739" spans="5:5">
+      <c r="E739" s="10"/>
+    </row>
+    <row r="740" spans="5:5">
+      <c r="E740" s="10"/>
+    </row>
+    <row r="741" spans="5:5">
+      <c r="E741" s="10"/>
+    </row>
+    <row r="742" spans="5:5">
+      <c r="E742" s="10"/>
+    </row>
+    <row r="743" spans="5:5">
+      <c r="E743" s="10"/>
+    </row>
+    <row r="744" spans="5:5">
+      <c r="E744" s="10"/>
+    </row>
+    <row r="745" spans="5:5">
+      <c r="E745" s="10"/>
+    </row>
+    <row r="746" spans="5:5">
+      <c r="E746" s="10"/>
+    </row>
+    <row r="747" spans="5:5">
+      <c r="E747" s="10"/>
+    </row>
+    <row r="748" spans="5:5">
+      <c r="E748" s="10"/>
+    </row>
+    <row r="749" spans="5:5">
+      <c r="E749" s="10"/>
+    </row>
+    <row r="750" spans="5:5">
+      <c r="E750" s="10"/>
+    </row>
+    <row r="751" spans="5:5">
+      <c r="E751" s="10"/>
+    </row>
+    <row r="752" spans="5:5">
+      <c r="E752" s="10"/>
+    </row>
+    <row r="753" spans="5:5">
+      <c r="E753" s="10"/>
+    </row>
+    <row r="754" spans="5:5">
+      <c r="E754" s="10"/>
+    </row>
+    <row r="755" spans="5:5">
+      <c r="E755" s="10"/>
+    </row>
+    <row r="756" spans="5:5">
+      <c r="E756" s="10"/>
+    </row>
+    <row r="757" spans="5:5">
+      <c r="E757" s="10"/>
+    </row>
+    <row r="758" spans="5:5">
+      <c r="E758" s="10"/>
+    </row>
+    <row r="759" spans="5:5">
+      <c r="E759" s="10"/>
+    </row>
+    <row r="760" spans="5:5">
+      <c r="E760" s="10"/>
+    </row>
+    <row r="761" spans="5:5">
+      <c r="E761" s="10"/>
+    </row>
+    <row r="762" spans="5:5">
+      <c r="E762" s="10"/>
+    </row>
+    <row r="763" spans="5:5">
+      <c r="E763" s="10"/>
+    </row>
+    <row r="764" spans="5:5">
+      <c r="E764" s="10"/>
+    </row>
+    <row r="765" spans="5:5">
+      <c r="E765" s="10"/>
+    </row>
+    <row r="766" spans="5:5">
+      <c r="E766" s="10"/>
+    </row>
+    <row r="767" spans="5:5">
+      <c r="E767" s="10"/>
+    </row>
+    <row r="768" spans="5:5">
+      <c r="E768" s="10"/>
+    </row>
+    <row r="769" spans="5:5">
+      <c r="E769" s="10"/>
+    </row>
+    <row r="770" spans="5:5">
+      <c r="E770" s="10"/>
+    </row>
+    <row r="771" spans="5:5">
+      <c r="E771" s="10"/>
+    </row>
+    <row r="772" spans="5:5">
+      <c r="E772" s="10"/>
+    </row>
+    <row r="773" spans="5:5">
+      <c r="E773" s="10"/>
+    </row>
+    <row r="774" spans="5:5">
+      <c r="E774" s="10"/>
+    </row>
+    <row r="775" spans="5:5">
+      <c r="E775" s="10"/>
+    </row>
+    <row r="776" spans="5:5">
+      <c r="E776" s="10"/>
+    </row>
+    <row r="777" spans="5:5">
+      <c r="E777" s="10"/>
+    </row>
+    <row r="778" spans="5:5">
+      <c r="E778" s="10"/>
+    </row>
+    <row r="779" spans="5:5">
+      <c r="E779" s="10"/>
+    </row>
+    <row r="780" spans="5:5">
+      <c r="E780" s="10"/>
+    </row>
+    <row r="781" spans="5:5">
+      <c r="E781" s="10"/>
+    </row>
+    <row r="782" spans="5:5">
+      <c r="E782" s="10"/>
+    </row>
+    <row r="783" spans="5:5">
+      <c r="E783" s="10"/>
+    </row>
+    <row r="784" spans="5:5">
+      <c r="E784" s="10"/>
+    </row>
+    <row r="785" spans="5:5">
+      <c r="E785" s="10"/>
+    </row>
+    <row r="786" spans="5:5">
+      <c r="E786" s="10"/>
+    </row>
+    <row r="787" spans="5:5">
+      <c r="E787" s="10"/>
+    </row>
+    <row r="788" spans="5:5">
+      <c r="E788" s="10"/>
+    </row>
+    <row r="789" spans="5:5">
+      <c r="E789" s="10"/>
+    </row>
+    <row r="790" spans="5:5">
+      <c r="E790" s="10"/>
+    </row>
+    <row r="791" spans="5:5">
+      <c r="E791" s="10"/>
+    </row>
+    <row r="792" spans="5:5">
+      <c r="E792" s="10"/>
+    </row>
+    <row r="793" spans="5:5">
+      <c r="E793" s="10"/>
+    </row>
+    <row r="794" spans="5:5">
+      <c r="E794" s="10"/>
+    </row>
+    <row r="795" spans="5:5">
+      <c r="E795" s="10"/>
+    </row>
+    <row r="796" spans="5:5">
+      <c r="E796" s="10"/>
+    </row>
+    <row r="797" spans="5:5">
+      <c r="E797" s="10"/>
+    </row>
+    <row r="798" spans="5:5">
+      <c r="E798" s="10"/>
+    </row>
+    <row r="799" spans="5:5">
+      <c r="E799" s="10"/>
+    </row>
+    <row r="800" spans="5:5">
+      <c r="E800" s="10"/>
+    </row>
+    <row r="801" spans="5:5">
+      <c r="E801" s="10"/>
+    </row>
+    <row r="802" spans="5:5">
+      <c r="E802" s="10"/>
+    </row>
+    <row r="803" spans="5:5">
+      <c r="E803" s="10"/>
+    </row>
+    <row r="804" spans="5:5">
+      <c r="E804" s="10"/>
+    </row>
+    <row r="805" spans="5:5">
+      <c r="E805" s="10"/>
+    </row>
+    <row r="806" spans="5:5">
+      <c r="E806" s="10"/>
+    </row>
+    <row r="807" spans="5:5">
+      <c r="E807" s="10"/>
+    </row>
+    <row r="808" spans="5:5">
+      <c r="E808" s="10"/>
+    </row>
+    <row r="809" spans="5:5">
+      <c r="E809" s="10"/>
+    </row>
+    <row r="810" spans="5:5">
+      <c r="E810" s="10"/>
+    </row>
+    <row r="811" spans="5:5">
+      <c r="E811" s="10"/>
+    </row>
+    <row r="812" spans="5:5">
+      <c r="E812" s="10"/>
+    </row>
+    <row r="813" spans="5:5">
+      <c r="E813" s="10"/>
+    </row>
+    <row r="814" spans="5:5">
+      <c r="E814" s="10"/>
+    </row>
+    <row r="815" spans="5:5">
+      <c r="E815" s="10"/>
+    </row>
+    <row r="816" spans="5:5">
+      <c r="E816" s="10"/>
+    </row>
+    <row r="817" spans="5:5">
+      <c r="E817" s="10"/>
+    </row>
+    <row r="818" spans="5:5">
+      <c r="E818" s="10"/>
+    </row>
+    <row r="819" spans="5:5">
+      <c r="E819" s="10"/>
+    </row>
+    <row r="820" spans="5:5">
+      <c r="E820" s="10"/>
+    </row>
+    <row r="821" spans="5:5">
+      <c r="E821" s="10"/>
+    </row>
+    <row r="822" spans="5:5">
+      <c r="E822" s="10"/>
+    </row>
+    <row r="823" spans="5:5">
+      <c r="E823" s="10"/>
+    </row>
+    <row r="824" spans="5:5">
+      <c r="E824" s="10"/>
+    </row>
+    <row r="825" spans="5:5">
+      <c r="E825" s="10"/>
+    </row>
+    <row r="826" spans="5:5">
+      <c r="E826" s="10"/>
+    </row>
+    <row r="827" spans="5:5">
+      <c r="E827" s="10"/>
+    </row>
+    <row r="828" spans="5:5">
+      <c r="E828" s="10"/>
+    </row>
+    <row r="829" spans="5:5">
+      <c r="E829" s="10"/>
+    </row>
+    <row r="830" spans="5:5">
+      <c r="E830" s="10"/>
+    </row>
+    <row r="831" spans="5:5">
+      <c r="E831" s="10"/>
+    </row>
+    <row r="832" spans="5:5">
+      <c r="E832" s="10"/>
+    </row>
+    <row r="833" spans="5:5">
+      <c r="E833" s="10"/>
+    </row>
+    <row r="834" spans="5:5">
+      <c r="E834" s="10"/>
+    </row>
+    <row r="835" spans="5:5">
+      <c r="E835" s="10"/>
+    </row>
+    <row r="836" spans="5:5">
+      <c r="E836" s="10"/>
+    </row>
+    <row r="837" spans="5:5">
+      <c r="E837" s="10"/>
+    </row>
+    <row r="838" spans="5:5">
+      <c r="E838" s="10"/>
+    </row>
+    <row r="839" spans="5:5">
+      <c r="E839" s="10"/>
+    </row>
+    <row r="840" spans="5:5">
+      <c r="E840" s="10"/>
+    </row>
+    <row r="841" spans="5:5">
+      <c r="E841" s="10"/>
+    </row>
+    <row r="842" spans="5:5">
+      <c r="E842" s="10"/>
+    </row>
+    <row r="843" spans="5:5">
+      <c r="E843" s="10"/>
+    </row>
+    <row r="844" spans="5:5">
+      <c r="E844" s="10"/>
+    </row>
+    <row r="845" spans="5:5">
+      <c r="E845" s="10"/>
+    </row>
+    <row r="846" spans="5:5">
+      <c r="E846" s="10"/>
+    </row>
+    <row r="847" spans="5:5">
+      <c r="E847" s="10"/>
+    </row>
+    <row r="848" spans="5:5">
+      <c r="E848" s="10"/>
+    </row>
+    <row r="849" spans="5:5">
+      <c r="E849" s="10"/>
+    </row>
+    <row r="850" spans="5:5">
+      <c r="E850" s="10"/>
+    </row>
+    <row r="851" spans="5:5">
+      <c r="E851" s="10"/>
+    </row>
+    <row r="852" spans="5:5">
+      <c r="E852" s="10"/>
+    </row>
+    <row r="853" spans="5:5">
+      <c r="E853" s="10"/>
+    </row>
+    <row r="854" spans="5:5">
+      <c r="E854" s="10"/>
+    </row>
+    <row r="855" spans="5:5">
+      <c r="E855" s="10"/>
+    </row>
+    <row r="856" spans="5:5">
+      <c r="E856" s="10"/>
+    </row>
+    <row r="857" spans="5:5">
+      <c r="E857" s="10"/>
+    </row>
+    <row r="858" spans="5:5">
+      <c r="E858" s="10"/>
+    </row>
+    <row r="859" spans="5:5">
+      <c r="E859" s="10"/>
+    </row>
+    <row r="860" spans="5:5">
+      <c r="E860" s="10"/>
+    </row>
+    <row r="861" spans="5:5">
+      <c r="E861" s="10"/>
+    </row>
+    <row r="862" spans="5:5">
+      <c r="E862" s="10"/>
+    </row>
+    <row r="863" spans="5:5">
+      <c r="E863" s="10"/>
+    </row>
+    <row r="864" spans="5:5">
+      <c r="E864" s="10"/>
+    </row>
+    <row r="865" spans="5:5">
+      <c r="E865" s="10"/>
+    </row>
+    <row r="866" spans="5:5">
+      <c r="E866" s="10"/>
+    </row>
+    <row r="867" spans="5:5">
+      <c r="E867" s="10"/>
+    </row>
+    <row r="868" spans="5:5">
+      <c r="E868" s="10"/>
+    </row>
+    <row r="869" spans="5:5">
+      <c r="E869" s="10"/>
+    </row>
+    <row r="870" spans="5:5">
+      <c r="E870" s="10"/>
+    </row>
+    <row r="871" spans="5:5">
+      <c r="E871" s="10"/>
+    </row>
+    <row r="872" spans="5:5">
+      <c r="E872" s="10"/>
+    </row>
+    <row r="873" spans="5:5">
+      <c r="E873" s="10"/>
+    </row>
+    <row r="874" spans="5:5">
+      <c r="E874" s="10"/>
+    </row>
+    <row r="875" spans="5:5">
+      <c r="E875" s="10"/>
+    </row>
+    <row r="876" spans="5:5">
+      <c r="E876" s="10"/>
+    </row>
+    <row r="877" spans="5:5">
+      <c r="E877" s="10"/>
+    </row>
+    <row r="878" spans="5:5">
+      <c r="E878" s="10"/>
+    </row>
+    <row r="879" spans="5:5">
+      <c r="E879" s="10"/>
+    </row>
+    <row r="880" spans="5:5">
+      <c r="E880" s="10"/>
+    </row>
+    <row r="881" spans="5:5">
+      <c r="E881" s="10"/>
+    </row>
+    <row r="882" spans="5:5">
+      <c r="E882" s="10"/>
+    </row>
+    <row r="883" spans="5:5">
+      <c r="E883" s="10"/>
+    </row>
+    <row r="884" spans="5:5">
+      <c r="E884" s="10"/>
+    </row>
+    <row r="885" spans="5:5">
+      <c r="E885" s="10"/>
+    </row>
+    <row r="886" spans="5:5">
+      <c r="E886" s="10"/>
+    </row>
+    <row r="887" spans="5:5">
+      <c r="E887" s="10"/>
+    </row>
+    <row r="888" spans="5:5">
+      <c r="E888" s="10"/>
+    </row>
+    <row r="889" spans="5:5">
+      <c r="E889" s="10"/>
+    </row>
+    <row r="890" spans="5:5">
+      <c r="E890" s="10"/>
+    </row>
+    <row r="891" spans="5:5">
+      <c r="E891" s="10"/>
+    </row>
+    <row r="892" spans="5:5">
+      <c r="E892" s="10"/>
+    </row>
+    <row r="893" spans="5:5">
+      <c r="E893" s="10"/>
+    </row>
+    <row r="894" spans="5:5">
+      <c r="E894" s="10"/>
+    </row>
+    <row r="895" spans="5:5">
+      <c r="E895" s="10"/>
+    </row>
+    <row r="896" spans="5:5">
+      <c r="E896" s="10"/>
+    </row>
+    <row r="897" spans="5:5">
+      <c r="E897" s="10"/>
+    </row>
+    <row r="898" spans="5:5">
+      <c r="E898" s="10"/>
+    </row>
+    <row r="899" spans="5:5">
+      <c r="E899" s="10"/>
+    </row>
+    <row r="900" spans="5:5">
+      <c r="E900" s="10"/>
+    </row>
+    <row r="901" spans="5:5">
+      <c r="E901" s="10"/>
+    </row>
+    <row r="902" spans="5:5">
+      <c r="E902" s="10"/>
+    </row>
+    <row r="903" spans="5:5">
+      <c r="E903" s="10"/>
+    </row>
+    <row r="904" spans="5:5">
+      <c r="E904" s="10"/>
+    </row>
+    <row r="905" spans="5:5">
+      <c r="E905" s="10"/>
+    </row>
+    <row r="906" spans="5:5">
+      <c r="E906" s="10"/>
+    </row>
+    <row r="907" spans="5:5">
+      <c r="E907" s="10"/>
+    </row>
+    <row r="908" spans="5:5">
+      <c r="E908" s="10"/>
+    </row>
+    <row r="909" spans="5:5">
+      <c r="E909" s="10"/>
+    </row>
+    <row r="910" spans="5:5">
+      <c r="E910" s="10"/>
+    </row>
+    <row r="911" spans="5:5">
+      <c r="E911" s="10"/>
+    </row>
+    <row r="912" spans="5:5">
+      <c r="E912" s="10"/>
+    </row>
+    <row r="913" spans="5:5">
+      <c r="E913" s="10"/>
+    </row>
+    <row r="914" spans="5:5">
+      <c r="E914" s="10"/>
+    </row>
+    <row r="915" spans="5:5">
+      <c r="E915" s="10"/>
+    </row>
+    <row r="916" spans="5:5">
+      <c r="E916" s="10"/>
+    </row>
+    <row r="917" spans="5:5">
+      <c r="E917" s="10"/>
+    </row>
+    <row r="918" spans="5:5">
+      <c r="E918" s="10"/>
+    </row>
+    <row r="919" spans="5:5">
+      <c r="E919" s="10"/>
+    </row>
+    <row r="920" spans="5:5">
+      <c r="E920" s="10"/>
+    </row>
+    <row r="921" spans="5:5">
+      <c r="E921" s="10"/>
+    </row>
+    <row r="922" spans="5:5">
+      <c r="E922" s="10"/>
+    </row>
+    <row r="923" spans="5:5">
+      <c r="E923" s="10"/>
+    </row>
+    <row r="924" spans="5:5">
+      <c r="E924" s="10"/>
+    </row>
+    <row r="925" spans="5:5">
+      <c r="E925" s="10"/>
+    </row>
+    <row r="926" spans="5:5">
+      <c r="E926" s="10"/>
+    </row>
+    <row r="927" spans="5:5">
+      <c r="E927" s="10"/>
+    </row>
+    <row r="928" spans="5:5">
+      <c r="E928" s="10"/>
+    </row>
+    <row r="929" spans="5:5">
+      <c r="E929" s="10"/>
+    </row>
+    <row r="930" spans="5:5">
+      <c r="E930" s="10"/>
+    </row>
+    <row r="931" spans="5:5">
+      <c r="E931" s="10"/>
+    </row>
+    <row r="932" spans="5:5">
+      <c r="E932" s="10"/>
+    </row>
+    <row r="933" spans="5:5">
+      <c r="E933" s="10"/>
+    </row>
+    <row r="934" spans="5:5">
+      <c r="E934" s="10"/>
+    </row>
+    <row r="935" spans="5:5">
+      <c r="E935" s="10"/>
+    </row>
+    <row r="936" spans="5:5">
+      <c r="E936" s="10"/>
+    </row>
+    <row r="937" spans="5:5">
+      <c r="E937" s="10"/>
+    </row>
+    <row r="938" spans="5:5">
+      <c r="E938" s="10"/>
+    </row>
+    <row r="939" spans="5:5">
+      <c r="E939" s="10"/>
+    </row>
+    <row r="940" spans="5:5">
+      <c r="E940" s="10"/>
+    </row>
+    <row r="941" spans="5:5">
+      <c r="E941" s="10"/>
+    </row>
+    <row r="942" spans="5:5">
+      <c r="E942" s="10"/>
+    </row>
+    <row r="943" spans="5:5">
+      <c r="E943" s="10"/>
+    </row>
+    <row r="944" spans="5:5">
+      <c r="E944" s="10"/>
+    </row>
+    <row r="945" spans="5:5">
+      <c r="E945" s="10"/>
+    </row>
+    <row r="946" spans="5:5">
+      <c r="E946" s="10"/>
+    </row>
+    <row r="947" spans="5:5">
+      <c r="E947" s="10"/>
+    </row>
+    <row r="948" spans="5:5">
+      <c r="E948" s="10"/>
+    </row>
+    <row r="949" spans="5:5">
+      <c r="E949" s="10"/>
+    </row>
+    <row r="950" spans="5:5">
+      <c r="E950" s="10"/>
+    </row>
+    <row r="951" spans="5:5">
+      <c r="E951" s="10"/>
+    </row>
+    <row r="952" spans="5:5">
+      <c r="E952" s="10"/>
+    </row>
+    <row r="953" spans="5:5">
+      <c r="E953" s="10"/>
+    </row>
+    <row r="954" spans="5:5">
+      <c r="E954" s="10"/>
+    </row>
+    <row r="955" spans="5:5">
+      <c r="E955" s="10"/>
+    </row>
+    <row r="956" spans="5:5">
+      <c r="E956" s="10"/>
+    </row>
+    <row r="957" spans="5:5">
+      <c r="E957" s="10"/>
+    </row>
+    <row r="958" spans="5:5">
+      <c r="E958" s="10"/>
+    </row>
+    <row r="959" spans="5:5">
+      <c r="E959" s="10"/>
+    </row>
+    <row r="960" spans="5:5">
+      <c r="E960" s="10"/>
+    </row>
+    <row r="961" spans="5:5">
+      <c r="E961" s="10"/>
+    </row>
+    <row r="962" spans="5:5">
+      <c r="E962" s="10"/>
+    </row>
+    <row r="963" spans="5:5">
+      <c r="E963" s="10"/>
+    </row>
+    <row r="964" spans="5:5">
+      <c r="E964" s="10"/>
+    </row>
+    <row r="965" spans="5:5">
+      <c r="E965" s="10"/>
+    </row>
+    <row r="966" spans="5:5">
+      <c r="E966" s="10"/>
+    </row>
+    <row r="967" spans="5:5">
+      <c r="E967" s="10"/>
+    </row>
+    <row r="968" spans="5:5">
+      <c r="E968" s="10"/>
+    </row>
+    <row r="969" spans="5:5">
+      <c r="E969" s="10"/>
+    </row>
+    <row r="970" spans="5:5">
+      <c r="E970" s="10"/>
+    </row>
+    <row r="971" spans="5:5">
+      <c r="E971" s="10"/>
+    </row>
+    <row r="972" spans="5:5">
+      <c r="E972" s="10"/>
+    </row>
+    <row r="973" spans="5:5">
+      <c r="E973" s="10"/>
+    </row>
+    <row r="974" spans="5:5">
+      <c r="E974" s="10"/>
+    </row>
+    <row r="975" spans="5:5">
+      <c r="E975" s="10"/>
+    </row>
+    <row r="976" spans="5:5">
+      <c r="E976" s="10"/>
+    </row>
+    <row r="977" spans="5:5">
+      <c r="E977" s="10"/>
+    </row>
+    <row r="978" spans="5:5">
+      <c r="E978" s="10"/>
+    </row>
+    <row r="979" spans="5:5">
+      <c r="E979" s="10"/>
+    </row>
+    <row r="980" spans="5:5">
+      <c r="E980" s="10"/>
+    </row>
+    <row r="981" spans="5:5">
+      <c r="E981" s="10"/>
+    </row>
+    <row r="982" spans="5:5">
+      <c r="E982" s="10"/>
+    </row>
+    <row r="983" spans="5:5">
+      <c r="E983" s="10"/>
+    </row>
+    <row r="984" spans="5:5">
+      <c r="E984" s="10"/>
+    </row>
+    <row r="985" spans="5:5">
+      <c r="E985" s="10"/>
+    </row>
+    <row r="986" spans="5:5">
+      <c r="E986" s="10"/>
+    </row>
+    <row r="987" spans="5:5">
+      <c r="E987" s="10"/>
+    </row>
+    <row r="988" spans="5:5">
+      <c r="E988" s="10"/>
+    </row>
+    <row r="989" spans="5:5">
+      <c r="E989" s="10"/>
+    </row>
+    <row r="990" spans="5:5">
+      <c r="E990" s="10"/>
+    </row>
+    <row r="991" spans="5:5">
+      <c r="E991" s="10"/>
+    </row>
+    <row r="992" spans="5:5">
+      <c r="E992" s="10"/>
+    </row>
+    <row r="993" spans="5:5">
+      <c r="E993" s="10"/>
+    </row>
+    <row r="994" spans="5:5">
+      <c r="E994" s="10"/>
+    </row>
+    <row r="995" spans="5:5">
+      <c r="E995" s="10"/>
+    </row>
+    <row r="996" spans="5:5">
+      <c r="E996" s="10"/>
+    </row>
+    <row r="997" spans="5:5">
+      <c r="E997" s="10"/>
+    </row>
+    <row r="998" spans="5:5">
+      <c r="E998" s="10"/>
+    </row>
+    <row r="999" spans="5:5">
+      <c r="E999" s="10"/>
+    </row>
+    <row r="1000" spans="5:5">
+      <c r="E1000" s="10"/>
+    </row>
+    <row r="1001" spans="5:5">
+      <c r="E1001" s="10"/>
+    </row>
+    <row r="1002" spans="5:5">
+      <c r="E1002" s="10"/>
+    </row>
+    <row r="1003" spans="5:5">
+      <c r="E1003" s="10"/>
+    </row>
+    <row r="1004" spans="5:5">
+      <c r="E1004" s="10"/>
+    </row>
+    <row r="1005" spans="5:5">
+      <c r="E1005" s="10"/>
+    </row>
+    <row r="1006" spans="5:5">
+      <c r="E1006" s="10"/>
+    </row>
+    <row r="1007" spans="5:5">
+      <c r="E1007" s="10"/>
+    </row>
+    <row r="1008" spans="5:5">
+      <c r="E1008" s="10"/>
+    </row>
+    <row r="1009" spans="5:5">
+      <c r="E1009" s="10"/>
+    </row>
+    <row r="1010" spans="5:5">
+      <c r="E1010" s="10"/>
+    </row>
+    <row r="1011" spans="5:5">
+      <c r="E1011" s="10"/>
+    </row>
+    <row r="1012" spans="5:5">
+      <c r="E1012" s="10"/>
+    </row>
+    <row r="1013" spans="5:5">
+      <c r="E1013" s="10"/>
+    </row>
+    <row r="1014" spans="5:5">
+      <c r="E1014" s="10"/>
+    </row>
+    <row r="1015" spans="5:5">
+      <c r="E1015" s="10"/>
+    </row>
+    <row r="1016" spans="5:5">
+      <c r="E1016" s="10"/>
+    </row>
+    <row r="1017" spans="5:5">
+      <c r="E1017" s="10"/>
+    </row>
+    <row r="1018" spans="5:5">
+      <c r="E1018" s="10"/>
+    </row>
+    <row r="1019" spans="5:5">
+      <c r="E1019" s="10"/>
+    </row>
+    <row r="1020" spans="5:5">
+      <c r="E1020" s="10"/>
+    </row>
+    <row r="1021" spans="5:5">
+      <c r="E1021" s="10"/>
+    </row>
+    <row r="1022" spans="5:5">
+      <c r="E1022" s="10"/>
+    </row>
+    <row r="1023" spans="5:5">
+      <c r="E1023" s="10"/>
+    </row>
+    <row r="1024" spans="5:5">
+      <c r="E1024" s="10"/>
+    </row>
+    <row r="1025" spans="5:5">
+      <c r="E1025" s="10"/>
+    </row>
+    <row r="1026" spans="5:5">
+      <c r="E1026" s="10"/>
+    </row>
+    <row r="1027" spans="5:5">
+      <c r="E1027" s="10"/>
+    </row>
+    <row r="1028" spans="5:5">
+      <c r="E1028" s="10"/>
+    </row>
+    <row r="1029" spans="5:5">
+      <c r="E1029" s="10"/>
+    </row>
+    <row r="1030" spans="5:5">
+      <c r="E1030" s="10"/>
+    </row>
+    <row r="1031" spans="5:5">
+      <c r="E1031" s="10"/>
+    </row>
+    <row r="1032" spans="5:5">
+      <c r="E1032" s="10"/>
+    </row>
+    <row r="1033" spans="5:5">
+      <c r="E1033" s="10"/>
+    </row>
+    <row r="1034" spans="5:5">
+      <c r="E1034" s="10"/>
+    </row>
+    <row r="1035" spans="5:5">
+      <c r="E1035" s="10"/>
+    </row>
+    <row r="1036" spans="5:5">
+      <c r="E1036" s="10"/>
+    </row>
+    <row r="1037" spans="5:5">
+      <c r="E1037" s="10"/>
+    </row>
+    <row r="1038" spans="5:5">
+      <c r="E1038" s="10"/>
+    </row>
+    <row r="1039" spans="5:5">
+      <c r="E1039" s="10"/>
+    </row>
+    <row r="1040" spans="5:5">
+      <c r="E1040" s="10"/>
+    </row>
+    <row r="1041" spans="5:5">
+      <c r="E1041" s="10"/>
+    </row>
+    <row r="1042" spans="5:5">
+      <c r="E1042" s="10"/>
+    </row>
+    <row r="1043" spans="5:5">
+      <c r="E1043" s="10"/>
+    </row>
+    <row r="1044" spans="5:5">
+      <c r="E1044" s="10"/>
+    </row>
+    <row r="1045" spans="5:5">
+      <c r="E1045" s="10"/>
+    </row>
+    <row r="1046" spans="5:5">
+      <c r="E1046" s="10"/>
+    </row>
+    <row r="1047" spans="5:5">
+      <c r="E1047" s="10"/>
+    </row>
+    <row r="1048" spans="5:5">
+      <c r="E1048" s="10"/>
+    </row>
+    <row r="1049" spans="5:5">
+      <c r="E1049" s="10"/>
+    </row>
+    <row r="1050" spans="5:5">
+      <c r="E1050" s="10"/>
+    </row>
+    <row r="1051" spans="5:5">
+      <c r="E1051" s="10"/>
+    </row>
+    <row r="1052" spans="5:5">
+      <c r="E1052" s="10"/>
+    </row>
+    <row r="1053" spans="5:5">
+      <c r="E1053" s="10"/>
+    </row>
+    <row r="1054" spans="5:5">
+      <c r="E1054" s="10"/>
+    </row>
+    <row r="1055" spans="5:5">
+      <c r="E1055" s="10"/>
+    </row>
+    <row r="1056" spans="5:5">
+      <c r="E1056" s="10"/>
+    </row>
+    <row r="1057" spans="5:5">
+      <c r="E1057" s="10"/>
+    </row>
+    <row r="1058" spans="5:5">
+      <c r="E1058" s="10"/>
+    </row>
+    <row r="1059" spans="5:5">
+      <c r="E1059" s="10"/>
+    </row>
+    <row r="1060" spans="5:5">
+      <c r="E1060" s="10"/>
+    </row>
+    <row r="1061" spans="5:5">
+      <c r="E1061" s="10"/>
+    </row>
+    <row r="1062" spans="5:5">
+      <c r="E1062" s="10"/>
+    </row>
+    <row r="1063" spans="5:5">
+      <c r="E1063" s="10"/>
+    </row>
+    <row r="1064" spans="5:5">
+      <c r="E1064" s="10"/>
+    </row>
+    <row r="1065" spans="5:5">
+      <c r="E1065" s="10"/>
+    </row>
+    <row r="1066" spans="5:5">
+      <c r="E1066" s="10"/>
+    </row>
+    <row r="1067" spans="5:5">
+      <c r="E1067" s="10"/>
+    </row>
+    <row r="1068" spans="5:5">
+      <c r="E1068" s="10"/>
+    </row>
+    <row r="1069" spans="5:5">
+      <c r="E1069" s="10"/>
+    </row>
+    <row r="1070" spans="5:5">
+      <c r="E1070" s="10"/>
+    </row>
+    <row r="1071" spans="5:5">
+      <c r="E1071" s="10"/>
+    </row>
+    <row r="1072" spans="5:5">
+      <c r="E1072" s="10"/>
+    </row>
+    <row r="1073" spans="5:5">
+      <c r="E1073" s="10"/>
+    </row>
+    <row r="1074" spans="5:5">
+      <c r="E1074" s="10"/>
+    </row>
+    <row r="1075" spans="5:5">
+      <c r="E1075" s="10"/>
+    </row>
+    <row r="1076" spans="5:5">
+      <c r="E1076" s="10"/>
+    </row>
+    <row r="1077" spans="5:5">
+      <c r="E1077" s="10"/>
+    </row>
+    <row r="1078" spans="5:5">
+      <c r="E1078" s="10"/>
+    </row>
+    <row r="1079" spans="5:5">
+      <c r="E1079" s="10"/>
+    </row>
+    <row r="1080" spans="5:5">
+      <c r="E1080" s="10"/>
+    </row>
+    <row r="1081" spans="5:5">
+      <c r="E1081" s="10"/>
+    </row>
+    <row r="1082" spans="5:5">
+      <c r="E1082" s="10"/>
+    </row>
+    <row r="1083" spans="5:5">
+      <c r="E1083" s="10"/>
+    </row>
+    <row r="1084" spans="5:5">
+      <c r="E1084" s="10"/>
+    </row>
+    <row r="1085" spans="5:5">
+      <c r="E1085" s="10"/>
+    </row>
+    <row r="1086" spans="5:5">
+      <c r="E1086" s="10"/>
+    </row>
+    <row r="1087" spans="5:5">
+      <c r="E1087" s="10"/>
+    </row>
+    <row r="1088" spans="5:5">
+      <c r="E1088" s="10"/>
+    </row>
+    <row r="1089" spans="5:5">
+      <c r="E1089" s="10"/>
+    </row>
+    <row r="1090" spans="5:5">
+      <c r="E1090" s="10"/>
+    </row>
+    <row r="1091" spans="5:5">
+      <c r="E1091" s="10"/>
+    </row>
+    <row r="1092" spans="5:5">
+      <c r="E1092" s="10"/>
+    </row>
+    <row r="1093" spans="5:5">
+      <c r="E1093" s="10"/>
+    </row>
+    <row r="1094" spans="5:5">
+      <c r="E1094" s="10"/>
+    </row>
+    <row r="1095" spans="5:5">
+      <c r="E1095" s="10"/>
+    </row>
+    <row r="1096" spans="5:5">
+      <c r="E1096" s="10"/>
+    </row>
+    <row r="1097" spans="5:5">
+      <c r="E1097" s="10"/>
+    </row>
+    <row r="1098" spans="5:5">
+      <c r="E1098" s="10"/>
+    </row>
+    <row r="1099" spans="5:5">
+      <c r="E1099" s="10"/>
+    </row>
+    <row r="1100" spans="5:5">
+      <c r="E1100" s="10"/>
+    </row>
+    <row r="1101" spans="5:5">
+      <c r="E1101" s="10"/>
+    </row>
+    <row r="1102" spans="5:5">
+      <c r="E1102" s="10"/>
+    </row>
+    <row r="1103" spans="5:5">
+      <c r="E1103" s="10"/>
+    </row>
+    <row r="1104" spans="5:5">
+      <c r="E1104" s="10"/>
+    </row>
+    <row r="1105" spans="5:5">
+      <c r="E1105" s="10"/>
+    </row>
+    <row r="1106" spans="5:5">
+      <c r="E1106" s="10"/>
+    </row>
+    <row r="1107" spans="5:5">
+      <c r="E1107" s="10"/>
+    </row>
+    <row r="1108" spans="5:5">
+      <c r="E1108" s="10"/>
+    </row>
+    <row r="1109" spans="5:5">
+      <c r="E1109" s="10"/>
+    </row>
+    <row r="1110" spans="5:5">
+      <c r="E1110" s="10"/>
+    </row>
+    <row r="1111" spans="5:5">
+      <c r="E1111" s="10"/>
+    </row>
+    <row r="1112" spans="5:5">
+      <c r="E1112" s="10"/>
+    </row>
+    <row r="1113" spans="5:5">
+      <c r="E1113" s="10"/>
+    </row>
+    <row r="1114" spans="5:5">
+      <c r="E1114" s="10"/>
+    </row>
+    <row r="1115" spans="5:5">
+      <c r="E1115" s="10"/>
+    </row>
+    <row r="1116" spans="5:5">
+      <c r="E1116" s="10"/>
+    </row>
+    <row r="1117" spans="5:5">
+      <c r="E1117" s="10"/>
+    </row>
+    <row r="1118" spans="5:5">
+      <c r="E1118" s="10"/>
+    </row>
+    <row r="1119" spans="5:5">
+      <c r="E1119" s="10"/>
+    </row>
+    <row r="1120" spans="5:5">
+      <c r="E1120" s="10"/>
+    </row>
+    <row r="1121" spans="5:5">
+      <c r="E1121" s="10"/>
+    </row>
+    <row r="1122" spans="5:5">
+      <c r="E1122" s="10"/>
+    </row>
+    <row r="1123" spans="5:5">
+      <c r="E1123" s="10"/>
+    </row>
+    <row r="1124" spans="5:5">
+      <c r="E1124" s="10"/>
+    </row>
+    <row r="1125" spans="5:5">
+      <c r="E1125" s="10"/>
+    </row>
+    <row r="1126" spans="5:5">
+      <c r="E1126" s="10"/>
+    </row>
+    <row r="1127" spans="5:5">
+      <c r="E1127" s="10"/>
+    </row>
+    <row r="1128" spans="5:5">
+      <c r="E1128" s="10"/>
+    </row>
+    <row r="1129" spans="5:5">
+      <c r="E1129" s="10"/>
+    </row>
+    <row r="1130" spans="5:5">
+      <c r="E1130" s="10"/>
+    </row>
+    <row r="1131" spans="5:5">
+      <c r="E1131" s="10"/>
+    </row>
+    <row r="1132" spans="5:5">
+      <c r="E1132" s="10"/>
+    </row>
+    <row r="1133" spans="5:5">
+      <c r="E1133" s="10"/>
+    </row>
+    <row r="1134" spans="5:5">
+      <c r="E1134" s="10"/>
+    </row>
+    <row r="1135" spans="5:5">
+      <c r="E1135" s="10"/>
+    </row>
+    <row r="1136" spans="5:5">
+      <c r="E1136" s="10"/>
+    </row>
+    <row r="1137" spans="5:5">
+      <c r="E1137" s="10"/>
+    </row>
+    <row r="1138" spans="5:5">
+      <c r="E1138" s="10"/>
+    </row>
+    <row r="1139" spans="5:5">
+      <c r="E1139" s="10"/>
+    </row>
+    <row r="1140" spans="5:5">
+      <c r="E1140" s="10"/>
+    </row>
+    <row r="1141" spans="5:5">
+      <c r="E1141" s="10"/>
+    </row>
+    <row r="1142" spans="5:5">
+      <c r="E1142" s="10"/>
+    </row>
+    <row r="1143" spans="5:5">
+      <c r="E1143" s="10"/>
+    </row>
+    <row r="1144" spans="5:5">
+      <c r="E1144" s="10"/>
+    </row>
+    <row r="1145" spans="5:5">
+      <c r="E1145" s="10"/>
+    </row>
+    <row r="1146" spans="5:5">
+      <c r="E1146" s="10"/>
+    </row>
+    <row r="1147" spans="5:5">
+      <c r="E1147" s="10"/>
+    </row>
+    <row r="1148" spans="5:5">
+      <c r="E1148" s="10"/>
+    </row>
+    <row r="1149" spans="5:5">
+      <c r="E1149" s="10"/>
+    </row>
+    <row r="1150" spans="5:5">
+      <c r="E1150" s="10"/>
+    </row>
+    <row r="1151" spans="5:5">
+      <c r="E1151" s="10"/>
+    </row>
+    <row r="1152" spans="5:5">
+      <c r="E1152" s="10"/>
+    </row>
+    <row r="1153" spans="5:5">
+      <c r="E1153" s="10"/>
+    </row>
+    <row r="1154" spans="5:5">
+      <c r="E1154" s="10"/>
+    </row>
+    <row r="1155" spans="5:5">
+      <c r="E1155" s="10"/>
+    </row>
+    <row r="1156" spans="5:5">
+      <c r="E1156" s="10"/>
+    </row>
+    <row r="1157" spans="5:5">
+      <c r="E1157" s="10"/>
+    </row>
+    <row r="1158" spans="5:5">
+      <c r="E1158" s="10"/>
+    </row>
+    <row r="1159" spans="5:5">
+      <c r="E1159" s="10"/>
+    </row>
+    <row r="1160" spans="5:5">
+      <c r="E1160" s="10"/>
+    </row>
+    <row r="1161" spans="5:5">
+      <c r="E1161" s="10"/>
+    </row>
+    <row r="1162" spans="5:5">
+      <c r="E1162" s="10"/>
+    </row>
+    <row r="1163" spans="5:5">
+      <c r="E1163" s="10"/>
+    </row>
+    <row r="1164" spans="5:5">
+      <c r="E1164" s="10"/>
+    </row>
+    <row r="1165" spans="5:5">
+      <c r="E1165" s="10"/>
+    </row>
+    <row r="1166" spans="5:5">
+      <c r="E1166" s="10"/>
+    </row>
+    <row r="1167" spans="5:5">
+      <c r="E1167" s="10"/>
+    </row>
+    <row r="1168" spans="5:5">
+      <c r="E1168" s="10"/>
+    </row>
+    <row r="1169" spans="5:5">
+      <c r="E1169" s="10"/>
+    </row>
+    <row r="1170" spans="5:5">
+      <c r="E1170" s="10"/>
+    </row>
+    <row r="1171" spans="5:5">
+      <c r="E1171" s="10"/>
+    </row>
+    <row r="1172" spans="5:5">
+      <c r="E1172" s="10"/>
+    </row>
+    <row r="1173" spans="5:5">
+      <c r="E1173" s="10"/>
+    </row>
+    <row r="1174" spans="5:5">
+      <c r="E1174" s="10"/>
+    </row>
+    <row r="1175" spans="5:5">
+      <c r="E1175" s="10"/>
+    </row>
+    <row r="1176" spans="5:5">
+      <c r="E1176" s="10"/>
+    </row>
+    <row r="1177" spans="5:5">
+      <c r="E1177" s="10"/>
+    </row>
+    <row r="1178" spans="5:5">
+      <c r="E1178" s="10"/>
+    </row>
+    <row r="1179" spans="5:5">
+      <c r="E1179" s="10"/>
+    </row>
+    <row r="1180" spans="5:5">
+      <c r="E1180" s="10"/>
+    </row>
+    <row r="1181" spans="5:5">
+      <c r="E1181" s="10"/>
+    </row>
+    <row r="1182" spans="5:5">
+      <c r="E1182" s="10"/>
+    </row>
+    <row r="1183" spans="5:5">
+      <c r="E1183" s="10"/>
+    </row>
+    <row r="1184" spans="5:5">
+      <c r="E1184" s="10"/>
+    </row>
+    <row r="1185" spans="5:5">
+      <c r="E1185" s="10"/>
+    </row>
+    <row r="1186" spans="5:5">
+      <c r="E1186" s="10"/>
+    </row>
+    <row r="1187" spans="5:5">
+      <c r="E1187" s="10"/>
+    </row>
+    <row r="1188" spans="5:5">
+      <c r="E1188" s="10"/>
+    </row>
+    <row r="1189" spans="5:5">
+      <c r="E1189" s="10"/>
+    </row>
+    <row r="1190" spans="5:5">
+      <c r="E1190" s="10"/>
+    </row>
+    <row r="1191" spans="5:5">
+      <c r="E1191" s="10"/>
+    </row>
+    <row r="1192" spans="5:5">
+      <c r="E1192" s="10"/>
+    </row>
+    <row r="1193" spans="5:5">
+      <c r="E1193" s="10"/>
+    </row>
+    <row r="1194" spans="5:5">
+      <c r="E1194" s="10"/>
+    </row>
+    <row r="1195" spans="5:5">
+      <c r="E1195" s="10"/>
+    </row>
+    <row r="1196" spans="5:5">
+      <c r="E1196" s="10"/>
+    </row>
+    <row r="1197" spans="5:5">
+      <c r="E1197" s="10"/>
+    </row>
+    <row r="1198" spans="5:5">
+      <c r="E1198" s="10"/>
+    </row>
+    <row r="1199" spans="5:5">
+      <c r="E1199" s="10"/>
+    </row>
+    <row r="1200" spans="5:5">
+      <c r="E1200" s="10"/>
+    </row>
+    <row r="1201" spans="5:5">
+      <c r="E1201" s="10"/>
+    </row>
+    <row r="1202" spans="5:5">
+      <c r="E1202" s="10"/>
+    </row>
+    <row r="1203" spans="5:5">
+      <c r="E1203" s="10"/>
+    </row>
+    <row r="1204" spans="5:5">
+      <c r="E1204" s="10"/>
+    </row>
+    <row r="1205" spans="5:5">
+      <c r="E1205" s="10"/>
+    </row>
+    <row r="1206" spans="5:5">
+      <c r="E1206" s="10"/>
+    </row>
+    <row r="1207" spans="5:5">
+      <c r="E1207" s="10"/>
+    </row>
+    <row r="1208" spans="5:5">
+      <c r="E1208" s="10"/>
+    </row>
+    <row r="1209" spans="5:5">
+      <c r="E1209" s="10"/>
+    </row>
+    <row r="1210" spans="5:5">
+      <c r="E1210" s="10"/>
+    </row>
+    <row r="1211" spans="5:5">
+      <c r="E1211" s="10"/>
+    </row>
+    <row r="1212" spans="5:5">
+      <c r="E1212" s="10"/>
+    </row>
+    <row r="1213" spans="5:5">
+      <c r="E1213" s="10"/>
+    </row>
+    <row r="1214" spans="5:5">
+      <c r="E1214" s="10"/>
+    </row>
+    <row r="1215" spans="5:5">
+      <c r="E1215" s="10"/>
+    </row>
+    <row r="1216" spans="5:5">
+      <c r="E1216" s="10"/>
+    </row>
+    <row r="1217" spans="5:5">
+      <c r="E1217" s="10"/>
+    </row>
+    <row r="1218" spans="5:5">
+      <c r="E1218" s="10"/>
+    </row>
+    <row r="1219" spans="5:5">
+      <c r="E1219" s="10"/>
+    </row>
+    <row r="1220" spans="5:5">
+      <c r="E1220" s="10"/>
+    </row>
+    <row r="1221" spans="5:5">
+      <c r="E1221" s="10"/>
+    </row>
+    <row r="1222" spans="5:5">
+      <c r="E1222" s="10"/>
+    </row>
+    <row r="1223" spans="5:5">
+      <c r="E1223" s="10"/>
+    </row>
+    <row r="1224" spans="5:5">
+      <c r="E1224" s="10"/>
+    </row>
+    <row r="1225" spans="5:5">
+      <c r="E1225" s="10"/>
+    </row>
+    <row r="1226" spans="5:5">
+      <c r="E1226" s="10"/>
+    </row>
+    <row r="1227" spans="5:5">
+      <c r="E1227" s="10"/>
+    </row>
+    <row r="1228" spans="5:5">
+      <c r="E1228" s="10"/>
+    </row>
+    <row r="1229" spans="5:5">
+      <c r="E1229" s="10"/>
+    </row>
+    <row r="1230" spans="5:5">
+      <c r="E1230" s="10"/>
+    </row>
+    <row r="1231" spans="5:5">
+      <c r="E1231" s="10"/>
+    </row>
+    <row r="1232" spans="5:5">
+      <c r="E1232" s="10"/>
+    </row>
+    <row r="1233" spans="5:5">
+      <c r="E1233" s="10"/>
+    </row>
+    <row r="1234" spans="5:5">
+      <c r="E1234" s="10"/>
+    </row>
+    <row r="1235" spans="5:5">
+      <c r="E1235" s="10"/>
+    </row>
+    <row r="1236" spans="5:5">
+      <c r="E1236" s="10"/>
+    </row>
+    <row r="1237" spans="5:5">
+      <c r="E1237" s="10"/>
+    </row>
+    <row r="1238" spans="5:5">
+      <c r="E1238" s="10"/>
+    </row>
+    <row r="1239" spans="5:5">
+      <c r="E1239" s="10"/>
+    </row>
+    <row r="1240" spans="5:5">
+      <c r="E1240" s="10"/>
+    </row>
+    <row r="1241" spans="5:5">
+      <c r="E1241" s="10"/>
+    </row>
+    <row r="1242" spans="5:5">
+      <c r="E1242" s="10"/>
+    </row>
+    <row r="1243" spans="5:5">
+      <c r="E1243" s="10"/>
+    </row>
+    <row r="1244" spans="5:5">
+      <c r="E1244" s="10"/>
+    </row>
+    <row r="1245" spans="5:5">
+      <c r="E1245" s="10"/>
+    </row>
+    <row r="1246" spans="5:5">
+      <c r="E1246" s="10"/>
+    </row>
+    <row r="1247" spans="5:5">
+      <c r="E1247" s="10"/>
+    </row>
+    <row r="1248" spans="5:5">
+      <c r="E1248" s="10"/>
+    </row>
+    <row r="1249" spans="5:5">
+      <c r="E1249" s="10"/>
+    </row>
+    <row r="1250" spans="5:5">
+      <c r="E1250" s="10"/>
+    </row>
+    <row r="1251" spans="5:5">
+      <c r="E1251" s="10"/>
+    </row>
+    <row r="1252" spans="5:5">
+      <c r="E1252" s="10"/>
+    </row>
+    <row r="1253" spans="5:5">
+      <c r="E1253" s="10"/>
+    </row>
+    <row r="1254" spans="5:5">
+      <c r="E1254" s="10"/>
+    </row>
+    <row r="1255" spans="5:5">
+      <c r="E1255" s="10"/>
+    </row>
+    <row r="1256" spans="5:5">
+      <c r="E1256" s="10"/>
+    </row>
+    <row r="1257" spans="5:5">
+      <c r="E1257" s="10"/>
+    </row>
+    <row r="1258" spans="5:5">
+      <c r="E1258" s="10"/>
+    </row>
+    <row r="1259" spans="5:5">
+      <c r="E1259" s="10"/>
+    </row>
+    <row r="1260" spans="5:5">
+      <c r="E1260" s="10"/>
+    </row>
+    <row r="1261" spans="5:5">
+      <c r="E1261" s="10"/>
+    </row>
+    <row r="1262" spans="5:5">
+      <c r="E1262" s="10"/>
+    </row>
+    <row r="1263" spans="5:5">
+      <c r="E1263" s="10"/>
+    </row>
+    <row r="1264" spans="5:5">
+      <c r="E1264" s="10"/>
+    </row>
+    <row r="1265" spans="5:5">
+      <c r="E1265" s="10"/>
+    </row>
+    <row r="1266" spans="5:5">
+      <c r="E1266" s="10"/>
+    </row>
+    <row r="1267" spans="5:5">
+      <c r="E1267" s="10"/>
+    </row>
+    <row r="1268" spans="5:5">
+      <c r="E1268" s="10"/>
+    </row>
+    <row r="1269" spans="5:5">
+      <c r="E1269" s="10"/>
+    </row>
+    <row r="1270" spans="5:5">
+      <c r="E1270" s="10"/>
+    </row>
+    <row r="1271" spans="5:5">
+      <c r="E1271" s="10"/>
+    </row>
+    <row r="1272" spans="5:5">
+      <c r="E1272" s="10"/>
+    </row>
+    <row r="1273" spans="5:5">
+      <c r="E1273" s="10"/>
+    </row>
+    <row r="1274" spans="5:5">
+      <c r="E1274" s="10"/>
+    </row>
+    <row r="1275" spans="5:5">
+      <c r="E1275" s="10"/>
+    </row>
+    <row r="1276" spans="5:5">
+      <c r="E1276" s="10"/>
+    </row>
+    <row r="1277" spans="5:5">
+      <c r="E1277" s="10"/>
+    </row>
+    <row r="1278" spans="5:5">
+      <c r="E1278" s="10"/>
+    </row>
+    <row r="1279" spans="5:5">
+      <c r="E1279" s="10"/>
+    </row>
+    <row r="1280" spans="5:5">
+      <c r="E1280" s="10"/>
+    </row>
+    <row r="1281" spans="5:5">
+      <c r="E1281" s="10"/>
+    </row>
+    <row r="1282" spans="5:5">
+      <c r="E1282" s="10"/>
+    </row>
+    <row r="1283" spans="5:5">
+      <c r="E1283" s="10"/>
+    </row>
+    <row r="1284" spans="5:5">
+      <c r="E1284" s="10"/>
+    </row>
+    <row r="1285" spans="5:5">
+      <c r="E1285" s="10"/>
+    </row>
+    <row r="1286" spans="5:5">
+      <c r="E1286" s="10"/>
+    </row>
+    <row r="1287" spans="5:5">
+      <c r="E1287" s="10"/>
+    </row>
+    <row r="1288" spans="5:5">
+      <c r="E1288" s="10"/>
+    </row>
+    <row r="1289" spans="5:5">
+      <c r="E1289" s="10"/>
+    </row>
+    <row r="1290" spans="5:5">
+      <c r="E1290" s="10"/>
+    </row>
+    <row r="1291" spans="5:5">
+      <c r="E1291" s="10"/>
+    </row>
+    <row r="1292" spans="5:5">
+      <c r="E1292" s="10"/>
+    </row>
+    <row r="1293" spans="5:5">
+      <c r="E1293" s="10"/>
+    </row>
+    <row r="1294" spans="5:5">
+      <c r="E1294" s="10"/>
+    </row>
+    <row r="1295" spans="5:5">
+      <c r="E1295" s="10"/>
+    </row>
+    <row r="1296" spans="5:5">
+      <c r="E1296" s="10"/>
+    </row>
+    <row r="1297" spans="5:5">
+      <c r="E1297" s="10"/>
+    </row>
+    <row r="1298" spans="5:5">
+      <c r="E1298" s="10"/>
+    </row>
+    <row r="1299" spans="5:5">
+      <c r="E1299" s="10"/>
+    </row>
+    <row r="1300" spans="5:5">
+      <c r="E1300" s="10"/>
+    </row>
+    <row r="1301" spans="5:5">
+      <c r="E1301" s="10"/>
+    </row>
+    <row r="1302" spans="5:5">
+      <c r="E1302" s="10"/>
+    </row>
+    <row r="1303" spans="5:5">
+      <c r="E1303" s="10"/>
+    </row>
+    <row r="1304" spans="5:5">
+      <c r="E1304" s="10"/>
+    </row>
+    <row r="1305" spans="5:5">
+      <c r="E1305" s="10"/>
+    </row>
+    <row r="1306" spans="5:5">
+      <c r="E1306" s="10"/>
+    </row>
+    <row r="1307" spans="5:5">
+      <c r="E1307" s="10"/>
+    </row>
+    <row r="1308" spans="5:5">
+      <c r="E1308" s="10"/>
+    </row>
+    <row r="1309" spans="5:5">
+      <c r="E1309" s="10"/>
+    </row>
+    <row r="1310" spans="5:5">
+      <c r="E1310" s="10"/>
+    </row>
+    <row r="1311" spans="5:5">
+      <c r="E1311" s="10"/>
+    </row>
+    <row r="1312" spans="5:5">
+      <c r="E1312" s="10"/>
+    </row>
+    <row r="1313" spans="5:5">
+      <c r="E1313" s="10"/>
+    </row>
+    <row r="1314" spans="5:5">
+      <c r="E1314" s="10"/>
+    </row>
+    <row r="1315" spans="5:5">
+      <c r="E1315" s="10"/>
+    </row>
+    <row r="1316" spans="5:5">
+      <c r="E1316" s="10"/>
+    </row>
+    <row r="1317" spans="5:5">
+      <c r="E1317" s="10"/>
+    </row>
+    <row r="1318" spans="5:5">
+      <c r="E1318" s="10"/>
+    </row>
+    <row r="1319" spans="5:5">
+      <c r="E1319" s="10"/>
+    </row>
+    <row r="1320" spans="5:5">
+      <c r="E1320" s="10"/>
+    </row>
+    <row r="1321" spans="5:5">
+      <c r="E1321" s="10"/>
+    </row>
+    <row r="1322" spans="5:5">
+      <c r="E1322" s="10"/>
+    </row>
+    <row r="1323" spans="5:5">
+      <c r="E1323" s="10"/>
+    </row>
+    <row r="1324" spans="5:5">
+      <c r="E1324" s="10"/>
+    </row>
+    <row r="1325" spans="5:5">
+      <c r="E1325" s="10"/>
+    </row>
+    <row r="1326" spans="5:5">
+      <c r="E1326" s="10"/>
+    </row>
+    <row r="1327" spans="5:5">
+      <c r="E1327" s="10"/>
+    </row>
+    <row r="1328" spans="5:5">
+      <c r="E1328" s="10"/>
+    </row>
+    <row r="1329" spans="5:5">
+      <c r="E1329" s="10"/>
+    </row>
+    <row r="1330" spans="5:5">
+      <c r="E1330" s="10"/>
+    </row>
+    <row r="1331" spans="5:5">
+      <c r="E1331" s="10"/>
+    </row>
+    <row r="1332" spans="5:5">
+      <c r="E1332" s="10"/>
+    </row>
+    <row r="1333" spans="5:5">
+      <c r="E1333" s="10"/>
+    </row>
+    <row r="1334" spans="5:5">
+      <c r="E1334" s="10"/>
+    </row>
+    <row r="1335" spans="5:5">
+      <c r="E1335" s="10"/>
+    </row>
+    <row r="1336" spans="5:5">
+      <c r="E1336" s="10"/>
+    </row>
+    <row r="1337" spans="5:5">
+      <c r="E1337" s="10"/>
+    </row>
+    <row r="1338" spans="5:5">
+      <c r="E1338" s="10"/>
+    </row>
+    <row r="1339" spans="5:5">
+      <c r="E1339" s="10"/>
+    </row>
+    <row r="1340" spans="5:5">
+      <c r="E1340" s="10"/>
+    </row>
+    <row r="1341" spans="5:5">
+      <c r="E1341" s="10"/>
+    </row>
+    <row r="1342" spans="5:5">
+      <c r="E1342" s="10"/>
+    </row>
+    <row r="1343" spans="5:5">
+      <c r="E1343" s="10"/>
+    </row>
+    <row r="1344" spans="5:5">
+      <c r="E1344" s="10"/>
+    </row>
+    <row r="1345" spans="5:5">
+      <c r="E1345" s="10"/>
+    </row>
+    <row r="1346" spans="5:5">
+      <c r="E1346" s="10"/>
+    </row>
+    <row r="1347" spans="5:5">
+      <c r="E1347" s="10"/>
+    </row>
+    <row r="1348" spans="5:5">
+      <c r="E1348" s="10"/>
+    </row>
+    <row r="1349" spans="5:5">
+      <c r="E1349" s="10"/>
+    </row>
+    <row r="1350" spans="5:5">
+      <c r="E1350" s="10"/>
+    </row>
+    <row r="1351" spans="5:5">
+      <c r="E1351" s="10"/>
+    </row>
+    <row r="1352" spans="5:5">
+      <c r="E1352" s="10"/>
+    </row>
+    <row r="1353" spans="5:5">
+      <c r="E1353" s="10"/>
+    </row>
+    <row r="1354" spans="5:5">
+      <c r="E1354" s="10"/>
+    </row>
+    <row r="1355" spans="5:5">
+      <c r="E1355" s="10"/>
+    </row>
+    <row r="1356" spans="5:5">
+      <c r="E1356" s="10"/>
+    </row>
+    <row r="1357" spans="5:5">
+      <c r="E1357" s="10"/>
+    </row>
+    <row r="1358" spans="5:5">
+      <c r="E1358" s="10"/>
+    </row>
+    <row r="1359" spans="5:5">
+      <c r="E1359" s="10"/>
+    </row>
+    <row r="1360" spans="5:5">
+      <c r="E1360" s="10"/>
+    </row>
+    <row r="1361" spans="5:5">
+      <c r="E1361" s="10"/>
+    </row>
+    <row r="1362" spans="5:5">
+      <c r="E1362" s="10"/>
+    </row>
+    <row r="1363" spans="5:5">
+      <c r="E1363" s="10"/>
+    </row>
+    <row r="1364" spans="5:5">
+      <c r="E1364" s="10"/>
+    </row>
+    <row r="1365" spans="5:5">
+      <c r="E1365" s="10"/>
+    </row>
+    <row r="1366" spans="5:5">
+      <c r="E1366" s="10"/>
+    </row>
+    <row r="1367" spans="5:5">
+      <c r="E1367" s="10"/>
+    </row>
+    <row r="1368" spans="5:5">
+      <c r="E1368" s="10"/>
+    </row>
+    <row r="1369" spans="5:5">
+      <c r="E1369" s="10"/>
+    </row>
+    <row r="1370" spans="5:5">
+      <c r="E1370" s="10"/>
+    </row>
+    <row r="1371" spans="5:5">
+      <c r="E1371" s="10"/>
+    </row>
+    <row r="1372" spans="5:5">
+      <c r="E1372" s="10"/>
+    </row>
+    <row r="1373" spans="5:5">
+      <c r="E1373" s="10"/>
+    </row>
+    <row r="1374" spans="5:5">
+      <c r="E1374" s="10"/>
+    </row>
+    <row r="1375" spans="5:5">
+      <c r="E1375" s="10"/>
+    </row>
+    <row r="1376" spans="5:5">
+      <c r="E1376" s="10"/>
+    </row>
+    <row r="1377" spans="5:5">
+      <c r="E1377" s="10"/>
+    </row>
+    <row r="1378" spans="5:5">
+      <c r="E1378" s="10"/>
+    </row>
+    <row r="1379" spans="5:5">
+      <c r="E1379" s="10"/>
+    </row>
+    <row r="1380" spans="5:5">
+      <c r="E1380" s="10"/>
+    </row>
+    <row r="1381" spans="5:5">
+      <c r="E1381" s="10"/>
+    </row>
+    <row r="1382" spans="5:5">
+      <c r="E1382" s="10"/>
+    </row>
+    <row r="1383" spans="5:5">
+      <c r="E1383" s="10"/>
+    </row>
+    <row r="1384" spans="5:5">
+      <c r="E1384" s="10"/>
+    </row>
+    <row r="1385" spans="5:5">
+      <c r="E1385" s="10"/>
+    </row>
+    <row r="1386" spans="5:5">
+      <c r="E1386" s="10"/>
+    </row>
+    <row r="1387" spans="5:5">
+      <c r="E1387" s="10"/>
+    </row>
+    <row r="1388" spans="5:5">
+      <c r="E1388" s="10"/>
+    </row>
+    <row r="1389" spans="5:5">
+      <c r="E1389" s="10"/>
+    </row>
+    <row r="1390" spans="5:5">
+      <c r="E1390" s="10"/>
+    </row>
+    <row r="1391" spans="5:5">
+      <c r="E1391" s="10"/>
+    </row>
+    <row r="1392" spans="5:5">
+      <c r="E1392" s="10"/>
+    </row>
+    <row r="1393" spans="5:5">
+      <c r="E1393" s="10"/>
+    </row>
+    <row r="1394" spans="5:5">
+      <c r="E1394" s="10"/>
+    </row>
+    <row r="1395" spans="5:5">
+      <c r="E1395" s="10"/>
+    </row>
+    <row r="1396" spans="5:5">
+      <c r="E1396" s="10"/>
+    </row>
+    <row r="1397" spans="5:5">
+      <c r="E1397" s="10"/>
+    </row>
+    <row r="1398" spans="5:5">
+      <c r="E1398" s="10"/>
+    </row>
+    <row r="1399" spans="5:5">
+      <c r="E1399" s="10"/>
+    </row>
+    <row r="1400" spans="5:5">
+      <c r="E1400" s="10"/>
+    </row>
+    <row r="1401" spans="5:5">
+      <c r="E1401" s="10"/>
+    </row>
+    <row r="1402" spans="5:5">
+      <c r="E1402" s="10"/>
+    </row>
+    <row r="1403" spans="5:5">
+      <c r="E1403" s="10"/>
+    </row>
+    <row r="1404" spans="5:5">
+      <c r="E1404" s="10"/>
+    </row>
+    <row r="1405" spans="5:5">
+      <c r="E1405" s="10"/>
+    </row>
+    <row r="1406" spans="5:5">
+      <c r="E1406" s="10"/>
+    </row>
+    <row r="1407" spans="5:5">
+      <c r="E1407" s="10"/>
+    </row>
+    <row r="1408" spans="5:5">
+      <c r="E1408" s="10"/>
+    </row>
+    <row r="1409" spans="5:5">
+      <c r="E1409" s="10"/>
+    </row>
+    <row r="1410" spans="5:5">
+      <c r="E1410" s="10"/>
+    </row>
+    <row r="1411" spans="5:5">
+      <c r="E1411" s="10"/>
+    </row>
+    <row r="1412" spans="5:5">
+      <c r="E1412" s="10"/>
+    </row>
+    <row r="1413" spans="5:5">
+      <c r="E1413" s="10"/>
+    </row>
+    <row r="1414" spans="5:5">
+      <c r="E1414" s="10"/>
+    </row>
+    <row r="1415" spans="5:5">
+      <c r="E1415" s="10"/>
+    </row>
+    <row r="1416" spans="5:5">
+      <c r="E1416" s="10"/>
+    </row>
+    <row r="1417" spans="5:5">
+      <c r="E1417" s="10"/>
+    </row>
+    <row r="1418" spans="5:5">
+      <c r="E1418" s="10"/>
+    </row>
+    <row r="1419" spans="5:5">
+      <c r="E1419" s="10"/>
+    </row>
+    <row r="1420" spans="5:5">
+      <c r="E1420" s="10"/>
+    </row>
+    <row r="1421" spans="5:5">
+      <c r="E1421" s="10"/>
+    </row>
+    <row r="1422" spans="5:5">
+      <c r="E1422" s="10"/>
+    </row>
+    <row r="1423" spans="5:5">
+      <c r="E1423" s="10"/>
+    </row>
+    <row r="1424" spans="5:5">
+      <c r="E1424" s="10"/>
+    </row>
+    <row r="1425" spans="5:5">
+      <c r="E1425" s="10"/>
+    </row>
+    <row r="1426" spans="5:5">
+      <c r="E1426" s="10"/>
+    </row>
+    <row r="1427" spans="5:5">
+      <c r="E1427" s="10"/>
+    </row>
+    <row r="1428" spans="5:5">
+      <c r="E1428" s="10"/>
+    </row>
+    <row r="1429" spans="5:5">
+      <c r="E1429" s="10"/>
+    </row>
+    <row r="1430" spans="5:5">
+      <c r="E1430" s="10"/>
+    </row>
+    <row r="1431" spans="5:5">
+      <c r="E1431" s="10"/>
+    </row>
+    <row r="1432" spans="5:5">
+      <c r="E1432" s="10"/>
+    </row>
+    <row r="1433" spans="5:5">
+      <c r="E1433" s="10"/>
+    </row>
+    <row r="1434" spans="5:5">
+      <c r="E1434" s="10"/>
+    </row>
+    <row r="1435" spans="5:5">
+      <c r="E1435" s="10"/>
+    </row>
+    <row r="1436" spans="5:5">
+      <c r="E1436" s="10"/>
+    </row>
+    <row r="1437" spans="5:5">
+      <c r="E1437" s="10"/>
+    </row>
+    <row r="1438" spans="5:5">
+      <c r="E1438" s="10"/>
+    </row>
+    <row r="1439" spans="5:5">
+      <c r="E1439" s="10"/>
+    </row>
+    <row r="1440" spans="5:5">
+      <c r="E1440" s="10"/>
+    </row>
+    <row r="1441" spans="5:5">
+      <c r="E1441" s="10"/>
+    </row>
+    <row r="1442" spans="5:5">
+      <c r="E1442" s="10"/>
+    </row>
+    <row r="1443" spans="5:5">
+      <c r="E1443" s="10"/>
+    </row>
+    <row r="1444" spans="5:5">
+      <c r="E1444" s="10"/>
+    </row>
+    <row r="1445" spans="5:5">
+      <c r="E1445" s="10"/>
+    </row>
+    <row r="1446" spans="5:5">
+      <c r="E1446" s="10"/>
+    </row>
+    <row r="1447" spans="5:5">
+      <c r="E1447" s="10"/>
+    </row>
+    <row r="1448" spans="5:5">
+      <c r="E1448" s="10"/>
+    </row>
+    <row r="1449" spans="5:5">
+      <c r="E1449" s="10"/>
+    </row>
+    <row r="1450" spans="5:5">
+      <c r="E1450" s="10"/>
+    </row>
+    <row r="1451" spans="5:5">
+      <c r="E1451" s="10"/>
+    </row>
+    <row r="1452" spans="5:5">
+      <c r="E1452" s="10"/>
+    </row>
+    <row r="1453" spans="5:5">
+      <c r="E1453" s="10"/>
+    </row>
+    <row r="1454" spans="5:5">
+      <c r="E1454" s="10"/>
+    </row>
+    <row r="1455" spans="5:5">
+      <c r="E1455" s="10"/>
+    </row>
+    <row r="1456" spans="5:5">
+      <c r="E1456" s="10"/>
+    </row>
+    <row r="1457" spans="5:5">
+      <c r="E1457" s="10"/>
+    </row>
+    <row r="1458" spans="5:5">
+      <c r="E1458" s="10"/>
+    </row>
+    <row r="1459" spans="5:5">
+      <c r="E1459" s="10"/>
+    </row>
+    <row r="1460" spans="5:5">
+      <c r="E1460" s="10"/>
+    </row>
+    <row r="1461" spans="5:5">
+      <c r="E1461" s="10"/>
+    </row>
+    <row r="1462" spans="5:5">
+      <c r="E1462" s="10"/>
+    </row>
+    <row r="1463" spans="5:5">
+      <c r="E1463" s="10"/>
+    </row>
+    <row r="1464" spans="5:5">
+      <c r="E1464" s="10"/>
+    </row>
+    <row r="1465" spans="5:5">
+      <c r="E1465" s="10"/>
+    </row>
+    <row r="1466" spans="5:5">
+      <c r="E1466" s="10"/>
+    </row>
+    <row r="1467" spans="5:5">
+      <c r="E1467" s="10"/>
+    </row>
+    <row r="1468" spans="5:5">
+      <c r="E1468" s="10"/>
+    </row>
+    <row r="1469" spans="5:5">
+      <c r="E1469" s="10"/>
+    </row>
+    <row r="1470" spans="5:5">
+      <c r="E1470" s="10"/>
+    </row>
+    <row r="1471" spans="5:5">
+      <c r="E1471" s="10"/>
+    </row>
+    <row r="1472" spans="5:5">
+      <c r="E1472" s="10"/>
+    </row>
+    <row r="1473" spans="5:5">
+      <c r="E1473" s="10"/>
+    </row>
+    <row r="1474" spans="5:5">
+      <c r="E1474" s="10"/>
+    </row>
+    <row r="1475" spans="5:5">
+      <c r="E1475" s="10"/>
+    </row>
+    <row r="1476" spans="5:5">
+      <c r="E1476" s="10"/>
+    </row>
+    <row r="1477" spans="5:5">
+      <c r="E1477" s="10"/>
+    </row>
+    <row r="1478" spans="5:5">
+      <c r="E1478" s="10"/>
+    </row>
+    <row r="1479" spans="5:5">
+      <c r="E1479" s="10"/>
+    </row>
+    <row r="1480" spans="5:5">
+      <c r="E1480" s="10"/>
+    </row>
+    <row r="1481" spans="5:5">
+      <c r="E1481" s="10"/>
+    </row>
+    <row r="1482" spans="5:5">
+      <c r="E1482" s="10"/>
+    </row>
+    <row r="1483" spans="5:5">
+      <c r="E1483" s="10"/>
+    </row>
+    <row r="1484" spans="5:5">
+      <c r="E1484" s="10"/>
+    </row>
+    <row r="1485" spans="5:5">
+      <c r="E1485" s="10"/>
+    </row>
+    <row r="1486" spans="5:5">
+      <c r="E1486" s="10"/>
+    </row>
+    <row r="1487" spans="5:5">
+      <c r="E1487" s="10"/>
+    </row>
+    <row r="1488" spans="5:5">
+      <c r="E1488" s="10"/>
+    </row>
+    <row r="1489" spans="5:5">
+      <c r="E1489" s="10"/>
+    </row>
+    <row r="1490" spans="5:5">
+      <c r="E1490" s="10"/>
+    </row>
+    <row r="1491" spans="5:5">
+      <c r="E1491" s="10"/>
+    </row>
+    <row r="1492" spans="5:5">
+      <c r="E1492" s="10"/>
+    </row>
+    <row r="1493" spans="5:5">
+      <c r="E1493" s="10"/>
+    </row>
+    <row r="1494" spans="5:5">
+      <c r="E1494" s="10"/>
+    </row>
+    <row r="1495" spans="5:5">
+      <c r="E1495" s="10"/>
+    </row>
+    <row r="1496" spans="5:5">
+      <c r="E1496" s="10"/>
+    </row>
+    <row r="1497" spans="5:5">
+      <c r="E1497" s="10"/>
+    </row>
+    <row r="1498" spans="5:5">
+      <c r="E1498" s="10"/>
+    </row>
+    <row r="1499" spans="5:5">
+      <c r="E1499" s="10"/>
+    </row>
+    <row r="1500" spans="5:5">
+      <c r="E1500" s="10"/>
+    </row>
+    <row r="1501" spans="5:5">
+      <c r="E1501" s="10"/>
+    </row>
+    <row r="1502" spans="5:5">
+      <c r="E1502" s="10"/>
+    </row>
+    <row r="1503" spans="5:5">
+      <c r="E1503" s="10"/>
+    </row>
+    <row r="1504" spans="5:5">
+      <c r="E1504" s="10"/>
+    </row>
+    <row r="1505" spans="5:5">
+      <c r="E1505" s="10"/>
+    </row>
+    <row r="1506" spans="5:5">
+      <c r="E1506" s="10"/>
+    </row>
+    <row r="1507" spans="5:5">
+      <c r="E1507" s="10"/>
+    </row>
+    <row r="1508" spans="5:5">
+      <c r="E1508" s="10"/>
+    </row>
+    <row r="1509" spans="5:5">
+      <c r="E1509" s="10"/>
+    </row>
+    <row r="1510" spans="5:5">
+      <c r="E1510" s="10"/>
+    </row>
+    <row r="1511" spans="5:5">
+      <c r="E1511" s="10"/>
+    </row>
+    <row r="1512" spans="5:5">
+      <c r="E1512" s="10"/>
+    </row>
+    <row r="1513" spans="5:5">
+      <c r="E1513" s="10"/>
+    </row>
+    <row r="1514" spans="5:5">
+      <c r="E1514" s="10"/>
+    </row>
+    <row r="1515" spans="5:5">
+      <c r="E1515" s="10"/>
+    </row>
+    <row r="1516" spans="5:5">
+      <c r="E1516" s="10"/>
+    </row>
+    <row r="1517" spans="5:5">
+      <c r="E1517" s="10"/>
+    </row>
+    <row r="1518" spans="5:5">
+      <c r="E1518" s="10"/>
+    </row>
+    <row r="1519" spans="5:5">
+      <c r="E1519" s="10"/>
+    </row>
+    <row r="1520" spans="5:5">
+      <c r="E1520" s="10"/>
+    </row>
+    <row r="1521" spans="5:5">
+      <c r="E1521" s="10"/>
+    </row>
+    <row r="1522" spans="5:5">
+      <c r="E1522" s="10"/>
+    </row>
+    <row r="1523" spans="5:5">
+      <c r="E1523" s="10"/>
+    </row>
+    <row r="1524" spans="5:5">
+      <c r="E1524" s="10"/>
+    </row>
+    <row r="1525" spans="5:5">
+      <c r="E1525" s="10"/>
+    </row>
+    <row r="1526" spans="5:5">
+      <c r="E1526" s="10"/>
+    </row>
+    <row r="1527" spans="5:5">
+      <c r="E1527" s="10"/>
+    </row>
+    <row r="1528" spans="5:5">
+      <c r="E1528" s="10"/>
+    </row>
+    <row r="1529" spans="5:5">
+      <c r="E1529" s="10"/>
+    </row>
+    <row r="1530" spans="5:5">
+      <c r="E1530" s="10"/>
+    </row>
+    <row r="1531" spans="5:5">
+      <c r="E1531" s="10"/>
+    </row>
+    <row r="1532" spans="5:5">
+      <c r="E1532" s="10"/>
+    </row>
+    <row r="1533" spans="5:5">
+      <c r="E1533" s="10"/>
+    </row>
+    <row r="1534" spans="5:5">
+      <c r="E1534" s="10"/>
+    </row>
+    <row r="1535" spans="5:5">
+      <c r="E1535" s="10"/>
+    </row>
+    <row r="1536" spans="5:5">
+      <c r="E1536" s="10"/>
+    </row>
+    <row r="1537" spans="5:5">
+      <c r="E1537" s="10"/>
+    </row>
+    <row r="1538" spans="5:5">
+      <c r="E1538" s="10"/>
+    </row>
+    <row r="1539" spans="5:5">
+      <c r="E1539" s="10"/>
+    </row>
+    <row r="1540" spans="5:5">
+      <c r="E1540" s="10"/>
+    </row>
+    <row r="1541" spans="5:5">
+      <c r="E1541" s="10"/>
+    </row>
+    <row r="1542" spans="5:5">
+      <c r="E1542" s="10"/>
+    </row>
+    <row r="1543" spans="5:5">
+      <c r="E1543" s="10"/>
+    </row>
+    <row r="1544" spans="5:5">
+      <c r="E1544" s="10"/>
+    </row>
+    <row r="1545" spans="5:5">
+      <c r="E1545" s="10"/>
+    </row>
+    <row r="1546" spans="5:5">
+      <c r="E1546" s="10"/>
+    </row>
+    <row r="1547" spans="5:5">
+      <c r="E1547" s="10"/>
+    </row>
+    <row r="1548" spans="5:5">
+      <c r="E1548" s="10"/>
+    </row>
+    <row r="1549" spans="5:5">
+      <c r="E1549" s="10"/>
+    </row>
+    <row r="1550" spans="5:5">
+      <c r="E1550" s="10"/>
+    </row>
+    <row r="1551" spans="5:5">
+      <c r="E1551" s="10"/>
+    </row>
+    <row r="1552" spans="5:5">
+      <c r="E1552" s="10"/>
+    </row>
+    <row r="1553" spans="5:5">
+      <c r="E1553" s="10"/>
+    </row>
+    <row r="1554" spans="5:5">
+      <c r="E1554" s="10"/>
+    </row>
+    <row r="1555" spans="5:5">
+      <c r="E1555" s="10"/>
+    </row>
+    <row r="1556" spans="5:5">
+      <c r="E1556" s="10"/>
+    </row>
+    <row r="1557" spans="5:5">
+      <c r="E1557" s="10"/>
+    </row>
+    <row r="1558" spans="5:5">
+      <c r="E1558" s="10"/>
+    </row>
+    <row r="1559" spans="5:5">
+      <c r="E1559" s="10"/>
+    </row>
+    <row r="1560" spans="5:5">
+      <c r="E1560" s="10"/>
+    </row>
+    <row r="1561" spans="5:5">
+      <c r="E1561" s="10"/>
+    </row>
+    <row r="1562" spans="5:5">
+      <c r="E1562" s="10"/>
+    </row>
+    <row r="1563" spans="5:5">
+      <c r="E1563" s="10"/>
+    </row>
+    <row r="1564" spans="5:5">
+      <c r="E1564" s="10"/>
+    </row>
+    <row r="1565" spans="5:5">
+      <c r="E1565" s="10"/>
+    </row>
+    <row r="1566" spans="5:5">
+      <c r="E1566" s="10"/>
+    </row>
+    <row r="1567" spans="5:5">
+      <c r="E1567" s="10"/>
+    </row>
+    <row r="1568" spans="5:5">
+      <c r="E1568" s="10"/>
+    </row>
+    <row r="1569" spans="5:5">
+      <c r="E1569" s="10"/>
+    </row>
+    <row r="1570" spans="5:5">
+      <c r="E1570" s="10"/>
+    </row>
+    <row r="1571" spans="5:5">
+      <c r="E1571" s="10"/>
+    </row>
+    <row r="1572" spans="5:5">
+      <c r="E1572" s="10"/>
+    </row>
+    <row r="1573" spans="5:5">
+      <c r="E1573" s="10"/>
+    </row>
+    <row r="1574" spans="5:5">
+      <c r="E1574" s="10"/>
+    </row>
+    <row r="1575" spans="5:5">
+      <c r="E1575" s="10"/>
+    </row>
+    <row r="1576" spans="5:5">
+      <c r="E1576" s="10"/>
+    </row>
+    <row r="1577" spans="5:5">
+      <c r="E1577" s="10"/>
+    </row>
+    <row r="1578" spans="5:5">
+      <c r="E1578" s="10"/>
+    </row>
+    <row r="1579" spans="5:5">
+      <c r="E1579" s="10"/>
+    </row>
+    <row r="1580" spans="5:5">
+      <c r="E1580" s="10"/>
+    </row>
+    <row r="1581" spans="5:5">
+      <c r="E1581" s="10"/>
+    </row>
+    <row r="1582" spans="5:5">
+      <c r="E1582" s="10"/>
+    </row>
+    <row r="1583" spans="5:5">
+      <c r="E1583" s="10"/>
+    </row>
+    <row r="1584" spans="5:5">
+      <c r="E1584" s="10"/>
+    </row>
+    <row r="1585" spans="5:5">
+      <c r="E1585" s="10"/>
+    </row>
+    <row r="1586" spans="5:5">
+      <c r="E1586" s="10"/>
+    </row>
+    <row r="1587" spans="5:5">
+      <c r="E1587" s="10"/>
+    </row>
+    <row r="1588" spans="5:5">
+      <c r="E1588" s="10"/>
+    </row>
+    <row r="1589" spans="5:5">
+      <c r="E1589" s="10"/>
+    </row>
+    <row r="1590" spans="5:5">
+      <c r="E1590" s="10"/>
+    </row>
+    <row r="1591" spans="5:5">
+      <c r="E1591" s="10"/>
+    </row>
+    <row r="1592" spans="5:5">
+      <c r="E1592" s="10"/>
+    </row>
+    <row r="1593" spans="5:5">
+      <c r="E1593" s="10"/>
+    </row>
+    <row r="1594" spans="5:5">
+      <c r="E1594" s="10"/>
+    </row>
+    <row r="1595" spans="5:5">
+      <c r="E1595" s="10"/>
+    </row>
+    <row r="1596" spans="5:5">
+      <c r="E1596" s="10"/>
+    </row>
+    <row r="1597" spans="5:5">
+      <c r="E1597" s="10"/>
+    </row>
+    <row r="1598" spans="5:5">
+      <c r="E1598" s="10"/>
+    </row>
+    <row r="1599" spans="5:5">
+      <c r="E1599" s="10"/>
+    </row>
+    <row r="1600" spans="5:5">
+      <c r="E1600" s="10"/>
+    </row>
+    <row r="1601" spans="5:5">
+      <c r="E1601" s="10"/>
+    </row>
+    <row r="1602" spans="5:5">
+      <c r="E1602" s="10"/>
+    </row>
+    <row r="1603" spans="5:5">
+      <c r="E1603" s="10"/>
+    </row>
+    <row r="1604" spans="5:5">
+      <c r="E1604" s="10"/>
+    </row>
+    <row r="1605" spans="5:5">
+      <c r="E1605" s="10"/>
+    </row>
+    <row r="1606" spans="5:5">
+      <c r="E1606" s="10"/>
+    </row>
+    <row r="1607" spans="5:5">
+      <c r="E1607" s="10"/>
+    </row>
+    <row r="1608" spans="5:5">
+      <c r="E1608" s="10"/>
+    </row>
+    <row r="1609" spans="5:5">
+      <c r="E1609" s="10"/>
+    </row>
+    <row r="1610" spans="5:5">
+      <c r="E1610" s="10"/>
+    </row>
+    <row r="1611" spans="5:5">
+      <c r="E1611" s="10"/>
+    </row>
+    <row r="1612" spans="5:5">
+      <c r="E1612" s="10"/>
+    </row>
+    <row r="1613" spans="5:5">
+      <c r="E1613" s="10"/>
+    </row>
+    <row r="1614" spans="5:5">
+      <c r="E1614" s="10"/>
+    </row>
+    <row r="1615" spans="5:5">
+      <c r="E1615" s="10"/>
+    </row>
+    <row r="1616" spans="5:5">
+      <c r="E1616" s="10"/>
+    </row>
+    <row r="1617" spans="5:5">
+      <c r="E1617" s="10"/>
+    </row>
+    <row r="1618" spans="5:5">
+      <c r="E1618" s="10"/>
+    </row>
+    <row r="1619" spans="5:5">
+      <c r="E1619" s="10"/>
+    </row>
+    <row r="1620" spans="5:5">
+      <c r="E1620" s="10"/>
+    </row>
+    <row r="1621" spans="5:5">
+      <c r="E1621" s="10"/>
+    </row>
+    <row r="1622" spans="5:5">
+      <c r="E1622" s="10"/>
+    </row>
+    <row r="1623" spans="5:5">
+      <c r="E1623" s="10"/>
+    </row>
+    <row r="1624" spans="5:5">
+      <c r="E1624" s="10"/>
+    </row>
+    <row r="1625" spans="5:5">
+      <c r="E1625" s="10"/>
+    </row>
+    <row r="1626" spans="5:5">
+      <c r="E1626" s="10"/>
+    </row>
+    <row r="1627" spans="5:5">
+      <c r="E1627" s="10"/>
+    </row>
+    <row r="1628" spans="5:5">
+      <c r="E1628" s="10"/>
+    </row>
+    <row r="1629" spans="5:5">
+      <c r="E1629" s="10"/>
+    </row>
+    <row r="1630" spans="5:5">
+      <c r="E1630" s="10"/>
+    </row>
+    <row r="1631" spans="5:5">
+      <c r="E1631" s="10"/>
+    </row>
+    <row r="1632" spans="5:5">
+      <c r="E1632" s="10"/>
+    </row>
+    <row r="1633" spans="5:5">
+      <c r="E1633" s="10"/>
+    </row>
+    <row r="1634" spans="5:5">
+      <c r="E1634" s="10"/>
+    </row>
+    <row r="1635" spans="5:5">
+      <c r="E1635" s="10"/>
+    </row>
+    <row r="1636" spans="5:5">
+      <c r="E1636" s="10"/>
+    </row>
+    <row r="1637" spans="5:5">
+      <c r="E1637" s="10"/>
+    </row>
+    <row r="1638" spans="5:5">
+      <c r="E1638" s="10"/>
+    </row>
+    <row r="1639" spans="5:5">
+      <c r="E1639" s="10"/>
+    </row>
+    <row r="1640" spans="5:5">
+      <c r="E1640" s="10"/>
+    </row>
+    <row r="1641" spans="5:5">
+      <c r="E1641" s="10"/>
+    </row>
+    <row r="1642" spans="5:5">
+      <c r="E1642" s="10"/>
+    </row>
+    <row r="1643" spans="5:5">
+      <c r="E1643" s="10"/>
+    </row>
+    <row r="1644" spans="5:5">
+      <c r="E1644" s="10"/>
+    </row>
+    <row r="1645" spans="5:5">
+      <c r="E1645" s="10"/>
+    </row>
+    <row r="1646" spans="5:5">
+      <c r="E1646" s="10"/>
+    </row>
+    <row r="1647" spans="5:5">
+      <c r="E1647" s="10"/>
+    </row>
+    <row r="1648" spans="5:5">
+      <c r="E1648" s="10"/>
+    </row>
+    <row r="1649" spans="5:5">
+      <c r="E1649" s="10"/>
+    </row>
+    <row r="1650" spans="5:5">
+      <c r="E1650" s="10"/>
+    </row>
+    <row r="1651" spans="5:5">
+      <c r="E1651" s="10"/>
+    </row>
+    <row r="1652" spans="5:5">
+      <c r="E1652" s="10"/>
+    </row>
+    <row r="1653" spans="5:5">
+      <c r="E1653" s="10"/>
+    </row>
+    <row r="1654" spans="5:5">
+      <c r="E1654" s="10"/>
+    </row>
+    <row r="1655" spans="5:5">
+      <c r="E1655" s="10"/>
+    </row>
+    <row r="1656" spans="5:5">
+      <c r="E1656" s="10"/>
+    </row>
+    <row r="1657" spans="5:5">
+      <c r="E1657" s="10"/>
+    </row>
+    <row r="1658" spans="5:5">
+      <c r="E1658" s="10"/>
+    </row>
+    <row r="1659" spans="5:5">
+      <c r="E1659" s="10"/>
+    </row>
+    <row r="1660" spans="5:5">
+      <c r="E1660" s="10"/>
+    </row>
+    <row r="1661" spans="5:5">
+      <c r="E1661" s="10"/>
+    </row>
+    <row r="1662" spans="5:5">
+      <c r="E1662" s="10"/>
+    </row>
+    <row r="1663" spans="5:5">
+      <c r="E1663" s="10"/>
+    </row>
+    <row r="1664" spans="5:5">
+      <c r="E1664" s="10"/>
+    </row>
+    <row r="1665" spans="5:5">
+      <c r="E1665" s="10"/>
+    </row>
+    <row r="1666" spans="5:5">
+      <c r="E1666" s="10"/>
+    </row>
+    <row r="1667" spans="5:5">
+      <c r="E1667" s="10"/>
+    </row>
+    <row r="1668" spans="5:5">
+      <c r="E1668" s="10"/>
+    </row>
+    <row r="1669" spans="5:5">
+      <c r="E1669" s="10"/>
+    </row>
+    <row r="1670" spans="5:5">
+      <c r="E1670" s="10"/>
+    </row>
+    <row r="1671" spans="5:5">
+      <c r="E1671" s="10"/>
+    </row>
+    <row r="1672" spans="5:5">
+      <c r="E1672" s="10"/>
+    </row>
+    <row r="1673" spans="5:5">
+      <c r="E1673" s="10"/>
+    </row>
+    <row r="1674" spans="5:5">
+      <c r="E1674" s="10"/>
+    </row>
+    <row r="1675" spans="5:5">
+      <c r="E1675" s="10"/>
+    </row>
+    <row r="1676" spans="5:5">
+      <c r="E1676" s="10"/>
+    </row>
+    <row r="1677" spans="5:5">
+      <c r="E1677" s="10"/>
+    </row>
+    <row r="1678" spans="5:5">
+      <c r="E1678" s="10"/>
+    </row>
+    <row r="1679" spans="5:5">
+      <c r="E1679" s="10"/>
+    </row>
+    <row r="1680" spans="5:5">
+      <c r="E1680" s="10"/>
+    </row>
+    <row r="1681" spans="5:5">
+      <c r="E1681" s="10"/>
+    </row>
+    <row r="1682" spans="5:5">
+      <c r="E1682" s="10"/>
+    </row>
+    <row r="1683" spans="5:5">
+      <c r="E1683" s="10"/>
+    </row>
+    <row r="1684" spans="5:5">
+      <c r="E1684" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/assets/Check_report_template.xlsx
+++ b/assets/Check_report_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrab Ali\Documents\GitHub\arceddataflow\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD13F3C-68AD-44A2-8242-32B902A49343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3B1620-E42D-44CF-9EF2-57AAD20B9690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,6 +835,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,9 +889,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -883,29 +901,11 @@
     <xf numFmtId="2" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5040,23 +5040,23 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="92" t="s">
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="11"/>
-      <c r="N2" s="92" t="s">
+      <c r="N2" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
       <c r="Q2" s="70"/>
       <c r="R2" s="72"/>
       <c r="S2" s="12"/>
@@ -5073,13 +5073,13 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="81">
+      <c r="F3" s="88">
         <f>COUNT('C1. Progress'!A3:A1000)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
       <c r="J3" s="15" t="s">
         <v>9</v>
       </c>
@@ -5090,12 +5090,12 @@
         <v>11</v>
       </c>
       <c r="M3" s="13"/>
-      <c r="N3" s="97" t="e">
+      <c r="N3" s="87" t="e">
         <f>F8/F3/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="72"/>
       <c r="S3" s="12"/>
@@ -5114,10 +5114,10 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
       <c r="J4" s="23">
         <v>1</v>
       </c>
@@ -5130,9 +5130,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="M4" s="13"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
       <c r="Q4" s="69"/>
       <c r="R4" s="72"/>
       <c r="S4" s="12"/>
@@ -5145,10 +5145,10 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="83"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
       <c r="J5" s="23">
         <v>2</v>
       </c>
@@ -5192,18 +5192,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="M6" s="13"/>
-      <c r="N6" s="92" t="s">
+      <c r="N6" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
       <c r="Q6" s="77"/>
       <c r="R6" s="74"/>
-      <c r="S6" s="99" t="s">
+      <c r="S6" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="99"/>
-      <c r="U6" s="100"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="86"/>
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1">
       <c r="A7" s="12"/>
@@ -5211,12 +5211,12 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="98"/>
       <c r="J7" s="23">
         <v>4</v>
       </c>
@@ -5229,12 +5229,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="M7" s="13"/>
-      <c r="N7" s="98">
+      <c r="N7" s="83">
         <f>COUNT('C4. FormVersion'!G5:G)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
       <c r="Q7" s="78"/>
       <c r="R7" s="74"/>
       <c r="S7" s="12"/>
@@ -5247,13 +5247,13 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="81">
+      <c r="F8" s="88">
         <f>SUM('C1. Progress'!B1:B998)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="90"/>
       <c r="J8" s="24">
         <v>5</v>
       </c>
@@ -5266,9 +5266,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="M8" s="13"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
       <c r="Q8" s="78"/>
       <c r="R8" s="73"/>
       <c r="S8" s="73"/>
@@ -5281,22 +5281,22 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="92" t="str">
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="84" t="str">
         <f>UPPER("Duplicate submissions")</f>
         <v>DUPLICATE SUBMISSIONS</v>
       </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="92" t="s">
+      <c r="N9" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
       <c r="Q9" s="70"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
@@ -5309,23 +5309,23 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="87" t="str" cm="1">
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="94" t="str" cm="1">
         <f t="array" ref="J10">IF(COUNT('C3. Duplicates'!A5:A1000)&gt;0,"Total "&amp;COUNT('C3. Duplicates'!A5:A1000)&amp;" issues with "&amp;SUM(IF('C3. Duplicates'!A5:'C3. Duplicates'!A1000&lt;&gt;"",1/COUNTIF('C3. Duplicates'!A5:'C3. Duplicates'!A1000,'C3. Duplicates'!A5:'C3. Duplicates'!A1000),0))&amp;" IDs", "No duplicates")</f>
         <v>No duplicates</v>
       </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="98">
+      <c r="N10" s="83">
         <f>COUNT('C6. DateCheck'!B5:B)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
       <c r="Q10" s="71"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
@@ -5338,19 +5338,19 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
       <c r="Q11" s="71"/>
       <c r="R11" s="79"/>
       <c r="S11" s="12"/>
@@ -5363,25 +5363,25 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="81">
+      <c r="F12" s="88">
         <f>COUNTA('C2. Productivity'!A4:A1000)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="92" t="str">
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="84" t="str">
         <f>UPPER("Average duration (min)")</f>
         <v>AVERAGE DURATION (MIN)</v>
       </c>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="92" t="s">
+      <c r="N12" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
       <c r="Q12" s="70"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
@@ -5394,20 +5394,20 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="98">
+      <c r="N13" s="83">
         <f>COUNT('C7. Outliers'!B5:B)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
       <c r="Q13" s="71"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
@@ -5420,17 +5420,17 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
       <c r="Q14" s="71"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
@@ -5853,15 +5853,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="N10:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P14"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P8"/>
-    <mergeCell ref="N9:P9"/>
     <mergeCell ref="F12:I14"/>
     <mergeCell ref="J10:L11"/>
     <mergeCell ref="F3:I5"/>
@@ -5873,6 +5864,15 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L14"/>
+    <mergeCell ref="N10:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P14"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P8"/>
+    <mergeCell ref="N9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="42" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5885,28 +5885,28 @@
   <dimension ref="A1:F1684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="99.28515625" style="104" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="99.28515625" style="82" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="48" t="s">
@@ -5924,7 +5924,7 @@
       <c r="E4" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="81" t="s">
         <v>69</v>
       </c>
     </row>
@@ -11089,17 +11089,17 @@
         <f ca="1">(R2+S2+T2)*0.3</f>
         <v>#REF!</v>
       </c>
-      <c r="Z2" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L2), "")</f>
-        <v>4</v>
-      </c>
-      <c r="AA2" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L2), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L2), "")</f>
-        <v>0</v>
+      <c r="Z2" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L2), "")</f>
+        <v/>
+      </c>
+      <c r="AA2" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L2), "")</f>
+        <v/>
+      </c>
+      <c r="AB2" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L2), "")</f>
+        <v/>
       </c>
       <c r="AC2" s="64" t="e">
         <f ca="1">(V2*50)+(X2*0.5)-Y2-Z2-AA2-AB2</f>
@@ -11127,20 +11127,20 @@
         <f t="shared" ref="Y3:Y41" si="3">(R3+S3+T3)*0.3</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L3), "")</f>
-        <v>1</v>
-      </c>
-      <c r="AA3" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L3), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L3), "")</f>
-        <v>0</v>
+      <c r="Z3" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L3), "")</f>
+        <v/>
+      </c>
+      <c r="AA3" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L3), "")</f>
+        <v/>
+      </c>
+      <c r="AB3" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L3), "")</f>
+        <v/>
       </c>
       <c r="AC3" s="64" t="e">
-        <f t="shared" ref="AC3:AC66" ca="1" si="4">(V3*50)+(X3*0.5)-Y3-Z3-AA3-AB3</f>
+        <f t="shared" ref="AC3:AC66" si="4">(V3*50)+(X3*0.5)-Y3-Z3-AA3-AB3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD3" s="65" t="e">
@@ -11165,20 +11165,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L4), "")</f>
-        <v>7</v>
-      </c>
-      <c r="AA4" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L4), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L4), "")</f>
-        <v>0</v>
+      <c r="Z4" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L4), "")</f>
+        <v/>
+      </c>
+      <c r="AA4" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L4), "")</f>
+        <v/>
+      </c>
+      <c r="AB4" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L4), "")</f>
+        <v/>
       </c>
       <c r="AC4" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD4" s="65" t="e">
@@ -11203,20 +11203,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L5), "")</f>
-        <v>2</v>
-      </c>
-      <c r="AA5" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L5), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L5), "")</f>
-        <v>0</v>
+      <c r="Z5" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L5), "")</f>
+        <v/>
+      </c>
+      <c r="AA5" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L5), "")</f>
+        <v/>
+      </c>
+      <c r="AB5" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L5), "")</f>
+        <v/>
       </c>
       <c r="AC5" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD5" s="65" t="e">
@@ -11241,20 +11241,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L6), "")</f>
-        <v>3</v>
-      </c>
-      <c r="AA6" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L6), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L6), "")</f>
-        <v>0</v>
+      <c r="Z6" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L6), "")</f>
+        <v/>
+      </c>
+      <c r="AA6" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L6), "")</f>
+        <v/>
+      </c>
+      <c r="AB6" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L6), "")</f>
+        <v/>
       </c>
       <c r="AC6" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD6" s="65" t="e">
@@ -11279,20 +11279,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L7), "")</f>
-        <v>4</v>
-      </c>
-      <c r="AA7" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L7), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L7), "")</f>
-        <v>0</v>
+      <c r="Z7" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L7), "")</f>
+        <v/>
+      </c>
+      <c r="AA7" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L7), "")</f>
+        <v/>
+      </c>
+      <c r="AB7" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L7), "")</f>
+        <v/>
       </c>
       <c r="AC7" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD7" s="65" t="e">
@@ -11317,20 +11317,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L8), "")</f>
-        <v>10</v>
-      </c>
-      <c r="AA8" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L8), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L8), "")</f>
-        <v>0</v>
+      <c r="Z8" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L8), "")</f>
+        <v/>
+      </c>
+      <c r="AA8" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L8), "")</f>
+        <v/>
+      </c>
+      <c r="AB8" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L8), "")</f>
+        <v/>
       </c>
       <c r="AC8" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD8" s="65" t="e">
@@ -11355,20 +11355,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L9), "")</f>
-        <v>1</v>
-      </c>
-      <c r="AA9" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L9), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L9), "")</f>
-        <v>0</v>
+      <c r="Z9" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L9), "")</f>
+        <v/>
+      </c>
+      <c r="AA9" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L9), "")</f>
+        <v/>
+      </c>
+      <c r="AB9" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L9), "")</f>
+        <v/>
       </c>
       <c r="AC9" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD9" s="65" t="e">
@@ -11393,20 +11393,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L10), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L10), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L10), "")</f>
-        <v>0</v>
+      <c r="Z10" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L10), "")</f>
+        <v/>
+      </c>
+      <c r="AA10" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L10), "")</f>
+        <v/>
+      </c>
+      <c r="AB10" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L10), "")</f>
+        <v/>
       </c>
       <c r="AC10" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD10" s="65" t="e">
@@ -11431,20 +11431,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L11), "")</f>
-        <v>1</v>
-      </c>
-      <c r="AA11" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L11), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L11), "")</f>
-        <v>0</v>
+      <c r="Z11" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L11), "")</f>
+        <v/>
+      </c>
+      <c r="AA11" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L11), "")</f>
+        <v/>
+      </c>
+      <c r="AB11" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L11), "")</f>
+        <v/>
       </c>
       <c r="AC11" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD11" s="65" t="e">
@@ -11469,20 +11469,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L12), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L12), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L12), "")</f>
-        <v>0</v>
+      <c r="Z12" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L12), "")</f>
+        <v/>
+      </c>
+      <c r="AA12" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L12), "")</f>
+        <v/>
+      </c>
+      <c r="AB12" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L12), "")</f>
+        <v/>
       </c>
       <c r="AC12" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD12" s="65" t="e">
@@ -11507,20 +11507,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L13), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L13), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L13), "")</f>
-        <v>0</v>
+      <c r="Z13" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L13), "")</f>
+        <v/>
+      </c>
+      <c r="AA13" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L13), "")</f>
+        <v/>
+      </c>
+      <c r="AB13" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L13), "")</f>
+        <v/>
       </c>
       <c r="AC13" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD13" s="65" t="e">
@@ -11545,20 +11545,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L14), "")</f>
-        <v>2</v>
-      </c>
-      <c r="AA14" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L14), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L14), "")</f>
-        <v>0</v>
+      <c r="Z14" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L14), "")</f>
+        <v/>
+      </c>
+      <c r="AA14" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L14), "")</f>
+        <v/>
+      </c>
+      <c r="AB14" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L14), "")</f>
+        <v/>
       </c>
       <c r="AC14" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD14" s="65" t="e">
@@ -11583,20 +11583,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L15), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L15), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L15), "")</f>
-        <v>0</v>
+      <c r="Z15" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L15), "")</f>
+        <v/>
+      </c>
+      <c r="AA15" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L15), "")</f>
+        <v/>
+      </c>
+      <c r="AB15" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L15), "")</f>
+        <v/>
       </c>
       <c r="AC15" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD15" s="65" t="e">
@@ -11621,20 +11621,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L16), "")</f>
-        <v>5</v>
-      </c>
-      <c r="AA16" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L16), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L16), "")</f>
-        <v>0</v>
+      <c r="Z16" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L16), "")</f>
+        <v/>
+      </c>
+      <c r="AA16" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L16), "")</f>
+        <v/>
+      </c>
+      <c r="AB16" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L16), "")</f>
+        <v/>
       </c>
       <c r="AC16" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD16" s="65" t="e">
@@ -11659,20 +11659,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L17), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L17), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L17), "")</f>
-        <v>0</v>
+      <c r="Z17" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L17), "")</f>
+        <v/>
+      </c>
+      <c r="AA17" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L17), "")</f>
+        <v/>
+      </c>
+      <c r="AB17" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L17), "")</f>
+        <v/>
       </c>
       <c r="AC17" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD17" s="65" t="e">
@@ -11697,20 +11697,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L18), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L18), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L18), "")</f>
-        <v>0</v>
+      <c r="Z18" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L18), "")</f>
+        <v/>
+      </c>
+      <c r="AA18" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L18), "")</f>
+        <v/>
+      </c>
+      <c r="AB18" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L18), "")</f>
+        <v/>
       </c>
       <c r="AC18" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD18" s="65" t="e">
@@ -11735,20 +11735,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L19), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L19), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L19), "")</f>
-        <v>0</v>
+      <c r="Z19" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L19), "")</f>
+        <v/>
+      </c>
+      <c r="AA19" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L19), "")</f>
+        <v/>
+      </c>
+      <c r="AB19" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L19), "")</f>
+        <v/>
       </c>
       <c r="AC19" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD19" s="65" t="e">
@@ -11773,20 +11773,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L20), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L20), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L20), "")</f>
-        <v>0</v>
+      <c r="Z20" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L20), "")</f>
+        <v/>
+      </c>
+      <c r="AA20" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L20), "")</f>
+        <v/>
+      </c>
+      <c r="AB20" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L20), "")</f>
+        <v/>
       </c>
       <c r="AC20" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD20" s="65" t="e">
@@ -11811,20 +11811,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L21), "")</f>
-        <v>8</v>
-      </c>
-      <c r="AA21" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L21), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L21), "")</f>
-        <v>0</v>
+      <c r="Z21" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L21), "")</f>
+        <v/>
+      </c>
+      <c r="AA21" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L21), "")</f>
+        <v/>
+      </c>
+      <c r="AB21" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L21), "")</f>
+        <v/>
       </c>
       <c r="AC21" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD21" s="65" t="e">
@@ -11849,20 +11849,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L22), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L22), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L22), "")</f>
-        <v>0</v>
+      <c r="Z22" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L22), "")</f>
+        <v/>
+      </c>
+      <c r="AA22" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L22), "")</f>
+        <v/>
+      </c>
+      <c r="AB22" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L22), "")</f>
+        <v/>
       </c>
       <c r="AC22" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD22" s="65" t="e">
@@ -11887,20 +11887,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L23), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L23), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L23), "")</f>
-        <v>0</v>
+      <c r="Z23" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L23), "")</f>
+        <v/>
+      </c>
+      <c r="AA23" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L23), "")</f>
+        <v/>
+      </c>
+      <c r="AB23" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L23), "")</f>
+        <v/>
       </c>
       <c r="AC23" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD23" s="65" t="e">
@@ -11925,20 +11925,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L24), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L24), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L24), "")</f>
-        <v>0</v>
+      <c r="Z24" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L24), "")</f>
+        <v/>
+      </c>
+      <c r="AA24" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L24), "")</f>
+        <v/>
+      </c>
+      <c r="AB24" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L24), "")</f>
+        <v/>
       </c>
       <c r="AC24" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD24" s="65" t="e">
@@ -11963,20 +11963,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L25), "")</f>
-        <v>1</v>
-      </c>
-      <c r="AA25" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L25), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L25), "")</f>
-        <v>0</v>
+      <c r="Z25" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L25), "")</f>
+        <v/>
+      </c>
+      <c r="AA25" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L25), "")</f>
+        <v/>
+      </c>
+      <c r="AB25" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L25), "")</f>
+        <v/>
       </c>
       <c r="AC25" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD25" s="65" t="e">
@@ -12001,20 +12001,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L26), "")</f>
-        <v>1</v>
-      </c>
-      <c r="AA26" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L26), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L26), "")</f>
-        <v>0</v>
+      <c r="Z26" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L26), "")</f>
+        <v/>
+      </c>
+      <c r="AA26" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L26), "")</f>
+        <v/>
+      </c>
+      <c r="AB26" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L26), "")</f>
+        <v/>
       </c>
       <c r="AC26" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD26" s="65" t="e">
@@ -12039,20 +12039,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L27), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L27), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L27), "")</f>
-        <v>0</v>
+      <c r="Z27" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L27), "")</f>
+        <v/>
+      </c>
+      <c r="AA27" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L27), "")</f>
+        <v/>
+      </c>
+      <c r="AB27" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L27), "")</f>
+        <v/>
       </c>
       <c r="AC27" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD27" s="65" t="e">
@@ -12077,20 +12077,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L28), "")</f>
-        <v>2</v>
-      </c>
-      <c r="AA28" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L28), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L28), "")</f>
-        <v>0</v>
+      <c r="Z28" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L28), "")</f>
+        <v/>
+      </c>
+      <c r="AA28" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L28), "")</f>
+        <v/>
+      </c>
+      <c r="AB28" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L28), "")</f>
+        <v/>
       </c>
       <c r="AC28" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD28" s="65" t="e">
@@ -12115,20 +12115,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L29), "")</f>
-        <v>13</v>
-      </c>
-      <c r="AA29" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L29), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L29), "")</f>
-        <v>0</v>
+      <c r="Z29" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L29), "")</f>
+        <v/>
+      </c>
+      <c r="AA29" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L29), "")</f>
+        <v/>
+      </c>
+      <c r="AB29" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L29), "")</f>
+        <v/>
       </c>
       <c r="AC29" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD29" s="65" t="e">
@@ -12153,20 +12153,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L30), "")</f>
-        <v>1</v>
-      </c>
-      <c r="AA30" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L30), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L30), "")</f>
-        <v>0</v>
+      <c r="Z30" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L30), "")</f>
+        <v/>
+      </c>
+      <c r="AA30" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L30), "")</f>
+        <v/>
+      </c>
+      <c r="AB30" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L30), "")</f>
+        <v/>
       </c>
       <c r="AC30" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD30" s="65" t="e">
@@ -12191,20 +12191,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L31), "")</f>
-        <v>1</v>
-      </c>
-      <c r="AA31" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L31), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L31), "")</f>
-        <v>0</v>
+      <c r="Z31" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L31), "")</f>
+        <v/>
+      </c>
+      <c r="AA31" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L31), "")</f>
+        <v/>
+      </c>
+      <c r="AB31" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L31), "")</f>
+        <v/>
       </c>
       <c r="AC31" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD31" s="65" t="e">
@@ -12229,20 +12229,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L32), "")</f>
-        <v>4</v>
-      </c>
-      <c r="AA32" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L32), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L32), "")</f>
-        <v>0</v>
+      <c r="Z32" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L32), "")</f>
+        <v/>
+      </c>
+      <c r="AA32" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L32), "")</f>
+        <v/>
+      </c>
+      <c r="AB32" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L32), "")</f>
+        <v/>
       </c>
       <c r="AC32" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD32" s="65" t="e">
@@ -12267,20 +12267,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z33" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L33), "")</f>
-        <v>1</v>
-      </c>
-      <c r="AA33" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L33), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L33), "")</f>
-        <v>0</v>
+      <c r="Z33" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L33), "")</f>
+        <v/>
+      </c>
+      <c r="AA33" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L33), "")</f>
+        <v/>
+      </c>
+      <c r="AB33" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L33), "")</f>
+        <v/>
       </c>
       <c r="AC33" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD33" s="65" t="e">
@@ -12305,20 +12305,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L34), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L34), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L34), "")</f>
-        <v>0</v>
+      <c r="Z34" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L34), "")</f>
+        <v/>
+      </c>
+      <c r="AA34" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L34), "")</f>
+        <v/>
+      </c>
+      <c r="AB34" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L34), "")</f>
+        <v/>
       </c>
       <c r="AC34" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD34" s="65" t="e">
@@ -12343,20 +12343,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L35), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L35), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L35), "")</f>
-        <v>0</v>
+      <c r="Z35" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L35), "")</f>
+        <v/>
+      </c>
+      <c r="AA35" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L35), "")</f>
+        <v/>
+      </c>
+      <c r="AB35" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L35), "")</f>
+        <v/>
       </c>
       <c r="AC35" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD35" s="65" t="e">
@@ -12381,20 +12381,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L36), "")</f>
-        <v>3</v>
-      </c>
-      <c r="AA36" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L36), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L36), "")</f>
-        <v>0</v>
+      <c r="Z36" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L36), "")</f>
+        <v/>
+      </c>
+      <c r="AA36" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L36), "")</f>
+        <v/>
+      </c>
+      <c r="AB36" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L36), "")</f>
+        <v/>
       </c>
       <c r="AC36" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD36" s="65" t="e">
@@ -12419,20 +12419,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z37" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L37), "")</f>
-        <v>10</v>
-      </c>
-      <c r="AA37" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L37), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L37), "")</f>
-        <v>0</v>
+      <c r="Z37" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L37), "")</f>
+        <v/>
+      </c>
+      <c r="AA37" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L37), "")</f>
+        <v/>
+      </c>
+      <c r="AB37" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L37), "")</f>
+        <v/>
       </c>
       <c r="AC37" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD37" s="65" t="e">
@@ -12457,20 +12457,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L38), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L38), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L38), "")</f>
-        <v>0</v>
+      <c r="Z38" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L38), "")</f>
+        <v/>
+      </c>
+      <c r="AA38" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L38), "")</f>
+        <v/>
+      </c>
+      <c r="AB38" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L38), "")</f>
+        <v/>
       </c>
       <c r="AC38" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD38" s="65" t="e">
@@ -12495,20 +12495,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L39), "")</f>
-        <v>3</v>
-      </c>
-      <c r="AA39" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L39), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L39), "")</f>
-        <v>0</v>
+      <c r="Z39" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L39), "")</f>
+        <v/>
+      </c>
+      <c r="AA39" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L39), "")</f>
+        <v/>
+      </c>
+      <c r="AB39" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L39), "")</f>
+        <v/>
       </c>
       <c r="AC39" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD39" s="65" t="e">
@@ -12533,20 +12533,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L40), "")</f>
-        <v>10</v>
-      </c>
-      <c r="AA40" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L40), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L40), "")</f>
-        <v>0</v>
+      <c r="Z40" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L40), "")</f>
+        <v/>
+      </c>
+      <c r="AA40" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L40), "")</f>
+        <v/>
+      </c>
+      <c r="AB40" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L40), "")</f>
+        <v/>
       </c>
       <c r="AC40" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD40" s="65" t="e">
@@ -12571,20 +12571,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L41), "")</f>
-        <v>2</v>
-      </c>
-      <c r="AA41" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L41), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AB41" s="63">
-        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L41), "")</f>
-        <v>0</v>
+      <c r="Z41" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L41), "")</f>
+        <v/>
+      </c>
+      <c r="AA41" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L41), "")</f>
+        <v/>
+      </c>
+      <c r="AB41" s="63" t="str">
+        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L41), "")</f>
+        <v/>
       </c>
       <c r="AC41" s="64" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD41" s="65" t="e">
@@ -30438,13 +30438,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="4"/>
@@ -31234,31 +31234,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
       <c r="X1" s="30"/>
       <c r="Y1" s="30"/>
     </row>
@@ -80764,13 +80764,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="19.5" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
@@ -80950,19 +80950,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="G1" s="101" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="G1" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
     </row>
     <row r="4" spans="1:10" s="50" customFormat="1">
       <c r="A4" s="48" t="s">
@@ -81049,14 +81049,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2"/>
@@ -81125,16 +81125,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2"/>
@@ -82252,18 +82252,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2"/>

--- a/assets/Check_report_template.xlsx
+++ b/assets/Check_report_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrab Ali\Documents\GitHub\arceddataflow\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3B1620-E42D-44CF-9EF2-57AAD20B9690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFF65DD-FB1E-4A59-88E8-36482A68EF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -669,7 +669,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -841,21 +841,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -889,6 +874,9 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,6 +887,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3961,196 +3958,326 @@
         </row>
         <row r="3">
           <cell r="L3" t="str">
-            <v>AFFT-1259</v>
+            <v>AFFT-1258</v>
           </cell>
         </row>
         <row r="4">
           <cell r="L4" t="str">
-            <v>AFFT-1260</v>
+            <v>AFFT-1259</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5" t="str">
-            <v>AFFT-1261</v>
+            <v>AFFT-1260</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6" t="str">
-            <v>AFFT-1262</v>
+            <v>AFFT-1261</v>
           </cell>
         </row>
         <row r="7">
           <cell r="L7" t="str">
-            <v>AFFT-1263</v>
+            <v>AFFT-1262</v>
           </cell>
         </row>
         <row r="8">
           <cell r="L8" t="str">
-            <v>AFFT-1264</v>
+            <v>AFFT-1263</v>
           </cell>
         </row>
         <row r="9">
           <cell r="L9" t="str">
-            <v>AFFT-1265</v>
+            <v>AFFT-1264</v>
           </cell>
         </row>
         <row r="10">
           <cell r="L10" t="str">
-            <v>AFFT-1266</v>
+            <v>AFFT-1265</v>
           </cell>
         </row>
         <row r="11">
           <cell r="L11" t="str">
-            <v>AFFT-1267</v>
+            <v>AFFT-1266</v>
           </cell>
         </row>
         <row r="12">
           <cell r="L12" t="str">
-            <v>AFFT-1274</v>
+            <v>AFFT-1267</v>
           </cell>
         </row>
         <row r="13">
           <cell r="L13" t="str">
-            <v>AFFT-1276</v>
+            <v>AFFT-1268</v>
           </cell>
         </row>
         <row r="14">
           <cell r="L14" t="str">
-            <v>AFFT-1354</v>
+            <v>AFFT-1271</v>
           </cell>
         </row>
         <row r="15">
           <cell r="L15" t="str">
-            <v>AFFT-1364</v>
+            <v>AFFT-1274</v>
           </cell>
         </row>
         <row r="16">
           <cell r="L16" t="str">
-            <v>AFFT-1366</v>
+            <v>AFFT-1276</v>
           </cell>
         </row>
         <row r="17">
           <cell r="L17" t="str">
-            <v>AFFT-1371</v>
+            <v>AFFT-1354</v>
           </cell>
         </row>
         <row r="18">
           <cell r="L18" t="str">
-            <v>AFFT-1384</v>
+            <v>AFFT-1358</v>
           </cell>
         </row>
         <row r="19">
           <cell r="L19" t="str">
-            <v>AFFT-1389</v>
+            <v>AFFT-1364</v>
           </cell>
         </row>
         <row r="20">
           <cell r="L20" t="str">
-            <v>AFFT-1393</v>
+            <v>AFFT-1366</v>
           </cell>
         </row>
         <row r="21">
           <cell r="L21" t="str">
-            <v>AFFT-1397</v>
+            <v>AFFT-1371</v>
           </cell>
         </row>
         <row r="22">
           <cell r="L22" t="str">
-            <v>AFFT-1407</v>
+            <v>AFFT-1372</v>
           </cell>
         </row>
         <row r="23">
           <cell r="L23" t="str">
-            <v>AFFT-1413</v>
+            <v>AFFT-1384</v>
           </cell>
         </row>
         <row r="24">
           <cell r="L24" t="str">
-            <v>AFFT-1414</v>
+            <v>AFFT-1386</v>
           </cell>
         </row>
         <row r="25">
           <cell r="L25" t="str">
-            <v>AFFT-1417</v>
+            <v>AFFT-1389</v>
           </cell>
         </row>
         <row r="26">
           <cell r="L26" t="str">
-            <v>AFFT-1438</v>
+            <v>AFFT-1393</v>
           </cell>
         </row>
         <row r="27">
           <cell r="L27" t="str">
-            <v>AFFT-1439</v>
+            <v>AFFT-1397</v>
           </cell>
         </row>
         <row r="28">
           <cell r="L28" t="str">
-            <v>AFFT-1454</v>
+            <v>AFFT-1400</v>
           </cell>
         </row>
         <row r="29">
           <cell r="L29" t="str">
-            <v>AFFT-1458</v>
+            <v>AFFT-1404</v>
           </cell>
         </row>
         <row r="30">
           <cell r="L30" t="str">
-            <v>AFFT-1460</v>
+            <v>AFFT-1405</v>
           </cell>
         </row>
         <row r="31">
           <cell r="L31" t="str">
-            <v>AFFT-1461</v>
+            <v>AFFT-1407</v>
           </cell>
         </row>
         <row r="32">
           <cell r="L32" t="str">
-            <v>AFFT-1462</v>
+            <v>AFFT-1410</v>
           </cell>
         </row>
         <row r="33">
           <cell r="L33" t="str">
-            <v>AFFT-1466</v>
+            <v>AFFT-1411</v>
           </cell>
         </row>
         <row r="34">
           <cell r="L34" t="str">
-            <v>AFFT-1475</v>
+            <v>AFFT-1413</v>
           </cell>
         </row>
         <row r="35">
           <cell r="L35" t="str">
-            <v>AFFT-1480</v>
+            <v>AFFT-1414</v>
           </cell>
         </row>
         <row r="36">
           <cell r="L36" t="str">
-            <v>AFFT-1483</v>
+            <v>AFFT-1415</v>
           </cell>
         </row>
         <row r="37">
           <cell r="L37" t="str">
-            <v>AFFT-1484</v>
+            <v>AFFT-1417</v>
           </cell>
         </row>
         <row r="38">
           <cell r="L38" t="str">
-            <v>AFFT-1485</v>
+            <v>AFFT-1420</v>
           </cell>
         </row>
         <row r="39">
           <cell r="L39" t="str">
-            <v>AFFT-1487</v>
+            <v>AFFT-1422</v>
           </cell>
         </row>
         <row r="40">
           <cell r="L40" t="str">
-            <v>AFFT-1497</v>
+            <v>AFFT-1427</v>
           </cell>
         </row>
         <row r="41">
           <cell r="L41" t="str">
+            <v>AFFT-1438</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="L42" t="str">
+            <v>AFFT-1439</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="L43" t="str">
+            <v>AFFT-1442</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="L44" t="str">
+            <v>AFFT-1446</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="L45" t="str">
+            <v>AFFT-1447</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="L46" t="str">
+            <v>AFFT-1448</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="L47" t="str">
+            <v>AFFT-1449</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="L48" t="str">
+            <v>AFFT-1454</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="L49" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="L50" t="str">
+            <v>AFFT-1460</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="L51" t="str">
+            <v>AFFT-1461</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="L52" t="str">
+            <v>AFFT-1462</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="L53" t="str">
+            <v>AFFT-1464</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="L54" t="str">
+            <v>AFFT-1465</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="L55" t="str">
+            <v>AFFT-1466</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="L56" t="str">
+            <v>AFFT-1468</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="L57" t="str">
+            <v>AFFT-1475</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="L58" t="str">
+            <v>AFFT-1476</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="L59" t="str">
+            <v>AFFT-1480</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="L60" t="str">
+            <v>AFFT-1482</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="L61" t="str">
+            <v>AFFT-1483</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="L62" t="str">
+            <v>AFFT-1484</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="L63" t="str">
+            <v>AFFT-1485</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="L64" t="str">
+            <v>AFFT-1487</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="L65" t="str">
+            <v>AFFT-1492</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="L66" t="str">
+            <v>AFFT-1497</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="L67" t="str">
             <v>AFFT-1512</v>
           </cell>
         </row>
@@ -4181,7 +4308,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="5">
+          <cell r="G5" t="str">
+            <v>AFFT-1448</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6" t="str">
+            <v>AFFT-1438</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8">
@@ -4192,17 +4330,17 @@
         </row>
         <row r="5">
           <cell r="C5" t="str">
-            <v>AFFT-1497</v>
+            <v>AFFT-1384</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6" t="str">
-            <v>AFFT-1497</v>
+            <v>AFFT-1384</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7" t="str">
-            <v>AFFT-1260</v>
+            <v>AFFT-1417</v>
           </cell>
         </row>
         <row r="8">
@@ -4212,482 +4350,1327 @@
         </row>
         <row r="9">
           <cell r="C9" t="str">
-            <v>AFFT-1061</v>
+            <v>AFFT-1497</v>
           </cell>
         </row>
         <row r="10">
           <cell r="C10" t="str">
-            <v>AFFT-1366</v>
+            <v>AFFT-1460</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11" t="str">
-            <v>AFFT-1484</v>
+            <v>AFFT-1384</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12" t="str">
-            <v>AFFT-1354</v>
+            <v>AFFT-1485</v>
           </cell>
         </row>
         <row r="13">
           <cell r="C13" t="str">
-            <v>AFFT-1264</v>
+            <v>AFFT-1261</v>
           </cell>
         </row>
         <row r="14">
           <cell r="C14" t="str">
-            <v>AFFT-1264</v>
+            <v>AFFT-1260</v>
           </cell>
         </row>
         <row r="15">
           <cell r="C15" t="str">
-            <v>AFFT-1264</v>
+            <v>AFFT-1417</v>
           </cell>
         </row>
         <row r="16">
           <cell r="C16" t="str">
-            <v>AFFT-1262</v>
+            <v>AFFT-1497</v>
           </cell>
         </row>
         <row r="17">
           <cell r="C17" t="str">
-            <v>AFFT-1397</v>
+            <v>AFFT-1464</v>
           </cell>
         </row>
         <row r="18">
           <cell r="C18" t="str">
-            <v>AFFT-1263</v>
+            <v>AFFT-1061</v>
           </cell>
         </row>
         <row r="19">
           <cell r="C19" t="str">
-            <v>AFFT-1497</v>
+            <v>AFFT-1468</v>
           </cell>
         </row>
         <row r="20">
           <cell r="C20" t="str">
-            <v>AFFT-1461</v>
+            <v>AFFT-1460</v>
           </cell>
         </row>
         <row r="21">
           <cell r="C21" t="str">
-            <v>AFFT-1061</v>
+            <v>AFFT-1422</v>
           </cell>
         </row>
         <row r="22">
           <cell r="C22" t="str">
-            <v>AFFT-1483</v>
+            <v>AFFT-1465</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>AFFT-1267</v>
+            <v>AFFT-1366</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24" t="str">
-            <v>AFFT-1487</v>
+            <v>AFFT-1475</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25" t="str">
-            <v>AFFT-1458</v>
+            <v>AFFT-1484</v>
           </cell>
         </row>
         <row r="26">
           <cell r="C26" t="str">
-            <v>AFFT-1264</v>
+            <v>AFFT-1354</v>
           </cell>
         </row>
         <row r="27">
           <cell r="C27" t="str">
-            <v>AFFT-1264</v>
+            <v>AFFT-1492</v>
           </cell>
         </row>
         <row r="28">
           <cell r="C28" t="str">
-            <v>AFFT-1265</v>
+            <v>AFFT-1384</v>
           </cell>
         </row>
         <row r="29">
           <cell r="C29" t="str">
-            <v>AFFT-1397</v>
+            <v>AFFT-1384</v>
           </cell>
         </row>
         <row r="30">
           <cell r="C30" t="str">
-            <v>AFFT-1397</v>
+            <v>AFFT-1438</v>
           </cell>
         </row>
         <row r="31">
           <cell r="C31" t="str">
-            <v>AFFT-1397</v>
+            <v>AFFT-1438</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32" t="str">
-            <v>AFFT-1397</v>
+            <v>AFFT-1438</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33" t="str">
-            <v>AFFT-1397</v>
+            <v>AFFT-1438</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34" t="str">
-            <v>AFFT-1260</v>
+            <v>AFFT-1404</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35" t="str">
-            <v>AFFT-1260</v>
+            <v>AFFT-1404</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36" t="str">
-            <v>AFFT-1260</v>
+            <v>AFFT-1404</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37" t="str">
-            <v>AFFT-1260</v>
+            <v>AFFT-1264</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38" t="str">
-            <v>AFFT-1466</v>
+            <v>AFFT-1264</v>
           </cell>
         </row>
         <row r="39">
           <cell r="C39" t="str">
-            <v>AFFT-1497</v>
+            <v>AFFT-1264</v>
           </cell>
         </row>
         <row r="40">
           <cell r="C40" t="str">
-            <v>AFFT-1259</v>
+            <v>AFFT-1405</v>
           </cell>
         </row>
         <row r="41">
           <cell r="C41" t="str">
-            <v>AFFT-1061</v>
+            <v>AFFT-1405</v>
           </cell>
         </row>
         <row r="42">
           <cell r="C42" t="str">
-            <v>AFFT-1454</v>
+            <v>AFFT-1407</v>
           </cell>
         </row>
         <row r="43">
           <cell r="C43" t="str">
-            <v>AFFT-1484</v>
+            <v>AFFT-1407</v>
           </cell>
         </row>
         <row r="44">
           <cell r="C44" t="str">
-            <v>AFFT-1484</v>
+            <v>AFFT-1262</v>
           </cell>
         </row>
         <row r="45">
           <cell r="C45" t="str">
-            <v>AFFT-1462</v>
+            <v>AFFT-1397</v>
           </cell>
         </row>
         <row r="46">
           <cell r="C46" t="str">
-            <v>AFFT-1458</v>
+            <v>AFFT-1410</v>
           </cell>
         </row>
         <row r="47">
           <cell r="C47" t="str">
-            <v>AFFT-1458</v>
+            <v>AFFT-1411</v>
           </cell>
         </row>
         <row r="48">
           <cell r="C48" t="str">
-            <v>AFFT-1458</v>
+            <v>AFFT-1414</v>
           </cell>
         </row>
         <row r="49">
           <cell r="C49" t="str">
-            <v>AFFT-1264</v>
+            <v>AFFT-1400</v>
           </cell>
         </row>
         <row r="50">
           <cell r="C50" t="str">
-            <v>AFFT-1263</v>
+            <v>AFFT-1400</v>
           </cell>
         </row>
         <row r="51">
           <cell r="C51" t="str">
-            <v>AFFT-1483</v>
+            <v>AFFT-1466</v>
           </cell>
         </row>
         <row r="52">
           <cell r="C52" t="str">
-            <v>AFFT-1438</v>
+            <v>AFFT-1263</v>
           </cell>
         </row>
         <row r="53">
           <cell r="C53" t="str">
-            <v>AFFT-1458</v>
+            <v>AFFT-1263</v>
           </cell>
         </row>
         <row r="54">
           <cell r="C54" t="str">
-            <v>AFFT-1458</v>
+            <v>AFFT-1263</v>
           </cell>
         </row>
         <row r="55">
           <cell r="C55" t="str">
-            <v>AFFT-1458</v>
+            <v>AFFT-1263</v>
           </cell>
         </row>
         <row r="56">
           <cell r="C56" t="str">
-            <v>AFFT-1397</v>
+            <v>AFFT-1497</v>
           </cell>
         </row>
         <row r="57">
           <cell r="C57" t="str">
-            <v>AFFT-1397</v>
+            <v>AFFT-1497</v>
           </cell>
         </row>
         <row r="58">
           <cell r="C58" t="str">
-            <v>AFFT-1261</v>
+            <v>AFFT-1497</v>
           </cell>
         </row>
         <row r="59">
           <cell r="C59" t="str">
-            <v>AFFT-1260</v>
+            <v>AFFT-1497</v>
           </cell>
         </row>
         <row r="60">
           <cell r="C60" t="str">
-            <v>AFFT-1260</v>
+            <v>AFFT-1480</v>
           </cell>
         </row>
         <row r="61">
           <cell r="C61" t="str">
-            <v>AFFT-1417</v>
+            <v>AFFT-1461</v>
           </cell>
         </row>
         <row r="62">
           <cell r="C62" t="str">
-            <v>AFFT-1263</v>
+            <v>AFFT-1461</v>
           </cell>
         </row>
         <row r="63">
           <cell r="C63" t="str">
-            <v>AFFT-1497</v>
+            <v>AFFT-1447</v>
           </cell>
         </row>
         <row r="64">
           <cell r="C64" t="str">
-            <v>AFFT-1497</v>
+            <v>AFFT-1464</v>
           </cell>
         </row>
         <row r="65">
           <cell r="C65" t="str">
-            <v>AFFT-1497</v>
+            <v>AFFT-1464</v>
           </cell>
         </row>
         <row r="66">
           <cell r="C66" t="str">
-            <v>AFFT-1061</v>
+            <v>AFFT-1259</v>
           </cell>
         </row>
         <row r="67">
           <cell r="C67" t="str">
-            <v>AFFT-1460</v>
+            <v>AFFT-1061</v>
           </cell>
         </row>
         <row r="68">
           <cell r="C68" t="str">
-            <v>AFFT-1366</v>
+            <v>AFFT-1468</v>
           </cell>
         </row>
         <row r="69">
           <cell r="C69" t="str">
-            <v>AFFT-1366</v>
+            <v>AFFT-1468</v>
           </cell>
         </row>
         <row r="70">
           <cell r="C70" t="str">
-            <v>AFFT-1484</v>
+            <v>AFFT-1512</v>
           </cell>
         </row>
         <row r="71">
           <cell r="C71" t="str">
-            <v>AFFT-1484</v>
+            <v>AFFT-1512</v>
           </cell>
         </row>
         <row r="72">
           <cell r="C72" t="str">
-            <v>AFFT-1462</v>
+            <v>AFFT-1422</v>
           </cell>
         </row>
         <row r="73">
           <cell r="C73" t="str">
-            <v>AFFT-1458</v>
+            <v>AFFT-1483</v>
           </cell>
         </row>
         <row r="74">
           <cell r="C74" t="str">
-            <v>AFFT-1458</v>
+            <v>AFFT-1267</v>
           </cell>
         </row>
         <row r="75">
           <cell r="C75" t="str">
-            <v>AFFT-1458</v>
+            <v>AFFT-1267</v>
           </cell>
         </row>
         <row r="76">
           <cell r="C76" t="str">
-            <v>AFFT-1261</v>
+            <v>AFFT-1371</v>
           </cell>
         </row>
         <row r="77">
           <cell r="C77" t="str">
-            <v>AFFT-1497</v>
+            <v>AFFT-1487</v>
           </cell>
         </row>
         <row r="78">
           <cell r="C78" t="str">
-            <v>AFFT-1497</v>
+            <v>AFFT-1458</v>
           </cell>
         </row>
         <row r="79">
           <cell r="C79" t="str">
-            <v>AFFT-1484</v>
+            <v>AFFT-1264</v>
           </cell>
         </row>
         <row r="80">
           <cell r="C80" t="str">
-            <v>AFFT-1484</v>
+            <v>AFFT-1405</v>
           </cell>
         </row>
         <row r="81">
           <cell r="C81" t="str">
-            <v>AFFT-1462</v>
+            <v>AFFT-1265</v>
           </cell>
         </row>
         <row r="82">
           <cell r="C82" t="str">
-            <v>AFFT-1458</v>
+            <v>AFFT-1397</v>
           </cell>
         </row>
         <row r="83">
           <cell r="C83" t="str">
-            <v>AFFT-1458</v>
+            <v>AFFT-1397</v>
           </cell>
         </row>
         <row r="84">
           <cell r="C84" t="str">
-            <v>AFFT-1458</v>
+            <v>AFFT-1397</v>
           </cell>
         </row>
         <row r="85">
           <cell r="C85" t="str">
-            <v>AFFT-1264</v>
+            <v>AFFT-1397</v>
           </cell>
         </row>
         <row r="86">
           <cell r="C86" t="str">
-            <v>AFFT-1264</v>
+            <v>AFFT-1397</v>
           </cell>
         </row>
         <row r="87">
           <cell r="C87" t="str">
-            <v>AFFT-1264</v>
+            <v>AFFT-1397</v>
           </cell>
         </row>
         <row r="88">
           <cell r="C88" t="str">
-            <v>AFFT-1263</v>
+            <v>AFFT-1411</v>
           </cell>
         </row>
         <row r="89">
           <cell r="C89" t="str">
-            <v>AFFT-1512</v>
+            <v>AFFT-1411</v>
           </cell>
         </row>
         <row r="90">
           <cell r="C90" t="str">
-            <v>AFFT-1366</v>
+            <v>AFFT-1260</v>
           </cell>
         </row>
         <row r="91">
           <cell r="C91" t="str">
-            <v>AFFT-1483</v>
+            <v>AFFT-1260</v>
           </cell>
         </row>
         <row r="92">
           <cell r="C92" t="str">
-            <v>AFFT-1454</v>
+            <v>AFFT-1260</v>
           </cell>
         </row>
         <row r="93">
           <cell r="C93" t="str">
-            <v>AFFT-1487</v>
+            <v>AFFT-1260</v>
           </cell>
         </row>
         <row r="94">
           <cell r="C94" t="str">
-            <v>AFFT-1487</v>
+            <v>AFFT-1415</v>
           </cell>
         </row>
         <row r="95">
           <cell r="C95" t="str">
-            <v>AFFT-1264</v>
+            <v>AFFT-1400</v>
           </cell>
         </row>
         <row r="96">
           <cell r="C96" t="str">
-            <v>AFFT-1262</v>
+            <v>AFFT-1466</v>
           </cell>
         </row>
         <row r="97">
           <cell r="C97" t="str">
-            <v>AFFT-1262</v>
+            <v>AFFT-1386</v>
           </cell>
         </row>
         <row r="98">
           <cell r="C98" t="str">
-            <v>AFFT-1512</v>
+            <v>AFFT-1386</v>
           </cell>
         </row>
         <row r="99">
           <cell r="C99" t="str">
-            <v>AFFT-1366</v>
+            <v>AFFT-1497</v>
           </cell>
         </row>
         <row r="100">
           <cell r="C100" t="str">
-            <v>AFFT-1484</v>
+            <v>AFFT-1497</v>
           </cell>
         </row>
         <row r="101">
           <cell r="C101" t="str">
-            <v>AFFT-1484</v>
+            <v>AFFT-1258</v>
           </cell>
         </row>
         <row r="102">
           <cell r="C102" t="str">
-            <v>AFFT-1484</v>
+            <v>AFFT-1258</v>
           </cell>
         </row>
         <row r="103">
           <cell r="C103" t="str">
-            <v>AFFT-1354</v>
+            <v>AFFT-1258</v>
           </cell>
         </row>
         <row r="104">
           <cell r="C104" t="str">
+            <v>AFFT-1464</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="C105" t="str">
+            <v>AFFT-1464</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="C106" t="str">
+            <v>AFFT-1061</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="C107" t="str">
+            <v>AFFT-1468</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="C108" t="str">
+            <v>AFFT-1460</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="C109" t="str">
+            <v>AFFT-1460</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="C110" t="str">
+            <v>AFFT-1422</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="C111" t="str">
+            <v>AFFT-1371</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="C112" t="str">
+            <v>AFFT-1371</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="C113" t="str">
+            <v>AFFT-1484</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="C114" t="str">
+            <v>AFFT-1492</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="C115" t="str">
+            <v>AFFT-1265</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="C116" t="str">
+            <v>AFFT-1400</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="C117" t="str">
+            <v>AFFT-1465</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="C118" t="str">
             <v>AFFT-1462</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="C119" t="str">
+            <v>AFFT-1485</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="C120" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="C121" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="C122" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="C123" t="str">
+            <v>AFFT-1404</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="C124" t="str">
+            <v>AFFT-1264</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="C125" t="str">
+            <v>AFFT-1405</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="C126" t="str">
+            <v>AFFT-1466</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="C127" t="str">
+            <v>AFFT-1263</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="C128" t="str">
+            <v>AFFT-1448</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="C129" t="str">
+            <v>AFFT-1483</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="C130" t="str">
+            <v>AFFT-1492</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="C131" t="str">
+            <v>AFFT-1492</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="C132" t="str">
+            <v>AFFT-1492</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="C133" t="str">
+            <v>AFFT-1492</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="C134" t="str">
+            <v>AFFT-1438</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="C135" t="str">
+            <v>AFFT-1485</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="C136" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="C137" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="C138" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="C139" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="C140" t="str">
+            <v>AFFT-1404</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="C141" t="str">
+            <v>AFFT-1404</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="C142" t="str">
+            <v>AFFT-1404</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="C143" t="str">
+            <v>AFFT-1404</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="C144" t="str">
+            <v>AFFT-1404</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="C145" t="str">
+            <v>AFFT-1404</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="C146" t="str">
+            <v>AFFT-1404</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="C147" t="str">
+            <v>AFFT-1404</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="C148" t="str">
+            <v>AFFT-1404</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="C149" t="str">
+            <v>AFFT-1407</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="C150" t="str">
+            <v>AFFT-1407</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="C151" t="str">
+            <v>AFFT-1262</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="C152" t="str">
+            <v>AFFT-1397</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="C153" t="str">
+            <v>AFFT-1397</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="C154" t="str">
+            <v>AFFT-1261</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="C155" t="str">
+            <v>AFFT-1414</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="C156" t="str">
+            <v>AFFT-1414</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="C157" t="str">
+            <v>AFFT-1260</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="C158" t="str">
+            <v>AFFT-1260</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="C159" t="str">
+            <v>AFFT-1415</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="C160" t="str">
+            <v>AFFT-1400</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="C161" t="str">
+            <v>AFFT-1386</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="C162" t="str">
+            <v>AFFT-1386</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="C163" t="str">
+            <v>AFFT-1386</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="C164" t="str">
+            <v>AFFT-1417</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="C165" t="str">
+            <v>AFFT-1263</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="C166" t="str">
+            <v>AFFT-1263</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="C167" t="str">
+            <v>AFFT-1497</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="C168" t="str">
+            <v>AFFT-1497</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="C169" t="str">
+            <v>AFFT-1497</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="C170" t="str">
+            <v>AFFT-1480</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="C171" t="str">
+            <v>AFFT-1480</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="C172" t="str">
+            <v>AFFT-1447</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="C173" t="str">
+            <v>AFFT-1061</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="C174" t="str">
+            <v>AFFT-1468</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="C175" t="str">
+            <v>AFFT-1512</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="C176" t="str">
+            <v>AFFT-1460</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="C177" t="str">
+            <v>AFFT-1460</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="C178" t="str">
+            <v>AFFT-1422</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="C179" t="str">
+            <v>AFFT-1422</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="C180" t="str">
+            <v>AFFT-1422</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="C181" t="str">
+            <v>AFFT-1422</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="C182" t="str">
+            <v>AFFT-1422</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="C183" t="str">
+            <v>AFFT-1366</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="C184" t="str">
+            <v>AFFT-1366</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="C185" t="str">
+            <v>AFFT-1475</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="C186" t="str">
+            <v>AFFT-1484</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="C187" t="str">
+            <v>AFFT-1484</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="C188" t="str">
+            <v>AFFT-1462</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="C189" t="str">
+            <v>AFFT-1384</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="C190" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="C191" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="C192" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="C193" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="C194" t="str">
+            <v>AFFT-1261</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="C195" t="str">
+            <v>AFFT-1261</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="C196" t="str">
+            <v>AFFT-1386</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="C197" t="str">
+            <v>AFFT-1386</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="C198" t="str">
+            <v>AFFT-1461</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="C199" t="str">
+            <v>AFFT-1447</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="C200" t="str">
+            <v>AFFT-1492</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="C201" t="str">
+            <v>AFFT-1492</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="C202" t="str">
+            <v>AFFT-1466</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="C203" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="C204" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="C205" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="C206" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="C207" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="C208" t="str">
+            <v>AFFT-1404</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="C209" t="str">
+            <v>AFFT-1264</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="C210" t="str">
+            <v>AFFT-1264</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="C211" t="str">
+            <v>AFFT-1264</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="C212" t="str">
+            <v>AFFT-1405</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="C213" t="str">
+            <v>AFFT-1405</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="C214" t="str">
+            <v>AFFT-1411</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="C215" t="str">
+            <v>AFFT-1261</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="C216" t="str">
+            <v>AFFT-1415</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="C217" t="str">
+            <v>AFFT-1466</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="C218" t="str">
+            <v>AFFT-1386</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="C219" t="str">
+            <v>AFFT-1263</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="C220" t="str">
+            <v>AFFT-1480</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="C221" t="str">
+            <v>AFFT-1258</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="C222" t="str">
+            <v>AFFT-1464</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="C223" t="str">
+            <v>AFFT-1512</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="C224" t="str">
+            <v>AFFT-1465</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="C225" t="str">
+            <v>AFFT-1366</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="C226" t="str">
+            <v>AFFT-1483</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="C227" t="str">
+            <v>AFFT-1371</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="C228" t="str">
+            <v>AFFT-1454</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="C229" t="str">
+            <v>AFFT-1487</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="C230" t="str">
+            <v>AFFT-1487</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="C231" t="str">
+            <v>AFFT-1438</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="C232" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="C233" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="C234" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="C235" t="str">
+            <v>AFFT-1264</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="C236" t="str">
+            <v>AFFT-1262</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="C237" t="str">
+            <v>AFFT-1262</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="C238" t="str">
+            <v>AFFT-1262</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="C239" t="str">
+            <v>AFFT-1397</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="C240" t="str">
+            <v>AFFT-1397</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="C241" t="str">
+            <v>AFFT-1411</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="C242" t="str">
+            <v>AFFT-1260</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="C243" t="str">
+            <v>AFFT-1260</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="C244" t="str">
+            <v>AFFT-1497</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="C245" t="str">
+            <v>AFFT-1497</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="C246" t="str">
+            <v>AFFT-1497</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="C247" t="str">
+            <v>AFFT-1497</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="C248" t="str">
+            <v>AFFT-1497</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="C249" t="str">
+            <v>AFFT-1480</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="C250" t="str">
+            <v>AFFT-1447</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="C251" t="str">
+            <v>AFFT-1512</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="C252" t="str">
+            <v>AFFT-1460</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="C253" t="str">
+            <v>AFFT-1460</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="C254" t="str">
+            <v>AFFT-1460</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="C255" t="str">
+            <v>AFFT-1422</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="C256" t="str">
+            <v>AFFT-1422</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="C257" t="str">
+            <v>AFFT-1449</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="C258" t="str">
+            <v>AFFT-1366</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="C259" t="str">
+            <v>AFFT-1484</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="C260" t="str">
+            <v>AFFT-1484</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="C261" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="C262" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="C263" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="C264" t="str">
+            <v>AFFT-1458</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="C265" t="str">
+            <v>AFFT-1260</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="C266" t="str">
+            <v>AFFT-1480</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="C267" t="str">
+            <v>AFFT-1422</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="C268" t="str">
+            <v>AFFT-1465</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="C269" t="str">
+            <v>AFFT-1482</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="C270" t="str">
+            <v>AFFT-1475</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="C271" t="str">
+            <v>AFFT-1397</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="C272" t="str">
+            <v>AFFT-1397</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="C273" t="str">
+            <v>AFFT-1466</v>
           </cell>
         </row>
       </sheetData>
@@ -4997,7 +5980,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5040,23 +6023,23 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="84" t="s">
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
       <c r="M2" s="11"/>
-      <c r="N2" s="84" t="s">
+      <c r="N2" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
       <c r="Q2" s="70"/>
       <c r="R2" s="72"/>
       <c r="S2" s="12"/>
@@ -5073,13 +6056,13 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="88">
+      <c r="F3" s="83">
         <f>COUNT('C1. Progress'!A3:A1000)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="90"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="15" t="s">
         <v>9</v>
       </c>
@@ -5090,12 +6073,12 @@
         <v>11</v>
       </c>
       <c r="M3" s="13"/>
-      <c r="N3" s="87" t="e">
+      <c r="N3" s="99" t="e">
         <f>F8/F3/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="72"/>
       <c r="S3" s="12"/>
@@ -5114,10 +6097,10 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="90"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
       <c r="J4" s="23">
         <v>1</v>
       </c>
@@ -5130,9 +6113,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="M4" s="13"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
       <c r="Q4" s="69"/>
       <c r="R4" s="72"/>
       <c r="S4" s="12"/>
@@ -5145,10 +6128,10 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="23">
         <v>2</v>
       </c>
@@ -5192,18 +6175,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="M6" s="13"/>
-      <c r="N6" s="84" t="s">
+      <c r="N6" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
       <c r="Q6" s="77"/>
       <c r="R6" s="74"/>
-      <c r="S6" s="85" t="s">
+      <c r="S6" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="85"/>
-      <c r="U6" s="86"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="101"/>
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1">
       <c r="A7" s="12"/>
@@ -5211,12 +6194,12 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="98"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="93"/>
       <c r="J7" s="23">
         <v>4</v>
       </c>
@@ -5229,12 +6212,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="M7" s="13"/>
-      <c r="N7" s="83">
-        <f>COUNT('C4. FormVersion'!G5:G)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
+      <c r="N7" s="90" t="str">
+        <f>IF(COUNTA('C4. FormVersion'!G5:G100000)=0, "No issues", COUNTA('C4. FormVersion'!G5:G100000)&amp;" issues")</f>
+        <v>No issues</v>
+      </c>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
       <c r="Q7" s="78"/>
       <c r="R7" s="74"/>
       <c r="S7" s="12"/>
@@ -5247,13 +6230,13 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="88">
+      <c r="F8" s="83">
         <f>SUM('C1. Progress'!B1:B998)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="24">
         <v>5</v>
       </c>
@@ -5266,9 +6249,9 @@
         <v>#VALUE!</v>
       </c>
       <c r="M8" s="13"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
       <c r="Q8" s="78"/>
       <c r="R8" s="73"/>
       <c r="S8" s="73"/>
@@ -5281,22 +6264,22 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="84" t="str">
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="94" t="str">
         <f>UPPER("Duplicate submissions")</f>
         <v>DUPLICATE SUBMISSIONS</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="84" t="s">
+      <c r="N9" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
       <c r="Q9" s="70"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
@@ -5309,23 +6292,23 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="94" t="str" cm="1">
+      <c r="F10" s="83"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="89" t="str" cm="1">
         <f t="array" ref="J10">IF(COUNT('C3. Duplicates'!A5:A1000)&gt;0,"Total "&amp;COUNT('C3. Duplicates'!A5:A1000)&amp;" issues with "&amp;SUM(IF('C3. Duplicates'!A5:'C3. Duplicates'!A1000&lt;&gt;"",1/COUNTIF('C3. Duplicates'!A5:'C3. Duplicates'!A1000,'C3. Duplicates'!A5:'C3. Duplicates'!A1000),0))&amp;" IDs", "No duplicates")</f>
         <v>No duplicates</v>
       </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="83">
-        <f>COUNT('C6. DateCheck'!B5:B)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
+      <c r="N10" s="90" t="str">
+        <f>IF(COUNTA('C6. DateCheck'!B5:B100000)=0,"No issues",COUNTA('C4. FormVersion'!G5:G100000)&amp; "issues")</f>
+        <v>No issues</v>
+      </c>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
       <c r="Q10" s="71"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
@@ -5338,19 +6321,19 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
       <c r="Q11" s="71"/>
       <c r="R11" s="79"/>
       <c r="S11" s="12"/>
@@ -5363,25 +6346,25 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="88">
+      <c r="F12" s="83">
         <f>COUNTA('C2. Productivity'!A4:A1000)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="84" t="str">
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="94" t="str">
         <f>UPPER("Average duration (min)")</f>
         <v>AVERAGE DURATION (MIN)</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="84" t="s">
+      <c r="N12" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
       <c r="Q12" s="70"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
@@ -5394,20 +6377,20 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="83">
-        <f>COUNT('C7. Outliers'!B5:B)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
+      <c r="N13" s="90" t="str">
+        <f>IF(COUNTA('C7. Outliers'!B5:B1000000)=0, "No issues", COUNTA('C7. Outliers'!B5:B1000000)&amp;" issues")</f>
+        <v>No issues</v>
+      </c>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
       <c r="Q13" s="71"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
@@ -5420,17 +6403,17 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
       <c r="Q14" s="71"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
@@ -5853,6 +6836,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="N10:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P14"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P8"/>
+    <mergeCell ref="N9:P9"/>
     <mergeCell ref="F12:I14"/>
     <mergeCell ref="J10:L11"/>
     <mergeCell ref="F3:I5"/>
@@ -5864,15 +6856,6 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L14"/>
-    <mergeCell ref="N10:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P14"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P8"/>
-    <mergeCell ref="N9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="42" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5899,14 +6882,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="48" t="s">
@@ -11089,17 +12072,17 @@
         <f ca="1">(R2+S2+T2)*0.3</f>
         <v>#REF!</v>
       </c>
-      <c r="Z2" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L2), "")</f>
-        <v/>
-      </c>
-      <c r="AA2" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L2), "")</f>
-        <v/>
-      </c>
-      <c r="AB2" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L2), "")</f>
-        <v/>
+      <c r="Z2" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L2), "")</f>
+        <v>4</v>
+      </c>
+      <c r="AA2" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L2), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L2), "")</f>
+        <v>0</v>
       </c>
       <c r="AC2" s="64" t="e">
         <f ca="1">(V2*50)+(X2*0.5)-Y2-Z2-AA2-AB2</f>
@@ -11127,20 +12110,20 @@
         <f t="shared" ref="Y3:Y41" si="3">(R3+S3+T3)*0.3</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L3), "")</f>
-        <v/>
-      </c>
-      <c r="AA3" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L3), "")</f>
-        <v/>
-      </c>
-      <c r="AB3" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L3), "")</f>
-        <v/>
+      <c r="Z3" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L3), "")</f>
+        <v>4</v>
+      </c>
+      <c r="AA3" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L3), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L3), "")</f>
+        <v>0</v>
       </c>
       <c r="AC3" s="64" t="e">
-        <f t="shared" ref="AC3:AC66" si="4">(V3*50)+(X3*0.5)-Y3-Z3-AA3-AB3</f>
+        <f t="shared" ref="AC3:AC66" ca="1" si="4">(V3*50)+(X3*0.5)-Y3-Z3-AA3-AB3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD3" s="65" t="e">
@@ -11165,20 +12148,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L4), "")</f>
-        <v/>
-      </c>
-      <c r="AA4" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L4), "")</f>
-        <v/>
-      </c>
-      <c r="AB4" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L4), "")</f>
-        <v/>
+      <c r="Z4" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L4), "")</f>
+        <v>1</v>
+      </c>
+      <c r="AA4" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L4), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L4), "")</f>
+        <v>0</v>
       </c>
       <c r="AC4" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD4" s="65" t="e">
@@ -11203,20 +12186,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L5), "")</f>
-        <v/>
-      </c>
-      <c r="AA5" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L5), "")</f>
-        <v/>
-      </c>
-      <c r="AB5" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L5), "")</f>
-        <v/>
+      <c r="Z5" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L5), "")</f>
+        <v>10</v>
+      </c>
+      <c r="AA5" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L5), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L5), "")</f>
+        <v>0</v>
       </c>
       <c r="AC5" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD5" s="65" t="e">
@@ -11241,20 +12224,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L6), "")</f>
-        <v/>
-      </c>
-      <c r="AA6" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L6), "")</f>
-        <v/>
-      </c>
-      <c r="AB6" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L6), "")</f>
-        <v/>
+      <c r="Z6" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L6), "")</f>
+        <v>5</v>
+      </c>
+      <c r="AA6" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L6), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L6), "")</f>
+        <v>0</v>
       </c>
       <c r="AC6" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD6" s="65" t="e">
@@ -11279,20 +12262,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L7), "")</f>
-        <v/>
-      </c>
-      <c r="AA7" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L7), "")</f>
-        <v/>
-      </c>
-      <c r="AB7" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L7), "")</f>
-        <v/>
+      <c r="Z7" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L7), "")</f>
+        <v>5</v>
+      </c>
+      <c r="AA7" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L7), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L7), "")</f>
+        <v>0</v>
       </c>
       <c r="AC7" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD7" s="65" t="e">
@@ -11317,20 +12300,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L8), "")</f>
-        <v/>
-      </c>
-      <c r="AA8" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L8), "")</f>
-        <v/>
-      </c>
-      <c r="AB8" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L8), "")</f>
-        <v/>
+      <c r="Z8" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L8), "")</f>
+        <v>8</v>
+      </c>
+      <c r="AA8" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L8), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L8), "")</f>
+        <v>0</v>
       </c>
       <c r="AC8" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD8" s="65" t="e">
@@ -11355,20 +12338,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L9), "")</f>
-        <v/>
-      </c>
-      <c r="AA9" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L9), "")</f>
-        <v/>
-      </c>
-      <c r="AB9" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L9), "")</f>
-        <v/>
+      <c r="Z9" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L9), "")</f>
+        <v>9</v>
+      </c>
+      <c r="AA9" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L9), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L9), "")</f>
+        <v>0</v>
       </c>
       <c r="AC9" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD9" s="65" t="e">
@@ -11393,20 +12376,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L10), "")</f>
-        <v/>
-      </c>
-      <c r="AA10" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L10), "")</f>
-        <v/>
-      </c>
-      <c r="AB10" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L10), "")</f>
-        <v/>
+      <c r="Z10" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L10), "")</f>
+        <v>2</v>
+      </c>
+      <c r="AA10" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L10), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L10), "")</f>
+        <v>0</v>
       </c>
       <c r="AC10" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD10" s="65" t="e">
@@ -11431,20 +12414,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L11), "")</f>
-        <v/>
-      </c>
-      <c r="AA11" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L11), "")</f>
-        <v/>
-      </c>
-      <c r="AB11" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L11), "")</f>
-        <v/>
+      <c r="Z11" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L11), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L11), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L11), "")</f>
+        <v>0</v>
       </c>
       <c r="AC11" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD11" s="65" t="e">
@@ -11469,20 +12452,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L12), "")</f>
-        <v/>
-      </c>
-      <c r="AA12" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L12), "")</f>
-        <v/>
-      </c>
-      <c r="AB12" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L12), "")</f>
-        <v/>
+      <c r="Z12" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L12), "")</f>
+        <v>2</v>
+      </c>
+      <c r="AA12" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L12), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L12), "")</f>
+        <v>0</v>
       </c>
       <c r="AC12" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD12" s="65" t="e">
@@ -11507,20 +12490,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L13), "")</f>
-        <v/>
-      </c>
-      <c r="AA13" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L13), "")</f>
-        <v/>
-      </c>
-      <c r="AB13" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L13), "")</f>
-        <v/>
+      <c r="Z13" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L13), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L13), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L13), "")</f>
+        <v>0</v>
       </c>
       <c r="AC13" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD13" s="65" t="e">
@@ -11545,20 +12528,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L14), "")</f>
-        <v/>
-      </c>
-      <c r="AA14" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L14), "")</f>
-        <v/>
-      </c>
-      <c r="AB14" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L14), "")</f>
-        <v/>
+      <c r="Z14" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L14), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L14), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L14), "")</f>
+        <v>0</v>
       </c>
       <c r="AC14" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD14" s="65" t="e">
@@ -11583,20 +12566,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L15), "")</f>
-        <v/>
-      </c>
-      <c r="AA15" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L15), "")</f>
-        <v/>
-      </c>
-      <c r="AB15" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L15), "")</f>
-        <v/>
+      <c r="Z15" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L15), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L15), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L15), "")</f>
+        <v>0</v>
       </c>
       <c r="AC15" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD15" s="65" t="e">
@@ -11621,20 +12604,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L16), "")</f>
-        <v/>
-      </c>
-      <c r="AA16" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L16), "")</f>
-        <v/>
-      </c>
-      <c r="AB16" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L16), "")</f>
-        <v/>
+      <c r="Z16" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L16), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L16), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L16), "")</f>
+        <v>0</v>
       </c>
       <c r="AC16" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD16" s="65" t="e">
@@ -11659,20 +12642,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L17), "")</f>
-        <v/>
-      </c>
-      <c r="AA17" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L17), "")</f>
-        <v/>
-      </c>
-      <c r="AB17" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L17), "")</f>
-        <v/>
+      <c r="Z17" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L17), "")</f>
+        <v>1</v>
+      </c>
+      <c r="AA17" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L17), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L17), "")</f>
+        <v>0</v>
       </c>
       <c r="AC17" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD17" s="65" t="e">
@@ -11697,20 +12680,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L18), "")</f>
-        <v/>
-      </c>
-      <c r="AA18" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L18), "")</f>
-        <v/>
-      </c>
-      <c r="AB18" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L18), "")</f>
-        <v/>
+      <c r="Z18" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L18), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L18), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L18), "")</f>
+        <v>0</v>
       </c>
       <c r="AC18" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD18" s="65" t="e">
@@ -11735,20 +12718,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L19), "")</f>
-        <v/>
-      </c>
-      <c r="AA19" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L19), "")</f>
-        <v/>
-      </c>
-      <c r="AB19" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L19), "")</f>
-        <v/>
+      <c r="Z19" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L19), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L19), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L19), "")</f>
+        <v>0</v>
       </c>
       <c r="AC19" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD19" s="65" t="e">
@@ -11773,20 +12756,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L20), "")</f>
-        <v/>
-      </c>
-      <c r="AA20" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L20), "")</f>
-        <v/>
-      </c>
-      <c r="AB20" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L20), "")</f>
-        <v/>
+      <c r="Z20" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L20), "")</f>
+        <v>5</v>
+      </c>
+      <c r="AA20" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L20), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L20), "")</f>
+        <v>0</v>
       </c>
       <c r="AC20" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD20" s="65" t="e">
@@ -11811,20 +12794,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L21), "")</f>
-        <v/>
-      </c>
-      <c r="AA21" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L21), "")</f>
-        <v/>
-      </c>
-      <c r="AB21" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L21), "")</f>
-        <v/>
+      <c r="Z21" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L21), "")</f>
+        <v>4</v>
+      </c>
+      <c r="AA21" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L21), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L21), "")</f>
+        <v>0</v>
       </c>
       <c r="AC21" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD21" s="65" t="e">
@@ -11849,20 +12832,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L22), "")</f>
-        <v/>
-      </c>
-      <c r="AA22" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L22), "")</f>
-        <v/>
-      </c>
-      <c r="AB22" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L22), "")</f>
-        <v/>
+      <c r="Z22" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L22), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L22), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L22), "")</f>
+        <v>0</v>
       </c>
       <c r="AC22" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD22" s="65" t="e">
@@ -11887,20 +12870,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L23), "")</f>
-        <v/>
-      </c>
-      <c r="AA23" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L23), "")</f>
-        <v/>
-      </c>
-      <c r="AB23" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L23), "")</f>
-        <v/>
+      <c r="Z23" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L23), "")</f>
+        <v>6</v>
+      </c>
+      <c r="AA23" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L23), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L23), "")</f>
+        <v>0</v>
       </c>
       <c r="AC23" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD23" s="65" t="e">
@@ -11925,20 +12908,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L24), "")</f>
-        <v/>
-      </c>
-      <c r="AA24" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L24), "")</f>
-        <v/>
-      </c>
-      <c r="AB24" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L24), "")</f>
-        <v/>
+      <c r="Z24" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L24), "")</f>
+        <v>8</v>
+      </c>
+      <c r="AA24" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L24), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L24), "")</f>
+        <v>0</v>
       </c>
       <c r="AC24" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD24" s="65" t="e">
@@ -11963,20 +12946,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L25), "")</f>
-        <v/>
-      </c>
-      <c r="AA25" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L25), "")</f>
-        <v/>
-      </c>
-      <c r="AB25" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L25), "")</f>
-        <v/>
+      <c r="Z25" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L25), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L25), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L25), "")</f>
+        <v>0</v>
       </c>
       <c r="AC25" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD25" s="65" t="e">
@@ -12001,20 +12984,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L26), "")</f>
-        <v/>
-      </c>
-      <c r="AA26" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L26), "")</f>
-        <v/>
-      </c>
-      <c r="AB26" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L26), "")</f>
-        <v/>
+      <c r="Z26" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L26), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L26), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L26), "")</f>
+        <v>0</v>
       </c>
       <c r="AC26" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD26" s="65" t="e">
@@ -12039,20 +13022,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L27), "")</f>
-        <v/>
-      </c>
-      <c r="AA27" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L27), "")</f>
-        <v/>
-      </c>
-      <c r="AB27" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L27), "")</f>
-        <v/>
+      <c r="Z27" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L27), "")</f>
+        <v>13</v>
+      </c>
+      <c r="AA27" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L27), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L27), "")</f>
+        <v>0</v>
       </c>
       <c r="AC27" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD27" s="65" t="e">
@@ -12077,20 +13060,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L28), "")</f>
-        <v/>
-      </c>
-      <c r="AA28" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L28), "")</f>
-        <v/>
-      </c>
-      <c r="AB28" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L28), "")</f>
-        <v/>
+      <c r="Z28" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L28), "")</f>
+        <v>5</v>
+      </c>
+      <c r="AA28" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L28), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L28), "")</f>
+        <v>0</v>
       </c>
       <c r="AC28" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD28" s="65" t="e">
@@ -12115,20 +13098,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L29), "")</f>
-        <v/>
-      </c>
-      <c r="AA29" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L29), "")</f>
-        <v/>
-      </c>
-      <c r="AB29" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L29), "")</f>
-        <v/>
+      <c r="Z29" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L29), "")</f>
+        <v>14</v>
+      </c>
+      <c r="AA29" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L29), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L29), "")</f>
+        <v>0</v>
       </c>
       <c r="AC29" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD29" s="65" t="e">
@@ -12153,20 +13136,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L30), "")</f>
-        <v/>
-      </c>
-      <c r="AA30" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L30), "")</f>
-        <v/>
-      </c>
-      <c r="AB30" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L30), "")</f>
-        <v/>
+      <c r="Z30" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L30), "")</f>
+        <v>6</v>
+      </c>
+      <c r="AA30" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L30), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L30), "")</f>
+        <v>0</v>
       </c>
       <c r="AC30" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD30" s="65" t="e">
@@ -12191,20 +13174,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L31), "")</f>
-        <v/>
-      </c>
-      <c r="AA31" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L31), "")</f>
-        <v/>
-      </c>
-      <c r="AB31" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L31), "")</f>
-        <v/>
+      <c r="Z31" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L31), "")</f>
+        <v>4</v>
+      </c>
+      <c r="AA31" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L31), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L31), "")</f>
+        <v>0</v>
       </c>
       <c r="AC31" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD31" s="65" t="e">
@@ -12229,20 +13212,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L32), "")</f>
-        <v/>
-      </c>
-      <c r="AA32" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L32), "")</f>
-        <v/>
-      </c>
-      <c r="AB32" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L32), "")</f>
-        <v/>
+      <c r="Z32" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L32), "")</f>
+        <v>1</v>
+      </c>
+      <c r="AA32" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L32), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L32), "")</f>
+        <v>0</v>
       </c>
       <c r="AC32" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD32" s="65" t="e">
@@ -12267,20 +13250,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z33" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L33), "")</f>
-        <v/>
-      </c>
-      <c r="AA33" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L33), "")</f>
-        <v/>
-      </c>
-      <c r="AB33" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L33), "")</f>
-        <v/>
+      <c r="Z33" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L33), "")</f>
+        <v>5</v>
+      </c>
+      <c r="AA33" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L33), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L33), "")</f>
+        <v>0</v>
       </c>
       <c r="AC33" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD33" s="65" t="e">
@@ -12305,20 +13288,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L34), "")</f>
-        <v/>
-      </c>
-      <c r="AA34" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L34), "")</f>
-        <v/>
-      </c>
-      <c r="AB34" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L34), "")</f>
-        <v/>
+      <c r="Z34" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L34), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L34), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L34), "")</f>
+        <v>0</v>
       </c>
       <c r="AC34" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD34" s="65" t="e">
@@ -12343,20 +13326,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L35), "")</f>
-        <v/>
-      </c>
-      <c r="AA35" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L35), "")</f>
-        <v/>
-      </c>
-      <c r="AB35" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L35), "")</f>
-        <v/>
+      <c r="Z35" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L35), "")</f>
+        <v>3</v>
+      </c>
+      <c r="AA35" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L35), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L35), "")</f>
+        <v>0</v>
       </c>
       <c r="AC35" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD35" s="65" t="e">
@@ -12381,20 +13364,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L36), "")</f>
-        <v/>
-      </c>
-      <c r="AA36" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L36), "")</f>
-        <v/>
-      </c>
-      <c r="AB36" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L36), "")</f>
-        <v/>
+      <c r="Z36" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L36), "")</f>
+        <v>3</v>
+      </c>
+      <c r="AA36" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L36), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L36), "")</f>
+        <v>0</v>
       </c>
       <c r="AC36" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD36" s="65" t="e">
@@ -12419,20 +13402,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z37" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L37), "")</f>
-        <v/>
-      </c>
-      <c r="AA37" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L37), "")</f>
-        <v/>
-      </c>
-      <c r="AB37" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L37), "")</f>
-        <v/>
+      <c r="Z37" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L37), "")</f>
+        <v>3</v>
+      </c>
+      <c r="AA37" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L37), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L37), "")</f>
+        <v>0</v>
       </c>
       <c r="AC37" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD37" s="65" t="e">
@@ -12457,20 +13440,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L38), "")</f>
-        <v/>
-      </c>
-      <c r="AA38" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L38), "")</f>
-        <v/>
-      </c>
-      <c r="AB38" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L38), "")</f>
-        <v/>
+      <c r="Z38" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L38), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L38), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L38), "")</f>
+        <v>0</v>
       </c>
       <c r="AC38" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD38" s="65" t="e">
@@ -12495,20 +13478,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L39), "")</f>
-        <v/>
-      </c>
-      <c r="AA39" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L39), "")</f>
-        <v/>
-      </c>
-      <c r="AB39" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L39), "")</f>
-        <v/>
+      <c r="Z39" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L39), "")</f>
+        <v>11</v>
+      </c>
+      <c r="AA39" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L39), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L39), "")</f>
+        <v>0</v>
       </c>
       <c r="AC39" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD39" s="65" t="e">
@@ -12533,20 +13516,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L40), "")</f>
-        <v/>
-      </c>
-      <c r="AA40" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L40), "")</f>
-        <v/>
-      </c>
-      <c r="AB40" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L40), "")</f>
-        <v/>
+      <c r="Z40" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L40), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L40), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L40), "")</f>
+        <v>0</v>
       </c>
       <c r="AC40" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD40" s="65" t="e">
@@ -12571,20 +13554,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L41), "")</f>
-        <v/>
-      </c>
-      <c r="AA41" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L41), "")</f>
-        <v/>
-      </c>
-      <c r="AB41" s="63" t="str">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L41), "")</f>
-        <v/>
+      <c r="Z41" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L41), "")</f>
+        <v>6</v>
+      </c>
+      <c r="AA41" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L41), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="63">
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L41), "")</f>
+        <v>1</v>
       </c>
       <c r="AC41" s="64" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD41" s="65" t="e">
@@ -12594,470 +13577,470 @@
     </row>
     <row r="42" spans="22:30">
       <c r="Z42" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L42), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L42), "")</f>
         <v>0</v>
       </c>
       <c r="AA42" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L42), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L42), "")</f>
         <v>0</v>
       </c>
       <c r="AB42" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L42), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L42), "")</f>
         <v>0</v>
       </c>
       <c r="AC42" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="22:30">
       <c r="Z43" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L43), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L43), "")</f>
         <v>0</v>
       </c>
       <c r="AA43" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L43), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L43), "")</f>
         <v>0</v>
       </c>
       <c r="AB43" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L43), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L43), "")</f>
         <v>0</v>
       </c>
       <c r="AC43" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="22:30">
       <c r="Z44" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L44), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L44), "")</f>
         <v>0</v>
       </c>
       <c r="AA44" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L44), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L44), "")</f>
         <v>0</v>
       </c>
       <c r="AB44" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L44), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L44), "")</f>
         <v>0</v>
       </c>
       <c r="AC44" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="22:30">
       <c r="Z45" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L45), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L45), "")</f>
+        <v>4</v>
       </c>
       <c r="AA45" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L45), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L45), "")</f>
         <v>0</v>
       </c>
       <c r="AB45" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L45), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L45), "")</f>
         <v>0</v>
       </c>
       <c r="AC45" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-4</v>
       </c>
     </row>
     <row r="46" spans="22:30">
       <c r="Z46" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L46), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L46), "")</f>
+        <v>1</v>
       </c>
       <c r="AA46" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L46), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L46), "")</f>
         <v>0</v>
       </c>
       <c r="AB46" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L46), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L46), "")</f>
+        <v>1</v>
       </c>
       <c r="AC46" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-2</v>
       </c>
     </row>
     <row r="47" spans="22:30">
       <c r="Z47" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L47), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L47), "")</f>
+        <v>1</v>
       </c>
       <c r="AA47" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L47), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L47), "")</f>
         <v>0</v>
       </c>
       <c r="AB47" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L47), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L47), "")</f>
         <v>0</v>
       </c>
       <c r="AC47" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="22:30">
       <c r="Z48" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L48), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L48), "")</f>
+        <v>1</v>
       </c>
       <c r="AA48" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L48), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L48), "")</f>
         <v>0</v>
       </c>
       <c r="AB48" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L48), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L48), "")</f>
         <v>0</v>
       </c>
       <c r="AC48" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="26:29">
       <c r="Z49" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L49), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L49), "")</f>
+        <v>24</v>
       </c>
       <c r="AA49" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L49), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L49), "")</f>
         <v>0</v>
       </c>
       <c r="AB49" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L49), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L49), "")</f>
         <v>0</v>
       </c>
       <c r="AC49" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-24</v>
       </c>
     </row>
     <row r="50" spans="26:29">
       <c r="Z50" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L50), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L50), "")</f>
+        <v>9</v>
       </c>
       <c r="AA50" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L50), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L50), "")</f>
         <v>0</v>
       </c>
       <c r="AB50" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L50), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L50), "")</f>
         <v>0</v>
       </c>
       <c r="AC50" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-9</v>
       </c>
     </row>
     <row r="51" spans="26:29">
       <c r="Z51" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L51), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L51), "")</f>
+        <v>3</v>
       </c>
       <c r="AA51" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L51), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L51), "")</f>
         <v>0</v>
       </c>
       <c r="AB51" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L51), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L51), "")</f>
         <v>0</v>
       </c>
       <c r="AC51" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-3</v>
       </c>
     </row>
     <row r="52" spans="26:29">
       <c r="Z52" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L52), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L52), "")</f>
+        <v>2</v>
       </c>
       <c r="AA52" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L52), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L52), "")</f>
         <v>0</v>
       </c>
       <c r="AB52" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L52), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L52), "")</f>
         <v>0</v>
       </c>
       <c r="AC52" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-2</v>
       </c>
     </row>
     <row r="53" spans="26:29">
       <c r="Z53" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L53), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L53), "")</f>
+        <v>6</v>
       </c>
       <c r="AA53" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L53), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L53), "")</f>
         <v>0</v>
       </c>
       <c r="AB53" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L53), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L53), "")</f>
         <v>0</v>
       </c>
       <c r="AC53" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-6</v>
       </c>
     </row>
     <row r="54" spans="26:29">
       <c r="Z54" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L54), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L54), "")</f>
+        <v>4</v>
       </c>
       <c r="AA54" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L54), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L54), "")</f>
         <v>0</v>
       </c>
       <c r="AB54" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L54), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L54), "")</f>
         <v>0</v>
       </c>
       <c r="AC54" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-4</v>
       </c>
     </row>
     <row r="55" spans="26:29">
       <c r="Z55" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L55), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L55), "")</f>
+        <v>6</v>
       </c>
       <c r="AA55" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L55), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L55), "")</f>
         <v>0</v>
       </c>
       <c r="AB55" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L55), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L55), "")</f>
         <v>0</v>
       </c>
       <c r="AC55" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-6</v>
       </c>
     </row>
     <row r="56" spans="26:29">
       <c r="Z56" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L56), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L56), "")</f>
+        <v>5</v>
       </c>
       <c r="AA56" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L56), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L56), "")</f>
         <v>0</v>
       </c>
       <c r="AB56" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L56), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L56), "")</f>
         <v>0</v>
       </c>
       <c r="AC56" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-5</v>
       </c>
     </row>
     <row r="57" spans="26:29">
       <c r="Z57" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L57), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L57), "")</f>
+        <v>3</v>
       </c>
       <c r="AA57" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L57), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L57), "")</f>
         <v>0</v>
       </c>
       <c r="AB57" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L57), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L57), "")</f>
         <v>0</v>
       </c>
       <c r="AC57" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-3</v>
       </c>
     </row>
     <row r="58" spans="26:29">
       <c r="Z58" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L58), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L58), "")</f>
         <v>0</v>
       </c>
       <c r="AA58" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L58), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L58), "")</f>
         <v>0</v>
       </c>
       <c r="AB58" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L58), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L58), "")</f>
         <v>0</v>
       </c>
       <c r="AC58" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="26:29">
       <c r="Z59" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L59), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L59), "")</f>
+        <v>6</v>
       </c>
       <c r="AA59" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L59), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L59), "")</f>
         <v>0</v>
       </c>
       <c r="AB59" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L59), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L59), "")</f>
         <v>0</v>
       </c>
       <c r="AC59" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-6</v>
       </c>
     </row>
     <row r="60" spans="26:29">
       <c r="Z60" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L60), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L60), "")</f>
+        <v>1</v>
       </c>
       <c r="AA60" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L60), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L60), "")</f>
         <v>0</v>
       </c>
       <c r="AB60" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L60), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L60), "")</f>
         <v>0</v>
       </c>
       <c r="AC60" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="26:29">
       <c r="Z61" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L61), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L61), "")</f>
+        <v>3</v>
       </c>
       <c r="AA61" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L61), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L61), "")</f>
         <v>0</v>
       </c>
       <c r="AB61" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L61), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L61), "")</f>
         <v>0</v>
       </c>
       <c r="AC61" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-3</v>
       </c>
     </row>
     <row r="62" spans="26:29">
       <c r="Z62" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L62), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L62), "")</f>
+        <v>6</v>
       </c>
       <c r="AA62" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L62), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L62), "")</f>
         <v>0</v>
       </c>
       <c r="AB62" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L62), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L62), "")</f>
         <v>0</v>
       </c>
       <c r="AC62" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-6</v>
       </c>
     </row>
     <row r="63" spans="26:29">
       <c r="Z63" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L63), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L63), "")</f>
+        <v>3</v>
       </c>
       <c r="AA63" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L63), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L63), "")</f>
         <v>0</v>
       </c>
       <c r="AB63" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L63), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L63), "")</f>
         <v>0</v>
       </c>
       <c r="AC63" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-3</v>
       </c>
     </row>
     <row r="64" spans="26:29">
       <c r="Z64" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L64), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L64), "")</f>
+        <v>3</v>
       </c>
       <c r="AA64" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L64), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L64), "")</f>
         <v>0</v>
       </c>
       <c r="AB64" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L64), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L64), "")</f>
         <v>0</v>
       </c>
       <c r="AC64" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-3</v>
       </c>
     </row>
     <row r="65" spans="26:29">
       <c r="Z65" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L65), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L65), "")</f>
+        <v>8</v>
       </c>
       <c r="AA65" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L65), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L65), "")</f>
         <v>0</v>
       </c>
       <c r="AB65" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L65), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L65), "")</f>
         <v>0</v>
       </c>
       <c r="AC65" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-8</v>
       </c>
     </row>
     <row r="66" spans="26:29">
       <c r="Z66" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L66), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L66), "")</f>
+        <v>17</v>
       </c>
       <c r="AA66" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L66), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L66), "")</f>
         <v>0</v>
       </c>
       <c r="AB66" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L66), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L66), "")</f>
         <v>0</v>
       </c>
       <c r="AC66" s="64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-17</v>
       </c>
     </row>
     <row r="67" spans="26:29">
       <c r="Z67" s="63">
-        <f>IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L67), "")</f>
-        <v>0</v>
+        <f ca="1">IFERROR(COUNTIF('[1]C7. Outliers'!$C$4:$C$1048576,[1]EnumPerformance!L67), "")</f>
+        <v>5</v>
       </c>
       <c r="AA67" s="63">
-        <f>IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L67), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C3. Duplicates'!$A:$E,[1]EnumPerformance!L67), "")</f>
         <v>0</v>
       </c>
       <c r="AB67" s="63">
-        <f>IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L67), "")</f>
+        <f ca="1">IFERROR(COUNTIF('[1]C4. FormVersion'!$G$5:$G$1000,[1]EnumPerformance!L67), "")</f>
         <v>0</v>
       </c>
       <c r="AC67" s="64">
-        <f t="shared" ref="AC67:AC130" si="6">(V67*50)+(X67*0.5)-Y67-Z67-AA67-AB67</f>
-        <v>0</v>
+        <f t="shared" ref="AC67:AC130" ca="1" si="6">(V67*50)+(X67*0.5)-Y67-Z67-AA67-AB67</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="68" spans="26:29">
@@ -30438,13 +31421,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="4"/>
@@ -31234,31 +32217,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
       <c r="X1" s="30"/>
       <c r="Y1" s="30"/>
     </row>
@@ -80764,13 +81747,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="19.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
@@ -80950,19 +81933,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="G1" s="103" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="G1" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
     </row>
     <row r="4" spans="1:10" s="50" customFormat="1">
       <c r="A4" s="48" t="s">
@@ -81049,14 +82032,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2"/>
@@ -81125,16 +82108,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2"/>
@@ -82252,18 +83235,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2"/>
